--- a/PMP各过程输入输出.xlsx
+++ b/PMP各过程输入输出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理过程组" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>启动过程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,6 +373,14 @@
   </si>
   <si>
     <t>4.人际关系与团队技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.决策</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,28 +768,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -792,16 +788,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -813,13 +806,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1128,649 +1136,657 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.25" customWidth="1"/>
-    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.625" customWidth="1"/>
-    <col min="14" max="15" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.625" customWidth="1"/>
-    <col min="17" max="17" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="23" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="23" t="s">
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26" t="s">
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
-    </row>
-    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="27" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="27" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="27" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="27" t="s">
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="29"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B4" s="9"/>
-      <c r="C4" s="18" t="s">
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="27"/>
+      <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="14" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="14" t="s">
         <v>10</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="9"/>
-      <c r="C5" s="19" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="27"/>
+      <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="11" t="s">
+      <c r="M5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="11" t="s">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B6" s="9"/>
-      <c r="C6" s="20" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+      <c r="C6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="20" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="12" t="s">
+      <c r="M6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="12" t="s">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B7" s="9"/>
-      <c r="C7" s="20" t="s">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="27"/>
+      <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="20" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="12" t="s">
+      <c r="M7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="12" t="s">
+      <c r="P7" s="5"/>
+      <c r="Q7" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B8" s="9"/>
-      <c r="C8" s="20" t="s">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="27"/>
+      <c r="C8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="20" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="12" t="s">
+      <c r="J8" s="5"/>
+      <c r="K8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="12" t="s">
+      <c r="M8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="12" t="s">
+      <c r="P8" s="5"/>
+      <c r="Q8" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="20" t="s">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="27"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="12" t="s">
+      <c r="J9" s="5"/>
+      <c r="K9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="20" t="s">
+      <c r="M9" s="5"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="12"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="12" t="s">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="27"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="20" t="s">
+      <c r="M10" s="5"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="12"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B11" s="9"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="12" t="s">
+      <c r="P10" s="5"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="27"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="20" t="s">
+      <c r="L11" s="16"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="12"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B12" s="9"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="21" t="s">
+      <c r="P11" s="5"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="9"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="30" t="s">
+      <c r="P12" s="6"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="30" t="s">
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="12"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B14" s="9"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="18" t="s">
+      <c r="M13" s="20"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="20"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="12"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="9"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="19" t="s">
+      <c r="O14" s="16"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="27"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="11" t="s">
+      <c r="M15" s="4"/>
+      <c r="N15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="12"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B16" s="9"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="20" t="s">
+      <c r="O15" s="16"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="27"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="12" t="s">
+      <c r="M16" s="5"/>
+      <c r="N16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O16" s="20"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="12"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B17" s="9"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="20" t="s">
+      <c r="O16" s="16"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="27"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="12" t="s">
+      <c r="M17" s="5"/>
+      <c r="N17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="20"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="12"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B18" s="9"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="20" t="s">
+      <c r="O17" s="16"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="27"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="20" t="s">
+      <c r="K18" s="9"/>
+      <c r="L18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="12"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B19" s="9"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="20" t="s">
+      <c r="M18" s="5"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="27"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="20" t="s">
+      <c r="J19" s="5"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="12"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B20" s="9"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="20" t="s">
+      <c r="M19" s="5"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="27"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="12"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B21" s="9"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="12"/>
-    </row>
-    <row r="22" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="14"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="17"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="27"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="28"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B3:B22"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="L13:N13"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B3:B22"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PMP各过程输入输出.xlsx
+++ b/PMP各过程输入输出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理过程组" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
   <si>
     <t>启动过程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,6 +381,26 @@
   </si>
   <si>
     <t>3.决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.专家判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.变更控制工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.会议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,13 +808,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,9 +825,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -821,14 +838,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,58 +1156,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.6640625" customWidth="1"/>
-    <col min="14" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.25" customWidth="1"/>
+    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.625" customWidth="1"/>
+    <col min="14" max="15" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" customWidth="1"/>
+    <col min="17" max="17" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="29" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="29" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32" t="s">
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31"/>
-    </row>
-    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -1216,8 +1236,8 @@
       <c r="P3" s="23"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B4" s="26"/>
       <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
@@ -1264,8 +1284,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="27"/>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B5" s="26"/>
       <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
@@ -1310,8 +1330,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="27"/>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B6" s="26"/>
       <c r="C6" s="16" t="s">
         <v>19</v>
       </c>
@@ -1354,8 +1374,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B7" s="26"/>
       <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
@@ -1396,8 +1416,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B8" s="26"/>
       <c r="C8" s="16" t="s">
         <v>21</v>
       </c>
@@ -1436,8 +1456,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B9" s="26"/>
       <c r="C9" s="16"/>
       <c r="D9" s="5"/>
       <c r="E9" s="9"/>
@@ -1462,8 +1482,8 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B10" s="26"/>
       <c r="C10" s="16"/>
       <c r="D10" s="5"/>
       <c r="E10" s="9"/>
@@ -1486,8 +1506,8 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B11" s="26"/>
       <c r="C11" s="16"/>
       <c r="D11" s="5"/>
       <c r="E11" s="9"/>
@@ -1508,8 +1528,8 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B12" s="26"/>
       <c r="C12" s="17"/>
       <c r="D12" s="6"/>
       <c r="E12" s="10"/>
@@ -1528,30 +1548,30 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
+    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="26"/>
       <c r="C13" s="16"/>
       <c r="D13" s="3"/>
       <c r="E13" s="9"/>
       <c r="F13" s="16"/>
       <c r="G13" s="3"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="19" t="s">
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="21"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31"/>
       <c r="O13" s="16"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B14" s="26"/>
       <c r="C14" s="16"/>
       <c r="D14" s="3"/>
       <c r="E14" s="9"/>
@@ -1580,8 +1600,8 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B15" s="26"/>
       <c r="C15" s="16"/>
       <c r="D15" s="3"/>
       <c r="E15" s="9"/>
@@ -1600,7 +1620,9 @@
       <c r="L15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="N15" s="8" t="s">
         <v>55</v>
       </c>
@@ -1608,8 +1630,8 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="9"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B16" s="26"/>
       <c r="C16" s="16"/>
       <c r="D16" s="3"/>
       <c r="E16" s="9"/>
@@ -1628,7 +1650,9 @@
       <c r="L16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="5"/>
+      <c r="M16" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="N16" s="9" t="s">
         <v>56</v>
       </c>
@@ -1636,8 +1660,8 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="9"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B17" s="26"/>
       <c r="C17" s="16"/>
       <c r="D17" s="3"/>
       <c r="E17" s="9"/>
@@ -1656,7 +1680,9 @@
       <c r="L17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="M17" s="5"/>
+      <c r="M17" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="N17" s="9" t="s">
         <v>57</v>
       </c>
@@ -1664,8 +1690,8 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B18" s="26"/>
       <c r="C18" s="16"/>
       <c r="D18" s="3"/>
       <c r="E18" s="9"/>
@@ -1682,14 +1708,16 @@
       <c r="L18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="M18" s="5"/>
+      <c r="M18" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="N18" s="9"/>
       <c r="O18" s="16"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B19" s="26"/>
       <c r="C19" s="16"/>
       <c r="D19" s="3"/>
       <c r="E19" s="9"/>
@@ -1704,14 +1732,16 @@
       <c r="L19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="M19" s="5"/>
+      <c r="M19" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="N19" s="9"/>
       <c r="O19" s="16"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B20" s="26"/>
       <c r="C20" s="16"/>
       <c r="D20" s="3"/>
       <c r="E20" s="9"/>
@@ -1730,8 +1760,8 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="9"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B21" s="26"/>
       <c r="C21" s="16"/>
       <c r="D21" s="3"/>
       <c r="E21" s="9"/>
@@ -1748,8 +1778,8 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="9"/>
     </row>
-    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
+    <row r="22" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="27"/>
       <c r="C22" s="18"/>
       <c r="D22" s="11"/>
       <c r="E22" s="13"/>
@@ -1766,13 +1796,14 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I23:K23"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -1786,7 +1817,6 @@
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="L13:N13"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PMP各过程输入输出.xlsx
+++ b/PMP各过程输入输出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理过程组" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
   <si>
     <t>启动过程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,18 @@
   </si>
   <si>
     <t>5.会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.专家判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.会议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,6 +820,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,9 +861,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1156,88 +1168,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.25" customWidth="1"/>
-    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.625" customWidth="1"/>
-    <col min="14" max="15" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.625" customWidth="1"/>
-    <col min="17" max="17" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="28" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="28" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="28" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="19" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
-    </row>
-    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="25" t="s">
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
+    </row>
+    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="22" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="22" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="22" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="24"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B4" s="26"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="25"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="27"/>
       <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
@@ -1284,8 +1298,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="26"/>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="27"/>
       <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
@@ -1325,13 +1339,15 @@
       <c r="O5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="4"/>
+      <c r="P5" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="Q5" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B6" s="26"/>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
       <c r="C6" s="16" t="s">
         <v>19</v>
       </c>
@@ -1369,13 +1385,15 @@
       <c r="O6" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="5"/>
+      <c r="P6" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="Q6" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B7" s="26"/>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="27"/>
       <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
@@ -1411,13 +1429,15 @@
       <c r="O7" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="5"/>
+      <c r="P7" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="Q7" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B8" s="26"/>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="27"/>
       <c r="C8" s="16" t="s">
         <v>21</v>
       </c>
@@ -1456,8 +1476,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B9" s="26"/>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="27"/>
       <c r="C9" s="16"/>
       <c r="D9" s="5"/>
       <c r="E9" s="9"/>
@@ -1482,8 +1502,8 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B10" s="26"/>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="27"/>
       <c r="C10" s="16"/>
       <c r="D10" s="5"/>
       <c r="E10" s="9"/>
@@ -1506,8 +1526,8 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B11" s="26"/>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="27"/>
       <c r="C11" s="16"/>
       <c r="D11" s="5"/>
       <c r="E11" s="9"/>
@@ -1528,8 +1548,8 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B12" s="26"/>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
       <c r="C12" s="17"/>
       <c r="D12" s="6"/>
       <c r="E12" s="10"/>
@@ -1548,30 +1568,30 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="26"/>
+    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
       <c r="C13" s="16"/>
       <c r="D13" s="3"/>
       <c r="E13" s="9"/>
       <c r="F13" s="16"/>
       <c r="G13" s="3"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="29" t="s">
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="32"/>
       <c r="O13" s="16"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B14" s="26"/>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
       <c r="C14" s="16"/>
       <c r="D14" s="3"/>
       <c r="E14" s="9"/>
@@ -1600,8 +1620,8 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="26"/>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="27"/>
       <c r="C15" s="16"/>
       <c r="D15" s="3"/>
       <c r="E15" s="9"/>
@@ -1630,8 +1650,8 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="9"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B16" s="26"/>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="27"/>
       <c r="C16" s="16"/>
       <c r="D16" s="3"/>
       <c r="E16" s="9"/>
@@ -1660,8 +1680,8 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="9"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B17" s="26"/>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="27"/>
       <c r="C17" s="16"/>
       <c r="D17" s="3"/>
       <c r="E17" s="9"/>
@@ -1690,8 +1710,8 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B18" s="26"/>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="27"/>
       <c r="C18" s="16"/>
       <c r="D18" s="3"/>
       <c r="E18" s="9"/>
@@ -1716,8 +1736,8 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B19" s="26"/>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="27"/>
       <c r="C19" s="16"/>
       <c r="D19" s="3"/>
       <c r="E19" s="9"/>
@@ -1740,8 +1760,8 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B20" s="26"/>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="27"/>
       <c r="C20" s="16"/>
       <c r="D20" s="3"/>
       <c r="E20" s="9"/>
@@ -1760,8 +1780,8 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="9"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B21" s="26"/>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="27"/>
       <c r="C21" s="16"/>
       <c r="D21" s="3"/>
       <c r="E21" s="9"/>
@@ -1778,8 +1798,8 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="9"/>
     </row>
-    <row r="22" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="27"/>
+    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="28"/>
       <c r="C22" s="18"/>
       <c r="D22" s="11"/>
       <c r="E22" s="13"/>
@@ -1796,18 +1816,13 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
     <mergeCell ref="B3:B22"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
@@ -1816,6 +1831,11 @@
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="L13:N13"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
     <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/PMP各过程输入输出.xlsx
+++ b/PMP各过程输入输出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理过程组" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="154">
   <si>
     <t>启动过程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,222 @@
   </si>
   <si>
     <t>5.会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.专家判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目范围管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划范围管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具与技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具与技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建WBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目章程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目章程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.商业文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目章程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.核实的可交付成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.工作绩效数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.验收的可交付成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.工作绩效信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.工作绩效数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.工作绩效信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.项目管理计划更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.需求管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.范围管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.需求文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.需求跟踪矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目范围说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.范围基准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -420,7 +636,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,8 +660,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,8 +689,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -790,40 +1027,204 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -841,26 +1242,82 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1166,664 +1623,1285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q23"/>
+  <dimension ref="B1:Q48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.6640625" customWidth="1"/>
-    <col min="14" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.25" customWidth="1"/>
+    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="13" max="13" width="15.625" customWidth="1"/>
+    <col min="14" max="15" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" customWidth="1"/>
+    <col min="17" max="17" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="29" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="29" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="20" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
-    </row>
-    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="23" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="23" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="23" t="s">
+      <c r="M3" s="6"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="14" t="s">
+      <c r="P3" s="6"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B4" s="47"/>
+      <c r="C4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="27"/>
-      <c r="C5" s="15" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B5" s="47"/>
+      <c r="C5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="27"/>
-      <c r="C6" s="16" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B6" s="47"/>
+      <c r="C6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="21"/>
+      <c r="I6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="16" t="s">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B7" s="47"/>
+      <c r="C7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="16" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
-      <c r="C8" s="16" t="s">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B8" s="47"/>
+      <c r="C8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="16" t="s">
+      <c r="H8" s="21"/>
+      <c r="I8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="9" t="s">
+      <c r="J8" s="31"/>
+      <c r="K8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="9" t="s">
+      <c r="P8" s="31"/>
+      <c r="Q8" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="16" t="s">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B9" s="47"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="9" t="s">
+      <c r="J9" s="31"/>
+      <c r="K9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="16" t="s">
+      <c r="M9" s="31"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="9" t="s">
+      <c r="P9" s="31"/>
+      <c r="Q9" s="21"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B10" s="47"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="16" t="s">
+      <c r="M10" s="31"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="9" t="s">
+      <c r="P10" s="31"/>
+      <c r="Q10" s="21"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B11" s="47"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="16" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="9"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="17" t="s">
+      <c r="P11" s="31"/>
+      <c r="Q11" s="21"/>
+    </row>
+    <row r="12" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="47"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="30" t="s">
+      <c r="P12" s="33"/>
+      <c r="Q12" s="34"/>
+    </row>
+    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="47"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="30" t="s">
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="9"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="14" t="s">
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B14" s="47"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="15" t="s">
+      <c r="O14" s="19"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="21"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B15" s="47"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="9"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="16" t="s">
+      <c r="O15" s="19"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="21"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B16" s="47"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="L16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="9"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="16" t="s">
+      <c r="O16" s="19"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="21"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B17" s="47"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="9"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="16" t="s">
+      <c r="O17" s="19"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="21"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B18" s="47"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="16" t="s">
+      <c r="K18" s="21"/>
+      <c r="L18" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="9"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="16" t="s">
+      <c r="N18" s="21"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="21"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B19" s="47"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="16" t="s">
+      <c r="J19" s="31"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="9"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="16" t="s">
+      <c r="N19" s="21"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="21"/>
+    </row>
+    <row r="20" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="47"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="9"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="9"/>
-    </row>
-    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M20" s="31"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="21"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B21" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="15"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B22" s="47"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="18"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B23" s="47"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>145</v>
+      </c>
       <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M23" s="20"/>
+      <c r="N23" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="O23" s="19"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B24" s="47"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="M24" s="20"/>
+      <c r="N24" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="O24" s="19"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="21"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B25" s="47"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="M25" s="20"/>
+      <c r="N25" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="O25" s="19"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21"/>
+    </row>
+    <row r="26" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="47"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="M26" s="20"/>
+      <c r="N26" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="O26" s="19"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="21"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B27" s="47"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M27" s="6"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B28" s="47"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="N28" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O28" s="19"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="21"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B29" s="47"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="M29" s="20"/>
+      <c r="N29" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="O29" s="19"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="21"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B30" s="47"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="M30" s="20"/>
+      <c r="N30" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="O30" s="19"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="21"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B31" s="47"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="M31" s="20"/>
+      <c r="N31" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="O31" s="19"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="21"/>
+    </row>
+    <row r="32" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="47"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="M32" s="45"/>
+      <c r="N32" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="O32" s="19"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="21"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B33" s="47"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="21"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B34" s="47"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="21"/>
+    </row>
+    <row r="35" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="47"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="21"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B36" s="47"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="21"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B37" s="47"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="21"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B38" s="47"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="21"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B39" s="47"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="21"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B40" s="47"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="21"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B41" s="47"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="G41" s="20"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="21"/>
+    </row>
+    <row r="42" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="47"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" s="20"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="21"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B43" s="47"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="21"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B44" s="47"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="21"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B45" s="47"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="21"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B46" s="47"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="20"/>
+      <c r="H46" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="21"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B47" s="47"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" s="20"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="21"/>
+    </row>
+    <row r="48" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="48"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" s="23"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B3:B22"/>
+  <mergeCells count="23">
+    <mergeCell ref="B21:B48"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B3:B20"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
@@ -1831,12 +2909,6 @@
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="L13:N13"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PMP各过程输入输出.xlsx
+++ b/PMP各过程输入输出.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="168">
   <si>
     <t>启动过程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -496,127 +496,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.项目章程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.核实的可交付成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.工作绩效数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.验收的可交付成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.工作绩效信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.工作绩效数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.工作绩效信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.项目管理计划更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.需求管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.范围管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.需求文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.需求跟踪矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目范围说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.范围基准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.专家判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.专家判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.数据收集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.数据表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.人际关系与团队技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>7.组织过程资产</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.项目章程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.项目管理计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.项目文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.事业环境因素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.组织过程资产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.项目文件更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.项目管理计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.项目文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.项目文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.核实的可交付成果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.工作绩效数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.验收的可交付成果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.工作绩效信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.变更请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.项目文件更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.项目管理计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.项目文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.工作绩效数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.组织过程资产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.工作绩效信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.变更请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.项目管理计划更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.项目文件更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.需求管理计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.范围管理计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.需求文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.需求跟踪矩阵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.项目范围说明书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.范围基准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.项目文件更新</t>
+    <t>7.系统交互图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.原型法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.人际关系与团队技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.产品分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -624,11 +684,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.数据分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.会议</t>
+    <t>2.分解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +758,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -805,19 +861,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -906,17 +949,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1020,17 +1052,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1221,10 +1242,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1233,91 +1325,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1623,9 +1641,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q48"/>
+  <dimension ref="B1:Q49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1650,1257 +1670,1290 @@
     <row r="1" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="2" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="8" t="s">
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="4"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
     </row>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="5" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="5" t="s">
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="5" t="s">
+      <c r="M3" s="36"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="7"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="37"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B4" s="47"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="N4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="47"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="O5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="P5" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B6" s="47"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="19" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="31" t="s">
+      <c r="P6" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B7" s="47"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="19" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="19" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="31" t="s">
+      <c r="P7" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Q7" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B8" s="47"/>
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="30"/>
+      <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="19" t="s">
+      <c r="H8" s="10"/>
+      <c r="I8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="21" t="s">
+      <c r="J8" s="17"/>
+      <c r="K8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="21" t="s">
+      <c r="P8" s="17"/>
+      <c r="Q8" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B9" s="47"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="19" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="21" t="s">
+      <c r="J9" s="17"/>
+      <c r="K9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="31"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="19" t="s">
+      <c r="M9" s="17"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="21"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B10" s="47"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="21" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="19" t="s">
+      <c r="M10" s="17"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="21"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B11" s="47"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="21" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="19" t="s">
+      <c r="L11" s="5"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="21"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="47"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="32" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="34"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="47"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="9" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="9" t="s">
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B14" s="47"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="25" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="27" t="s">
+      <c r="N14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="19"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="21"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="47"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="28" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="29" t="s">
+      <c r="M15" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="N15" s="30" t="s">
+      <c r="N15" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="O15" s="19"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="21"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B16" s="47"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="19" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="31" t="s">
+      <c r="M16" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O16" s="19"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="21"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B17" s="47"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="19" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M17" s="31" t="s">
+      <c r="M17" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="19"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="21"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B18" s="47"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="19" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="19" t="s">
+      <c r="K18" s="7"/>
+      <c r="L18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M18" s="31" t="s">
+      <c r="M18" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="21"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B19" s="47"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="19" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="31"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="19" t="s">
+      <c r="J19" s="17"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M19" s="31" t="s">
+      <c r="M19" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="21"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="47"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="19" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="31"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="21"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="12" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="5" t="s">
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="15"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="34"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="47"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="35" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="25" t="s">
+      <c r="I22" s="2"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="M22" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="27" t="s">
+      <c r="N22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O22" s="16"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="18"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B23" s="47"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="36" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B24" s="30"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H24" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="O24" s="5"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B25" s="30"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="O25" s="5"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="30"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="O26" s="5"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B27" s="30"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="M27" s="36"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B28" s="30"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O28" s="5"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="7"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B29" s="30"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="42" t="s">
+      <c r="I29" s="5"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="O29" s="5"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B30" s="30"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="M30" s="6"/>
+      <c r="N30" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="O30" s="5"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B31" s="30"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="O31" s="5"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="7"/>
+    </row>
+    <row r="32" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="30"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="M32" s="28"/>
+      <c r="N32" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="O32" s="5"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="7"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B33" s="30"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="7"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B34" s="30"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="7"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B35" s="30"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="36" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="30"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" s="22"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="7"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B37" s="30"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="36"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B38" s="30"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="7"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B39" s="30"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="7"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B40" s="30"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="7"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B41" s="30"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="7"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B42" s="30"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="7"/>
+    </row>
+    <row r="43" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="30"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="7"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B44" s="30"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" s="36"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="7"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B45" s="30"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="7"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B46" s="30"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="7"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B47" s="30"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M23" s="20"/>
-      <c r="N23" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="O23" s="19"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="21"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B24" s="47"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="M24" s="20"/>
-      <c r="N24" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="21"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B25" s="47"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="38" t="s">
+      <c r="G47" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="7"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B48" s="30"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="O25" s="19"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="21"/>
-    </row>
-    <row r="26" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="47"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="40" t="s">
+      <c r="G48" s="6"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="7"/>
+    </row>
+    <row r="49" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="31"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="M26" s="20"/>
-      <c r="N26" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="O26" s="19"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="21"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B27" s="47"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M27" s="6"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="21"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B28" s="47"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="O28" s="19"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="21"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B29" s="47"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="M29" s="20"/>
-      <c r="N29" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="O29" s="19"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="21"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B30" s="47"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="M30" s="20"/>
-      <c r="N30" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="O30" s="19"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="21"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B31" s="47"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="M31" s="20"/>
-      <c r="N31" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="O31" s="19"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="21"/>
-    </row>
-    <row r="32" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="47"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="M32" s="45"/>
-      <c r="N32" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="O32" s="19"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="21"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B33" s="47"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="21"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B34" s="47"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="21"/>
-    </row>
-    <row r="35" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="47"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="21"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B36" s="47"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="21"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B37" s="47"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="21"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B38" s="47"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="21"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B39" s="47"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="21"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B40" s="47"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="21"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B41" s="47"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="21"/>
-    </row>
-    <row r="42" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="47"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="21"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B43" s="47"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="21"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B44" s="47"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="21"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B45" s="47"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="21"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B46" s="47"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="G46" s="20"/>
-      <c r="H46" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="21"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B47" s="47"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="G47" s="20"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="21"/>
-    </row>
-    <row r="48" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="48"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="G48" s="23"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="24"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B21:B48"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="B3:B20"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
@@ -2909,6 +2962,21 @@
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B21:B49"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I21:K21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PMP各过程输入输出.xlsx
+++ b/PMP各过程输入输出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理过程组" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="170">
   <si>
     <t>启动过程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -685,6 +685,14 @@
   </si>
   <si>
     <t>2.分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.决策</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1292,6 +1300,36 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1305,36 +1343,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1643,90 +1651,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.25" customWidth="1"/>
-    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.625" customWidth="1"/>
-    <col min="13" max="13" width="15.625" customWidth="1"/>
-    <col min="14" max="15" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.625" customWidth="1"/>
-    <col min="17" max="17" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="39" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-    </row>
-    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="33"/>
+    </row>
+    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38" t="s">
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38" t="s">
+      <c r="M3" s="38"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="37"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="P3" s="38"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="30"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
@@ -1774,7 +1782,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="30"/>
       <c r="C5" s="14" t="s">
         <v>18</v>
@@ -1822,7 +1830,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="30"/>
       <c r="C6" s="5" t="s">
         <v>19</v>
@@ -1868,7 +1876,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="30"/>
       <c r="C7" s="5" t="s">
         <v>20</v>
@@ -1912,7 +1920,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="30"/>
       <c r="C8" s="8" t="s">
         <v>21</v>
@@ -1952,7 +1960,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="30"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -1978,7 +1986,7 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="30"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -2002,7 +2010,7 @@
       <c r="P10" s="17"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="30"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -2024,7 +2032,7 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="30"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
@@ -2044,7 +2052,7 @@
       <c r="P12" s="28"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
@@ -2052,21 +2060,21 @@
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="43" t="s">
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="45"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="36"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
@@ -2096,7 +2104,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
@@ -2126,7 +2134,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="30"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
@@ -2156,7 +2164,7 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
@@ -2186,7 +2194,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="30"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
@@ -2212,7 +2220,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="30"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
@@ -2236,7 +2244,7 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="30"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
@@ -2256,31 +2264,31 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35" t="s">
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="38" t="s">
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="34"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="M21" s="38"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="44"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="30"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
@@ -2310,7 +2318,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="30"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
@@ -2330,7 +2338,9 @@
       <c r="L23" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="M23" s="6"/>
+      <c r="M23" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="N23" s="20" t="s">
         <v>131</v>
       </c>
@@ -2338,7 +2348,7 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
@@ -2358,7 +2368,9 @@
       <c r="L24" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="M24" s="6"/>
+      <c r="M24" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="N24" s="22" t="s">
         <v>132</v>
       </c>
@@ -2366,7 +2378,7 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="30"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
@@ -2392,7 +2404,7 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
@@ -2416,29 +2428,29 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="38" t="s">
+      <c r="L27" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="M27" s="36"/>
-      <c r="N27" s="37"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="39"/>
       <c r="O27" s="5"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
@@ -2468,7 +2480,7 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="7"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
@@ -2496,7 +2508,7 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="7"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
@@ -2524,7 +2536,7 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
@@ -2550,7 +2562,7 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="7"/>
     </row>
-    <row r="32" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="30"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
@@ -2576,7 +2588,7 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="7"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="30"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
@@ -2598,7 +2610,7 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="7"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="30"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
@@ -2620,7 +2632,7 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="7"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="30"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
@@ -2642,7 +2654,7 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="7"/>
     </row>
-    <row r="36" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="30"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
@@ -2662,16 +2674,16 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="7"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="39"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
       <c r="K37" s="7"/>
@@ -2682,7 +2694,7 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="7"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
@@ -2706,7 +2718,7 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="7"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
@@ -2730,7 +2742,7 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="7"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="30"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
@@ -2754,7 +2766,7 @@
       <c r="P40" s="6"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="30"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
@@ -2776,7 +2788,7 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="30"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
@@ -2798,7 +2810,7 @@
       <c r="P42" s="6"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
@@ -2820,16 +2832,16 @@
       <c r="P43" s="6"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="35" t="s">
+      <c r="F44" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="36"/>
-      <c r="H44" s="37"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="39"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
       <c r="K44" s="7"/>
@@ -2840,7 +2852,7 @@
       <c r="P44" s="6"/>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="30"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
@@ -2864,7 +2876,7 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
@@ -2888,7 +2900,7 @@
       <c r="P46" s="6"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="30"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
@@ -2912,7 +2924,7 @@
       <c r="P47" s="6"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="30"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
@@ -2932,8 +2944,8 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="31"/>
+    <row r="49" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="41"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="10"/>
@@ -2954,19 +2966,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="B21:B49"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
@@ -2977,6 +2976,19 @@
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="I21:K21"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PMP各过程输入输出.xlsx
+++ b/PMP各过程输入输出.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="171">
   <si>
     <t>启动过程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -693,6 +693,10 @@
   </si>
   <si>
     <t>2.决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数据分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1300,36 +1304,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1343,6 +1317,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1651,9 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1678,61 +1680,61 @@
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="31" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="31" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="31" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="40" t="s">
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="33"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
     </row>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="37" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="37" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="37" t="s">
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="37" t="s">
+      <c r="M3" s="36"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="39"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="37"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="30"/>
@@ -2060,16 +2062,16 @@
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="34" t="s">
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="35"/>
-      <c r="N13" s="36"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="45"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
@@ -2268,25 +2270,25 @@
       <c r="B21" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="37" t="s">
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="38"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="44"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="34"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="30"/>
@@ -2433,19 +2435,19 @@
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="37" t="s">
+      <c r="L27" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="39"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="37"/>
       <c r="O27" s="5"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="7"/>
@@ -2500,7 +2502,9 @@
       <c r="L29" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="M29" s="6"/>
+      <c r="M29" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="N29" s="20" t="s">
         <v>139</v>
       </c>
@@ -2679,11 +2683,11 @@
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="45" t="s">
+      <c r="F37" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="38"/>
-      <c r="H37" s="39"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="37"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
       <c r="K37" s="7"/>
@@ -2837,11 +2841,11 @@
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="45" t="s">
+      <c r="F44" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="38"/>
-      <c r="H44" s="39"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="37"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
       <c r="K44" s="7"/>
@@ -2945,7 +2949,7 @@
       <c r="Q48" s="7"/>
     </row>
     <row r="49" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="41"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="10"/>
@@ -2966,6 +2970,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="B21:B49"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
@@ -2976,19 +2993,6 @@
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="I21:K21"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PMP各过程输入输出.xlsx
+++ b/PMP各过程输入输出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理过程组" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="222">
   <si>
     <t>启动过程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -697,6 +697,210 @@
   </si>
   <si>
     <t>1.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目进度管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划进度管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排列活动顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>估算活动持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定进度计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目章程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进度管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.活动清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.活动属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.里程碑清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.项目管理计划更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目进度网络图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.持续时间估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.估算依据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进度基准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目进度计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.进度数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.项目日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.项目管理计划更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.工作绩效数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.工作绩效信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.进度预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.项目管理计划更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,7 +974,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1250,11 +1454,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1304,6 +1519,36 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1319,36 +1564,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1653,90 +1886,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q49"/>
+  <dimension ref="B1:Q86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
-    <col min="14" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.25" customWidth="1"/>
+    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="13" max="13" width="15.625" customWidth="1"/>
+    <col min="14" max="15" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" customWidth="1"/>
+    <col min="17" max="17" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="39" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-    </row>
-    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="33"/>
+    </row>
+    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38" t="s">
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38" t="s">
+      <c r="M3" s="38"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="37"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P3" s="38"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4" s="30"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
@@ -1784,7 +2019,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B5" s="30"/>
       <c r="C5" s="14" t="s">
         <v>18</v>
@@ -1832,7 +2067,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B6" s="30"/>
       <c r="C6" s="5" t="s">
         <v>19</v>
@@ -1878,7 +2113,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B7" s="30"/>
       <c r="C7" s="5" t="s">
         <v>20</v>
@@ -1922,7 +2157,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="30"/>
       <c r="C8" s="8" t="s">
         <v>21</v>
@@ -1962,7 +2197,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B9" s="30"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -1988,7 +2223,7 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B10" s="30"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -2012,7 +2247,7 @@
       <c r="P10" s="17"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B11" s="30"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -2034,7 +2269,7 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="30"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
@@ -2054,7 +2289,7 @@
       <c r="P12" s="28"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="30"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
@@ -2062,21 +2297,21 @@
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="43" t="s">
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="45"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="36"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B14" s="30"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
@@ -2106,7 +2341,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B15" s="30"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
@@ -2136,7 +2371,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B16" s="30"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
@@ -2166,7 +2401,7 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B17" s="30"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
@@ -2196,7 +2431,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B18" s="30"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
@@ -2222,7 +2457,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B19" s="30"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
@@ -2246,7 +2481,7 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="30"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
@@ -2266,31 +2501,31 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B21" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35" t="s">
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="38" t="s">
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="34"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M21" s="38"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="44"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B22" s="30"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
@@ -2320,7 +2555,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B23" s="30"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
@@ -2350,7 +2585,7 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B24" s="30"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
@@ -2380,7 +2615,7 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B25" s="30"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
@@ -2406,7 +2641,7 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B26" s="30"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
@@ -2430,29 +2665,29 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B27" s="30"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="38" t="s">
+      <c r="L27" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="M27" s="36"/>
-      <c r="N27" s="37"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="39"/>
       <c r="O27" s="5"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B28" s="30"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
@@ -2482,7 +2717,7 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="7"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B29" s="30"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
@@ -2512,7 +2747,7 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="7"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B30" s="30"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
@@ -2540,7 +2775,7 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B31" s="30"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
@@ -2566,7 +2801,7 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="7"/>
     </row>
-    <row r="32" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
@@ -2592,7 +2827,7 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="7"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B33" s="30"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
@@ -2614,7 +2849,7 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="7"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B34" s="30"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
@@ -2636,7 +2871,7 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="7"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B35" s="30"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
@@ -2658,7 +2893,7 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="7"/>
     </row>
-    <row r="36" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="30"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
@@ -2678,16 +2913,16 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="7"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B37" s="30"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="39"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
       <c r="K37" s="7"/>
@@ -2698,7 +2933,7 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="7"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B38" s="30"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
@@ -2722,7 +2957,7 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="7"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B39" s="30"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
@@ -2746,7 +2981,7 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="7"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B40" s="30"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
@@ -2770,7 +3005,7 @@
       <c r="P40" s="6"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B41" s="30"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
@@ -2792,7 +3027,7 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B42" s="30"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
@@ -2814,7 +3049,7 @@
       <c r="P42" s="6"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B43" s="30"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
@@ -2836,16 +3071,16 @@
       <c r="P43" s="6"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B44" s="30"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="35" t="s">
+      <c r="F44" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="36"/>
-      <c r="H44" s="37"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="39"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
       <c r="K44" s="7"/>
@@ -2856,7 +3091,7 @@
       <c r="P44" s="6"/>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B45" s="30"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
@@ -2880,7 +3115,7 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B46" s="30"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
@@ -2904,7 +3139,7 @@
       <c r="P46" s="6"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B47" s="30"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
@@ -2928,7 +3163,7 @@
       <c r="P47" s="6"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B48" s="30"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
@@ -2948,8 +3183,8 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="31"/>
+    <row r="49" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="41"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="10"/>
@@ -2968,21 +3203,828 @@
       <c r="P49" s="9"/>
       <c r="Q49" s="10"/>
     </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B50" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="42"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="G50" s="38"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="M50" s="38"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="44"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B51" s="30"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="4"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B52" s="30"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="M52" s="6"/>
+      <c r="N52" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="O52" s="5"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="7"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B53" s="30"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="M53" s="6"/>
+      <c r="N53" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="O53" s="5"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="7"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B54" s="30"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="M54" s="6"/>
+      <c r="N54" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="O54" s="5"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="7"/>
+    </row>
+    <row r="55" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="30"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="M55" s="6"/>
+      <c r="N55" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="O55" s="5"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="7"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B56" s="30"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="G56" s="38"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="O56" s="5"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="7"/>
+    </row>
+    <row r="57" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="30"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="7"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B58" s="30"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="7"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B59" s="30"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="I59" s="5"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="7"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B60" s="30"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="7"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B61" s="30"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="I61" s="5"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="7"/>
+    </row>
+    <row r="62" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="30"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="I62" s="5"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="7"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B63" s="30"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="G63" s="38"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="7"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B64" s="30"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="5"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="7"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B65" s="30"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="7"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B66" s="30"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="7"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B67" s="30"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="7"/>
+    </row>
+    <row r="68" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="30"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="7"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B69" s="30"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="G69" s="38"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="7"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B70" s="30"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" s="5"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="7"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B71" s="30"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="I71" s="5"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="7"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B72" s="30"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="I72" s="5"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="7"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B73" s="30"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="I73" s="5"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="7"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B74" s="30"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="7"/>
+    </row>
+    <row r="75" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="30"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="7"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B76" s="30"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="G76" s="38"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="7"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B77" s="30"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="7"/>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B78" s="30"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="7"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B79" s="30"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="7"/>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B80" s="30"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="I80" s="5"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="7"/>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B81" s="30"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="7"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B82" s="30"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="I82" s="5"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="7"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B83" s="30"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="I83" s="5"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="7"/>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B84" s="30"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="I84" s="5"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="7"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B85" s="30"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="7"/>
+    </row>
+    <row r="86" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="41"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="O3:Q3"/>
+  <mergeCells count="33">
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="B50:B86"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="F76:H76"/>
     <mergeCell ref="B21:B49"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
@@ -2993,6 +4035,19 @@
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="I21:K21"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PMP各过程输入输出.xlsx
+++ b/PMP各过程输入输出.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="228">
   <si>
     <t>启动过程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -901,6 +901,30 @@
   </si>
   <si>
     <t>4.项目管理计划更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.专家判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.滚动式规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.会议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1513,57 +1537,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1582,6 +1555,57 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1888,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1915,64 +1939,64 @@
     <row r="1" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="31" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="31" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="31" t="s">
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="40" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="33"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
     </row>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="37" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="37" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="37" t="s">
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="37" t="s">
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="39"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B4" s="30"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
@@ -2020,7 +2044,7 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="30"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
@@ -2068,7 +2092,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B6" s="30"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2114,7 +2138,7 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B7" s="30"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2158,7 +2182,7 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="30"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
@@ -2198,7 +2222,7 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B9" s="30"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
@@ -2224,7 +2248,7 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B10" s="30"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
@@ -2248,7 +2272,7 @@
       <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B11" s="30"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
@@ -2270,7 +2294,7 @@
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="30"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
@@ -2290,29 +2314,29 @@
       <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="30"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="34" t="s">
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="35"/>
-      <c r="N13" s="36"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
@@ -2342,7 +2366,7 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
@@ -2372,7 +2396,7 @@
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B16" s="30"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -2402,7 +2426,7 @@
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B17" s="30"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
@@ -2432,7 +2456,7 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B18" s="30"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
@@ -2458,7 +2482,7 @@
       <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B19" s="30"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
@@ -2482,7 +2506,7 @@
       <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="30"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
@@ -2502,31 +2526,31 @@
       <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="37" t="s">
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="38"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="44"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="39"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="30"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -2556,7 +2580,7 @@
       <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B23" s="30"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
@@ -2586,7 +2610,7 @@
       <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B24" s="30"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
@@ -2616,7 +2640,7 @@
       <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B25" s="30"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
@@ -2642,7 +2666,7 @@
       <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="30"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
@@ -2666,29 +2690,29 @@
       <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B27" s="30"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="37" t="s">
+      <c r="L27" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="39"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="42"/>
       <c r="O27" s="5"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B28" s="30"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
@@ -2718,7 +2742,7 @@
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B29" s="30"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
@@ -2748,7 +2772,7 @@
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B30" s="30"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
@@ -2776,7 +2800,7 @@
       <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B31" s="30"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
@@ -2802,7 +2826,7 @@
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="30"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
@@ -2828,7 +2852,7 @@
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B33" s="30"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
@@ -2850,7 +2874,7 @@
       <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B34" s="30"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
@@ -2872,7 +2896,7 @@
       <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B35" s="30"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
@@ -2894,7 +2918,7 @@
       <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="30"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
@@ -2914,15 +2938,15 @@
       <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B37" s="30"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="45" t="s">
+      <c r="F37" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="38"/>
-      <c r="H37" s="39"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="42"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
       <c r="K37" s="7"/>
@@ -2934,7 +2958,7 @@
       <c r="Q37" s="7"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B38" s="30"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
@@ -2958,7 +2982,7 @@
       <c r="Q38" s="7"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B39" s="30"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
@@ -2982,7 +3006,7 @@
       <c r="Q39" s="7"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B40" s="30"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
@@ -3006,7 +3030,7 @@
       <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B41" s="30"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
@@ -3028,7 +3052,7 @@
       <c r="Q41" s="7"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B42" s="30"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
@@ -3050,7 +3074,7 @@
       <c r="Q42" s="7"/>
     </row>
     <row r="43" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="30"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
@@ -3072,15 +3096,15 @@
       <c r="Q43" s="7"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B44" s="30"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="45" t="s">
+      <c r="F44" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="38"/>
-      <c r="H44" s="39"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="42"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
       <c r="K44" s="7"/>
@@ -3092,7 +3116,7 @@
       <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B45" s="30"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
@@ -3116,7 +3140,7 @@
       <c r="Q45" s="7"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B46" s="30"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
@@ -3140,7 +3164,7 @@
       <c r="Q46" s="7"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B47" s="30"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
@@ -3164,7 +3188,7 @@
       <c r="Q47" s="7"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B48" s="30"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
@@ -3184,7 +3208,7 @@
       <c r="Q48" s="7"/>
     </row>
     <row r="49" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="41"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="10"/>
@@ -3204,31 +3228,31 @@
       <c r="Q49" s="10"/>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="45" t="s">
+      <c r="C50" s="37"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="G50" s="38"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="37" t="s">
+      <c r="G50" s="41"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="M50" s="38"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="44"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="39"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B51" s="30"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
@@ -3258,14 +3282,16 @@
       <c r="Q51" s="4"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B52" s="30"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
       <c r="F52" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="G52" s="6"/>
+      <c r="G52" s="6" t="s">
+        <v>222</v>
+      </c>
       <c r="H52" s="20" t="s">
         <v>182</v>
       </c>
@@ -3284,14 +3310,16 @@
       <c r="Q52" s="7"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B53" s="30"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
       <c r="F53" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="G53" s="6"/>
+      <c r="G53" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="H53" s="22"/>
       <c r="I53" s="5"/>
       <c r="J53" s="6"/>
@@ -3308,14 +3336,16 @@
       <c r="Q53" s="7"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B54" s="30"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
       <c r="F54" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="G54" s="6"/>
+      <c r="G54" s="6" t="s">
+        <v>224</v>
+      </c>
       <c r="H54" s="22"/>
       <c r="I54" s="5"/>
       <c r="J54" s="6"/>
@@ -3332,7 +3362,7 @@
       <c r="Q54" s="7"/>
     </row>
     <row r="55" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="30"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
       <c r="E55" s="7"/>
@@ -3356,15 +3386,15 @@
       <c r="Q55" s="7"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B56" s="30"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="45" t="s">
+      <c r="F56" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="G56" s="38"/>
-      <c r="H56" s="39"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="42"/>
       <c r="I56" s="5"/>
       <c r="J56" s="6"/>
       <c r="K56" s="7"/>
@@ -3378,7 +3408,7 @@
       <c r="Q56" s="7"/>
     </row>
     <row r="57" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="30"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
@@ -3402,14 +3432,16 @@
       <c r="Q57" s="7"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B58" s="30"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
       <c r="F58" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="G58" s="6"/>
+      <c r="G58" s="6" t="s">
+        <v>222</v>
+      </c>
       <c r="H58" s="20" t="s">
         <v>186</v>
       </c>
@@ -3424,14 +3456,16 @@
       <c r="Q58" s="7"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B59" s="30"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
       <c r="F59" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="G59" s="6"/>
+      <c r="G59" s="6" t="s">
+        <v>225</v>
+      </c>
       <c r="H59" s="22" t="s">
         <v>187</v>
       </c>
@@ -3446,14 +3480,16 @@
       <c r="Q59" s="7"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B60" s="30"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
       <c r="F60" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G60" s="6"/>
+      <c r="G60" s="6" t="s">
+        <v>226</v>
+      </c>
       <c r="H60" s="22" t="s">
         <v>188</v>
       </c>
@@ -3468,12 +3504,14 @@
       <c r="Q60" s="7"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B61" s="30"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
       <c r="E61" s="7"/>
       <c r="F61" s="21"/>
-      <c r="G61" s="6"/>
+      <c r="G61" s="6" t="s">
+        <v>227</v>
+      </c>
       <c r="H61" s="22" t="s">
         <v>189</v>
       </c>
@@ -3488,7 +3526,7 @@
       <c r="Q61" s="7"/>
     </row>
     <row r="62" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="30"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
@@ -3508,15 +3546,15 @@
       <c r="Q62" s="7"/>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B63" s="30"/>
+      <c r="B63" s="44"/>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="45" t="s">
+      <c r="F63" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="G63" s="38"/>
-      <c r="H63" s="39"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="42"/>
       <c r="I63" s="5"/>
       <c r="J63" s="6"/>
       <c r="K63" s="7"/>
@@ -3528,7 +3566,7 @@
       <c r="Q63" s="7"/>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B64" s="30"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
       <c r="E64" s="7"/>
@@ -3552,7 +3590,7 @@
       <c r="Q64" s="7"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B65" s="30"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
@@ -3574,7 +3612,7 @@
       <c r="Q65" s="7"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B66" s="30"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
@@ -3596,7 +3634,7 @@
       <c r="Q66" s="7"/>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B67" s="30"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
       <c r="E67" s="7"/>
@@ -3616,7 +3654,7 @@
       <c r="Q67" s="7"/>
     </row>
     <row r="68" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="30"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="5"/>
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
@@ -3636,15 +3674,15 @@
       <c r="Q68" s="7"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B69" s="30"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="5"/>
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="45" t="s">
+      <c r="F69" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="G69" s="38"/>
-      <c r="H69" s="39"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="42"/>
       <c r="I69" s="5"/>
       <c r="J69" s="6"/>
       <c r="K69" s="7"/>
@@ -3656,14 +3694,14 @@
       <c r="Q69" s="7"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B70" s="30"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
       <c r="F70" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G70" s="46" t="s">
+      <c r="G70" s="29" t="s">
         <v>8</v>
       </c>
       <c r="H70" s="13" t="s">
@@ -3680,15 +3718,15 @@
       <c r="Q70" s="7"/>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B71" s="30"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="5"/>
       <c r="D71" s="6"/>
       <c r="E71" s="7"/>
-      <c r="F71" s="47" t="s">
+      <c r="F71" s="30" t="s">
         <v>197</v>
       </c>
       <c r="G71" s="3"/>
-      <c r="H71" s="49" t="s">
+      <c r="H71" s="32" t="s">
         <v>200</v>
       </c>
       <c r="I71" s="5"/>
@@ -3702,15 +3740,15 @@
       <c r="Q71" s="7"/>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B72" s="30"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="5"/>
       <c r="D72" s="6"/>
       <c r="E72" s="7"/>
-      <c r="F72" s="47" t="s">
+      <c r="F72" s="30" t="s">
         <v>198</v>
       </c>
       <c r="G72" s="3"/>
-      <c r="H72" s="49" t="s">
+      <c r="H72" s="32" t="s">
         <v>201</v>
       </c>
       <c r="I72" s="5"/>
@@ -3724,15 +3762,15 @@
       <c r="Q72" s="7"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B73" s="30"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
-      <c r="F73" s="47" t="s">
+      <c r="F73" s="30" t="s">
         <v>199</v>
       </c>
       <c r="G73" s="3"/>
-      <c r="H73" s="49" t="s">
+      <c r="H73" s="32" t="s">
         <v>202</v>
       </c>
       <c r="I73" s="5"/>
@@ -3746,15 +3784,15 @@
       <c r="Q73" s="7"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B74" s="30"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="5"/>
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="47" t="s">
+      <c r="F74" s="30" t="s">
         <v>203</v>
       </c>
       <c r="G74" s="3"/>
-      <c r="H74" s="49"/>
+      <c r="H74" s="32"/>
       <c r="I74" s="5"/>
       <c r="J74" s="6"/>
       <c r="K74" s="7"/>
@@ -3766,13 +3804,13 @@
       <c r="Q74" s="7"/>
     </row>
     <row r="75" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="30"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
-      <c r="F75" s="48"/>
+      <c r="F75" s="31"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="50"/>
+      <c r="H75" s="33"/>
       <c r="I75" s="5"/>
       <c r="J75" s="6"/>
       <c r="K75" s="7"/>
@@ -3784,15 +3822,15 @@
       <c r="Q75" s="7"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B76" s="30"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
-      <c r="F76" s="45" t="s">
+      <c r="F76" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="G76" s="38"/>
-      <c r="H76" s="39"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="42"/>
       <c r="I76" s="5"/>
       <c r="J76" s="6"/>
       <c r="K76" s="7"/>
@@ -3804,7 +3842,7 @@
       <c r="Q76" s="7"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B77" s="30"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
@@ -3828,15 +3866,15 @@
       <c r="Q77" s="7"/>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B78" s="30"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
-      <c r="F78" s="51" t="s">
+      <c r="F78" s="34" t="s">
         <v>183</v>
       </c>
       <c r="G78" s="3"/>
-      <c r="H78" s="49" t="s">
+      <c r="H78" s="32" t="s">
         <v>207</v>
       </c>
       <c r="I78" s="5"/>
@@ -3850,15 +3888,15 @@
       <c r="Q78" s="7"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B79" s="30"/>
+      <c r="B79" s="44"/>
       <c r="C79" s="5"/>
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="51" t="s">
+      <c r="F79" s="34" t="s">
         <v>198</v>
       </c>
       <c r="G79" s="3"/>
-      <c r="H79" s="49" t="s">
+      <c r="H79" s="32" t="s">
         <v>208</v>
       </c>
       <c r="I79" s="5"/>
@@ -3872,15 +3910,15 @@
       <c r="Q79" s="7"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B80" s="30"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="5"/>
       <c r="D80" s="6"/>
       <c r="E80" s="7"/>
-      <c r="F80" s="51" t="s">
+      <c r="F80" s="34" t="s">
         <v>204</v>
       </c>
       <c r="G80" s="3"/>
-      <c r="H80" s="49" t="s">
+      <c r="H80" s="32" t="s">
         <v>209</v>
       </c>
       <c r="I80" s="5"/>
@@ -3894,15 +3932,15 @@
       <c r="Q80" s="7"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B81" s="30"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="5"/>
       <c r="D81" s="6"/>
       <c r="E81" s="7"/>
-      <c r="F81" s="52" t="s">
+      <c r="F81" s="35" t="s">
         <v>205</v>
       </c>
       <c r="G81" s="3"/>
-      <c r="H81" s="49" t="s">
+      <c r="H81" s="32" t="s">
         <v>210</v>
       </c>
       <c r="I81" s="5"/>
@@ -3916,15 +3954,15 @@
       <c r="Q81" s="7"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B82" s="30"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="5"/>
       <c r="D82" s="6"/>
       <c r="E82" s="7"/>
-      <c r="F82" s="52" t="s">
+      <c r="F82" s="35" t="s">
         <v>206</v>
       </c>
       <c r="G82" s="3"/>
-      <c r="H82" s="49" t="s">
+      <c r="H82" s="32" t="s">
         <v>211</v>
       </c>
       <c r="I82" s="5"/>
@@ -3938,13 +3976,13 @@
       <c r="Q82" s="7"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B83" s="30"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="5"/>
       <c r="D83" s="6"/>
       <c r="E83" s="7"/>
-      <c r="F83" s="52"/>
+      <c r="F83" s="35"/>
       <c r="G83" s="3"/>
-      <c r="H83" s="49" t="s">
+      <c r="H83" s="32" t="s">
         <v>212</v>
       </c>
       <c r="I83" s="5"/>
@@ -3958,13 +3996,13 @@
       <c r="Q83" s="7"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B84" s="30"/>
+      <c r="B84" s="44"/>
       <c r="C84" s="5"/>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
-      <c r="F84" s="52"/>
+      <c r="F84" s="35"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="49" t="s">
+      <c r="H84" s="32" t="s">
         <v>213</v>
       </c>
       <c r="I84" s="5"/>
@@ -3978,13 +4016,13 @@
       <c r="Q84" s="7"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B85" s="30"/>
+      <c r="B85" s="44"/>
       <c r="C85" s="5"/>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
-      <c r="F85" s="52"/>
+      <c r="F85" s="35"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="49"/>
+      <c r="H85" s="32"/>
       <c r="I85" s="5"/>
       <c r="J85" s="6"/>
       <c r="K85" s="7"/>
@@ -3996,13 +4034,13 @@
       <c r="Q85" s="7"/>
     </row>
     <row r="86" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="41"/>
+      <c r="B86" s="45"/>
       <c r="C86" s="8"/>
       <c r="D86" s="9"/>
       <c r="E86" s="10"/>
-      <c r="F86" s="53"/>
+      <c r="F86" s="36"/>
       <c r="G86" s="9"/>
-      <c r="H86" s="50"/>
+      <c r="H86" s="33"/>
       <c r="I86" s="8"/>
       <c r="J86" s="9"/>
       <c r="K86" s="10"/>
@@ -4015,6 +4053,29 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B21:B49"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="O50:Q50"/>
     <mergeCell ref="F56:H56"/>
     <mergeCell ref="F63:H63"/>
@@ -4025,29 +4086,6 @@
     <mergeCell ref="I50:K50"/>
     <mergeCell ref="L50:N50"/>
     <mergeCell ref="F76:H76"/>
-    <mergeCell ref="B21:B49"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PMP各过程输入输出.xlsx
+++ b/PMP各过程输入输出.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="232">
   <si>
     <t>启动过程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -925,6 +925,22 @@
   </si>
   <si>
     <t>4.会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.紧前关系绘图法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.确定和整合依赖关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.提前量和滞后量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.项目管理信息系统PMIS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1555,6 +1571,45 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1565,45 +1620,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1912,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1939,64 +1955,64 @@
     <row r="1" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="50" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="47" t="s">
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
     </row>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="46" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="46" t="s">
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="46" t="s">
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="46" t="s">
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B4" s="44"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
@@ -2044,7 +2060,7 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="44"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
@@ -2092,7 +2108,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B6" s="44"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2138,7 +2154,7 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B7" s="44"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2182,7 +2198,7 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="44"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
@@ -2222,7 +2238,7 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B9" s="44"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
@@ -2248,7 +2264,7 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B10" s="44"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
@@ -2272,7 +2288,7 @@
       <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B11" s="44"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
@@ -2294,7 +2310,7 @@
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="44"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
@@ -2314,29 +2330,29 @@
       <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="44"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="51" t="s">
+      <c r="I13" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="51" t="s">
+      <c r="J13" s="43"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="52"/>
-      <c r="N13" s="53"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="44"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B14" s="44"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
@@ -2366,7 +2382,7 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="44"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
@@ -2396,7 +2412,7 @@
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B16" s="44"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -2426,7 +2442,7 @@
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B17" s="44"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
@@ -2456,7 +2472,7 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B18" s="44"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
@@ -2482,7 +2498,7 @@
       <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B19" s="44"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
@@ -2506,7 +2522,7 @@
       <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="44"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
@@ -2526,31 +2542,31 @@
       <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40" t="s">
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="46" t="s">
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="39"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="52"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="44"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -2580,7 +2596,7 @@
       <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B23" s="44"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
@@ -2610,7 +2626,7 @@
       <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B24" s="44"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
@@ -2640,7 +2656,7 @@
       <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B25" s="44"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
@@ -2666,7 +2682,7 @@
       <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="44"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
@@ -2690,29 +2706,29 @@
       <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B27" s="44"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="46" t="s">
+      <c r="L27" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="M27" s="41"/>
-      <c r="N27" s="42"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="47"/>
       <c r="O27" s="5"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B28" s="44"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
@@ -2742,7 +2758,7 @@
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B29" s="44"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
@@ -2772,7 +2788,7 @@
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B30" s="44"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
@@ -2800,7 +2816,7 @@
       <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B31" s="44"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
@@ -2826,7 +2842,7 @@
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="44"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
@@ -2852,7 +2868,7 @@
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B33" s="44"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
@@ -2874,7 +2890,7 @@
       <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B34" s="44"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
@@ -2896,7 +2912,7 @@
       <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B35" s="44"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
@@ -2918,7 +2934,7 @@
       <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="44"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
@@ -2938,15 +2954,15 @@
       <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B37" s="44"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="40" t="s">
+      <c r="F37" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="42"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="47"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
       <c r="K37" s="7"/>
@@ -2958,7 +2974,7 @@
       <c r="Q37" s="7"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B38" s="44"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
@@ -2982,7 +2998,7 @@
       <c r="Q38" s="7"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B39" s="44"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
@@ -3006,7 +3022,7 @@
       <c r="Q39" s="7"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B40" s="44"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
@@ -3030,7 +3046,7 @@
       <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B41" s="44"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
@@ -3052,7 +3068,7 @@
       <c r="Q41" s="7"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B42" s="44"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
@@ -3074,7 +3090,7 @@
       <c r="Q42" s="7"/>
     </row>
     <row r="43" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="44"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
@@ -3096,15 +3112,15 @@
       <c r="Q43" s="7"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B44" s="44"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="40" t="s">
+      <c r="F44" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="41"/>
-      <c r="H44" s="42"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="47"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
       <c r="K44" s="7"/>
@@ -3116,7 +3132,7 @@
       <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B45" s="44"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
@@ -3140,7 +3156,7 @@
       <c r="Q45" s="7"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B46" s="44"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
@@ -3164,7 +3180,7 @@
       <c r="Q46" s="7"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B47" s="44"/>
+      <c r="B47" s="38"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
@@ -3188,7 +3204,7 @@
       <c r="Q47" s="7"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B48" s="44"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
@@ -3208,7 +3224,7 @@
       <c r="Q48" s="7"/>
     </row>
     <row r="49" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="45"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="10"/>
@@ -3228,31 +3244,31 @@
       <c r="Q49" s="10"/>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="40" t="s">
+      <c r="C50" s="50"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="G50" s="41"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="46" t="s">
+      <c r="G50" s="46"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="M50" s="41"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="39"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="52"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B51" s="44"/>
+      <c r="B51" s="38"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
@@ -3282,7 +3298,7 @@
       <c r="Q51" s="4"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B52" s="44"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
@@ -3310,7 +3326,7 @@
       <c r="Q52" s="7"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B53" s="44"/>
+      <c r="B53" s="38"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
@@ -3336,7 +3352,7 @@
       <c r="Q53" s="7"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B54" s="44"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
@@ -3362,7 +3378,7 @@
       <c r="Q54" s="7"/>
     </row>
     <row r="55" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="44"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
       <c r="E55" s="7"/>
@@ -3386,15 +3402,15 @@
       <c r="Q55" s="7"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B56" s="44"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="40" t="s">
+      <c r="F56" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="G56" s="41"/>
-      <c r="H56" s="42"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="47"/>
       <c r="I56" s="5"/>
       <c r="J56" s="6"/>
       <c r="K56" s="7"/>
@@ -3408,7 +3424,7 @@
       <c r="Q56" s="7"/>
     </row>
     <row r="57" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="44"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
@@ -3432,7 +3448,7 @@
       <c r="Q57" s="7"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B58" s="44"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
@@ -3456,7 +3472,7 @@
       <c r="Q58" s="7"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B59" s="44"/>
+      <c r="B59" s="38"/>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
@@ -3480,7 +3496,7 @@
       <c r="Q59" s="7"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B60" s="44"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
@@ -3504,7 +3520,7 @@
       <c r="Q60" s="7"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B61" s="44"/>
+      <c r="B61" s="38"/>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
       <c r="E61" s="7"/>
@@ -3526,7 +3542,7 @@
       <c r="Q61" s="7"/>
     </row>
     <row r="62" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="44"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
@@ -3546,15 +3562,15 @@
       <c r="Q62" s="7"/>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B63" s="44"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="40" t="s">
+      <c r="F63" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="G63" s="41"/>
-      <c r="H63" s="42"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="47"/>
       <c r="I63" s="5"/>
       <c r="J63" s="6"/>
       <c r="K63" s="7"/>
@@ -3566,7 +3582,7 @@
       <c r="Q63" s="7"/>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B64" s="44"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
       <c r="E64" s="7"/>
@@ -3590,14 +3606,16 @@
       <c r="Q64" s="7"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B65" s="44"/>
+      <c r="B65" s="38"/>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
       <c r="F65" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="G65" s="6"/>
+      <c r="G65" s="6" t="s">
+        <v>228</v>
+      </c>
       <c r="H65" s="20" t="s">
         <v>195</v>
       </c>
@@ -3612,14 +3630,16 @@
       <c r="Q65" s="7"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B66" s="44"/>
+      <c r="B66" s="38"/>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
       <c r="F66" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="G66" s="6"/>
+      <c r="G66" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="H66" s="22" t="s">
         <v>196</v>
       </c>
@@ -3634,14 +3654,16 @@
       <c r="Q66" s="7"/>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B67" s="44"/>
+      <c r="B67" s="38"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
       <c r="E67" s="7"/>
       <c r="F67" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="G67" s="6"/>
+      <c r="G67" s="6" t="s">
+        <v>230</v>
+      </c>
       <c r="H67" s="22"/>
       <c r="I67" s="5"/>
       <c r="J67" s="6"/>
@@ -3654,14 +3676,16 @@
       <c r="Q67" s="7"/>
     </row>
     <row r="68" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="44"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="5"/>
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
       <c r="F68" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="G68" s="6"/>
+      <c r="G68" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="H68" s="22"/>
       <c r="I68" s="5"/>
       <c r="J68" s="6"/>
@@ -3674,15 +3698,15 @@
       <c r="Q68" s="7"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B69" s="44"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="5"/>
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="40" t="s">
+      <c r="F69" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="G69" s="41"/>
-      <c r="H69" s="42"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="47"/>
       <c r="I69" s="5"/>
       <c r="J69" s="6"/>
       <c r="K69" s="7"/>
@@ -3694,7 +3718,7 @@
       <c r="Q69" s="7"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B70" s="44"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
@@ -3718,7 +3742,7 @@
       <c r="Q70" s="7"/>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B71" s="44"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="5"/>
       <c r="D71" s="6"/>
       <c r="E71" s="7"/>
@@ -3740,7 +3764,7 @@
       <c r="Q71" s="7"/>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B72" s="44"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="5"/>
       <c r="D72" s="6"/>
       <c r="E72" s="7"/>
@@ -3762,7 +3786,7 @@
       <c r="Q72" s="7"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B73" s="44"/>
+      <c r="B73" s="38"/>
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
@@ -3784,7 +3808,7 @@
       <c r="Q73" s="7"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B74" s="44"/>
+      <c r="B74" s="38"/>
       <c r="C74" s="5"/>
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
@@ -3804,7 +3828,7 @@
       <c r="Q74" s="7"/>
     </row>
     <row r="75" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="44"/>
+      <c r="B75" s="38"/>
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
@@ -3822,15 +3846,15 @@
       <c r="Q75" s="7"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B76" s="44"/>
+      <c r="B76" s="38"/>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
-      <c r="F76" s="40" t="s">
+      <c r="F76" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="G76" s="41"/>
-      <c r="H76" s="42"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="47"/>
       <c r="I76" s="5"/>
       <c r="J76" s="6"/>
       <c r="K76" s="7"/>
@@ -3842,7 +3866,7 @@
       <c r="Q76" s="7"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B77" s="44"/>
+      <c r="B77" s="38"/>
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
@@ -3866,7 +3890,7 @@
       <c r="Q77" s="7"/>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B78" s="44"/>
+      <c r="B78" s="38"/>
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
@@ -3888,7 +3912,7 @@
       <c r="Q78" s="7"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B79" s="44"/>
+      <c r="B79" s="38"/>
       <c r="C79" s="5"/>
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
@@ -3910,7 +3934,7 @@
       <c r="Q79" s="7"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B80" s="44"/>
+      <c r="B80" s="38"/>
       <c r="C80" s="5"/>
       <c r="D80" s="6"/>
       <c r="E80" s="7"/>
@@ -3932,7 +3956,7 @@
       <c r="Q80" s="7"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B81" s="44"/>
+      <c r="B81" s="38"/>
       <c r="C81" s="5"/>
       <c r="D81" s="6"/>
       <c r="E81" s="7"/>
@@ -3954,7 +3978,7 @@
       <c r="Q81" s="7"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B82" s="44"/>
+      <c r="B82" s="38"/>
       <c r="C82" s="5"/>
       <c r="D82" s="6"/>
       <c r="E82" s="7"/>
@@ -3976,7 +4000,7 @@
       <c r="Q82" s="7"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B83" s="44"/>
+      <c r="B83" s="38"/>
       <c r="C83" s="5"/>
       <c r="D83" s="6"/>
       <c r="E83" s="7"/>
@@ -3996,7 +4020,7 @@
       <c r="Q83" s="7"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B84" s="44"/>
+      <c r="B84" s="38"/>
       <c r="C84" s="5"/>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
@@ -4016,7 +4040,7 @@
       <c r="Q84" s="7"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B85" s="44"/>
+      <c r="B85" s="38"/>
       <c r="C85" s="5"/>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
@@ -4034,7 +4058,7 @@
       <c r="Q85" s="7"/>
     </row>
     <row r="86" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="45"/>
+      <c r="B86" s="49"/>
       <c r="C86" s="8"/>
       <c r="D86" s="9"/>
       <c r="E86" s="10"/>
@@ -4053,19 +4077,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="B50:B86"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="F76:H76"/>
     <mergeCell ref="B21:B49"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
@@ -4076,16 +4097,19 @@
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="I21:K21"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="B50:B86"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PMP各过程输入输出.xlsx
+++ b/PMP各过程输入输出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理过程组" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="239">
   <si>
     <t>启动过程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -941,6 +941,34 @@
   </si>
   <si>
     <t>4.项目管理信息系统PMIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.类比估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.参数估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.三点估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.自下而上估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.会议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1014,7 +1042,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1505,11 +1533,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1571,19 +1636,46 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1595,32 +1687,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1926,93 +2003,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q86"/>
+  <dimension ref="B1:Q89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.25" customWidth="1"/>
-    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.625" customWidth="1"/>
-    <col min="13" max="13" width="15.625" customWidth="1"/>
-    <col min="14" max="15" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.625" customWidth="1"/>
-    <col min="17" max="17" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="39" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="39" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="39" t="s">
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="48" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-    </row>
-    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="37" t="s">
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
+    </row>
+    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="45" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="45" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="45" t="s">
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="45" t="s">
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B4" s="38"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="42"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="44"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
@@ -2059,8 +2136,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="38"/>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="44"/>
       <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
@@ -2107,8 +2184,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B6" s="38"/>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="44"/>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2153,8 +2230,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B7" s="38"/>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="44"/>
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2274,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="38"/>
+    <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="44"/>
       <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
@@ -2237,8 +2314,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="44"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
@@ -2263,8 +2340,8 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="44"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
@@ -2287,8 +2364,8 @@
       <c r="P10" s="17"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B11" s="38"/>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="44"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
@@ -2309,8 +2386,8 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="38"/>
+    <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="44"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
@@ -2329,30 +2406,30 @@
       <c r="P12" s="28"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="38"/>
+    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="44"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="42" t="s">
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="43"/>
-      <c r="N13" s="44"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="44"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
@@ -2381,8 +2458,8 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="44"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
@@ -2411,8 +2488,8 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B16" s="38"/>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="44"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -2441,8 +2518,8 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B17" s="38"/>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="44"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
@@ -2471,8 +2548,8 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B18" s="38"/>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="44"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
@@ -2497,8 +2574,8 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B19" s="38"/>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="44"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
@@ -2521,8 +2598,8 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="38"/>
+    <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="44"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
@@ -2541,32 +2618,32 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B21" s="37" t="s">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="45" t="s">
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="46"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="52"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="38"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="39"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="44"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -2595,8 +2672,8 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B23" s="38"/>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="44"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
@@ -2625,8 +2702,8 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B24" s="38"/>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="44"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
@@ -2655,8 +2732,8 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B25" s="38"/>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="44"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
@@ -2681,8 +2758,8 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="38"/>
+    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="44"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
@@ -2705,30 +2782,30 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B27" s="38"/>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="44"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="53" t="s">
+      <c r="F27" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="45" t="s">
+      <c r="L27" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="42"/>
       <c r="O27" s="5"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B28" s="38"/>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="44"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
@@ -2757,8 +2834,8 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="7"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B29" s="38"/>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="44"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
@@ -2787,8 +2864,8 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="7"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B30" s="38"/>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="44"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
@@ -2815,8 +2892,8 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B31" s="38"/>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="44"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
@@ -2841,8 +2918,8 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="7"/>
     </row>
-    <row r="32" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="38"/>
+    <row r="32" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="44"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
@@ -2867,8 +2944,8 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="7"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B33" s="38"/>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="44"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
@@ -2889,8 +2966,8 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="7"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B34" s="38"/>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="44"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
@@ -2911,8 +2988,8 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="7"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B35" s="38"/>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="44"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
@@ -2933,8 +3010,8 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="7"/>
     </row>
-    <row r="36" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="38"/>
+    <row r="36" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="44"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
@@ -2953,16 +3030,16 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="7"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B37" s="38"/>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="44"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="53" t="s">
+      <c r="F37" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="46"/>
-      <c r="H37" s="47"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="42"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
       <c r="K37" s="7"/>
@@ -2973,8 +3050,8 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="7"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B38" s="38"/>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="44"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
@@ -2997,8 +3074,8 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="7"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B39" s="38"/>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="44"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
@@ -3021,8 +3098,8 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="7"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B40" s="38"/>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="44"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
@@ -3045,8 +3122,8 @@
       <c r="P40" s="6"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B41" s="38"/>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="44"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
@@ -3067,8 +3144,8 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B42" s="38"/>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="44"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
@@ -3089,8 +3166,8 @@
       <c r="P42" s="6"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="38"/>
+    <row r="43" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="44"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
@@ -3111,16 +3188,16 @@
       <c r="P43" s="6"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B44" s="38"/>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="44"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="53" t="s">
+      <c r="F44" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="46"/>
-      <c r="H44" s="47"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="42"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
       <c r="K44" s="7"/>
@@ -3131,8 +3208,8 @@
       <c r="P44" s="6"/>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B45" s="38"/>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="44"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
@@ -3155,8 +3232,8 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B46" s="38"/>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="44"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
@@ -3179,8 +3256,8 @@
       <c r="P46" s="6"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B47" s="38"/>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="44"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
@@ -3203,8 +3280,8 @@
       <c r="P47" s="6"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B48" s="38"/>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="44"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
@@ -3223,8 +3300,8 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="49"/>
+    <row r="49" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="45"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="10"/>
@@ -3243,32 +3320,32 @@
       <c r="P49" s="9"/>
       <c r="Q49" s="10"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B50" s="37" t="s">
+    <row r="50" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="50"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="53" t="s">
+      <c r="C50" s="37"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="G50" s="46"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="45" t="s">
+      <c r="G50" s="41"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="M50" s="46"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="51"/>
-      <c r="Q50" s="52"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B51" s="38"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="39"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B51" s="55"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
@@ -3297,8 +3374,8 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="4"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B52" s="38"/>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="55"/>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
@@ -3325,8 +3402,8 @@
       <c r="P52" s="6"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B53" s="38"/>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="55"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
@@ -3351,8 +3428,8 @@
       <c r="P53" s="6"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B54" s="38"/>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="55"/>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
@@ -3377,8 +3454,8 @@
       <c r="P54" s="6"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="38"/>
+    <row r="55" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="55"/>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
       <c r="E55" s="7"/>
@@ -3401,16 +3478,16 @@
       <c r="P55" s="6"/>
       <c r="Q55" s="7"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B56" s="38"/>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" s="55"/>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="53" t="s">
+      <c r="F56" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="G56" s="46"/>
-      <c r="H56" s="47"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="42"/>
       <c r="I56" s="5"/>
       <c r="J56" s="6"/>
       <c r="K56" s="7"/>
@@ -3423,8 +3500,8 @@
       <c r="P56" s="6"/>
       <c r="Q56" s="7"/>
     </row>
-    <row r="57" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="38"/>
+    <row r="57" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="55"/>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
@@ -3447,8 +3524,8 @@
       <c r="P57" s="6"/>
       <c r="Q57" s="7"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B58" s="38"/>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B58" s="55"/>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
@@ -3471,8 +3548,8 @@
       <c r="P58" s="6"/>
       <c r="Q58" s="7"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B59" s="38"/>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" s="55"/>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
@@ -3495,8 +3572,8 @@
       <c r="P59" s="6"/>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B60" s="38"/>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B60" s="55"/>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
@@ -3519,8 +3596,8 @@
       <c r="P60" s="6"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B61" s="38"/>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B61" s="55"/>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
       <c r="E61" s="7"/>
@@ -3541,8 +3618,8 @@
       <c r="P61" s="6"/>
       <c r="Q61" s="7"/>
     </row>
-    <row r="62" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="38"/>
+    <row r="62" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="55"/>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
@@ -3561,16 +3638,16 @@
       <c r="P62" s="6"/>
       <c r="Q62" s="7"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B63" s="38"/>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="55"/>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="53" t="s">
+      <c r="F63" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="G63" s="46"/>
-      <c r="H63" s="47"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="42"/>
       <c r="I63" s="5"/>
       <c r="J63" s="6"/>
       <c r="K63" s="7"/>
@@ -3581,8 +3658,8 @@
       <c r="P63" s="6"/>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B64" s="38"/>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="55"/>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
       <c r="E64" s="7"/>
@@ -3605,8 +3682,8 @@
       <c r="P64" s="6"/>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B65" s="38"/>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B65" s="55"/>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
@@ -3629,8 +3706,8 @@
       <c r="P65" s="6"/>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B66" s="38"/>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B66" s="55"/>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
@@ -3653,8 +3730,8 @@
       <c r="P66" s="6"/>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B67" s="38"/>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B67" s="55"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
       <c r="E67" s="7"/>
@@ -3675,8 +3752,8 @@
       <c r="P67" s="6"/>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="38"/>
+    <row r="68" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="55"/>
       <c r="C68" s="5"/>
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
@@ -3697,16 +3774,16 @@
       <c r="P68" s="6"/>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B69" s="38"/>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B69" s="55"/>
       <c r="C69" s="5"/>
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="53" t="s">
+      <c r="F69" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="G69" s="46"/>
-      <c r="H69" s="47"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="42"/>
       <c r="I69" s="5"/>
       <c r="J69" s="6"/>
       <c r="K69" s="7"/>
@@ -3717,8 +3794,8 @@
       <c r="P69" s="6"/>
       <c r="Q69" s="7"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B70" s="38"/>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B70" s="55"/>
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
@@ -3741,15 +3818,17 @@
       <c r="P70" s="6"/>
       <c r="Q70" s="7"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B71" s="38"/>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B71" s="55"/>
       <c r="C71" s="5"/>
       <c r="D71" s="6"/>
       <c r="E71" s="7"/>
       <c r="F71" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="G71" s="3"/>
+      <c r="G71" s="57" t="s">
+        <v>77</v>
+      </c>
       <c r="H71" s="32" t="s">
         <v>200</v>
       </c>
@@ -3763,15 +3842,17 @@
       <c r="P71" s="6"/>
       <c r="Q71" s="7"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B72" s="38"/>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B72" s="55"/>
       <c r="C72" s="5"/>
       <c r="D72" s="6"/>
       <c r="E72" s="7"/>
       <c r="F72" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="G72" s="3"/>
+      <c r="G72" s="57" t="s">
+        <v>232</v>
+      </c>
       <c r="H72" s="32" t="s">
         <v>201</v>
       </c>
@@ -3785,15 +3866,17 @@
       <c r="P72" s="6"/>
       <c r="Q72" s="7"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B73" s="38"/>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B73" s="55"/>
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
       <c r="F73" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="G73" s="3"/>
+      <c r="G73" s="57" t="s">
+        <v>233</v>
+      </c>
       <c r="H73" s="32" t="s">
         <v>202</v>
       </c>
@@ -3807,15 +3890,17 @@
       <c r="P73" s="6"/>
       <c r="Q73" s="7"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B74" s="38"/>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B74" s="55"/>
       <c r="C74" s="5"/>
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
       <c r="F74" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="G74" s="3"/>
+      <c r="G74" s="57" t="s">
+        <v>234</v>
+      </c>
       <c r="H74" s="32"/>
       <c r="I74" s="5"/>
       <c r="J74" s="6"/>
@@ -3827,14 +3912,16 @@
       <c r="P74" s="6"/>
       <c r="Q74" s="7"/>
     </row>
-    <row r="75" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="38"/>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B75" s="55"/>
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="33"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="H75" s="32"/>
       <c r="I75" s="5"/>
       <c r="J75" s="6"/>
       <c r="K75" s="7"/>
@@ -3845,16 +3932,16 @@
       <c r="P75" s="6"/>
       <c r="Q75" s="7"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B76" s="38"/>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B76" s="55"/>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
-      <c r="F76" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="G76" s="46"/>
-      <c r="H76" s="47"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="H76" s="32"/>
       <c r="I76" s="5"/>
       <c r="J76" s="6"/>
       <c r="K76" s="7"/>
@@ -3865,20 +3952,16 @@
       <c r="P76" s="6"/>
       <c r="Q76" s="7"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B77" s="38"/>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B77" s="55"/>
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
-      <c r="F77" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>9</v>
-      </c>
+      <c r="F77" s="35"/>
+      <c r="G77" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="H77" s="32"/>
       <c r="I77" s="5"/>
       <c r="J77" s="6"/>
       <c r="K77" s="7"/>
@@ -3889,18 +3972,16 @@
       <c r="P77" s="6"/>
       <c r="Q77" s="7"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B78" s="38"/>
+    <row r="78" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="55"/>
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
-      <c r="F78" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="32" t="s">
-        <v>207</v>
-      </c>
+      <c r="F78" s="31"/>
+      <c r="G78" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="H78" s="33"/>
       <c r="I78" s="5"/>
       <c r="J78" s="6"/>
       <c r="K78" s="7"/>
@@ -3911,18 +3992,16 @@
       <c r="P78" s="6"/>
       <c r="Q78" s="7"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B79" s="38"/>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B79" s="55"/>
       <c r="C79" s="5"/>
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="32" t="s">
-        <v>208</v>
-      </c>
+      <c r="F79" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G79" s="41"/>
+      <c r="H79" s="42"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6"/>
       <c r="K79" s="7"/>
@@ -3933,17 +4012,19 @@
       <c r="P79" s="6"/>
       <c r="Q79" s="7"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B80" s="38"/>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B80" s="55"/>
       <c r="C80" s="5"/>
       <c r="D80" s="6"/>
       <c r="E80" s="7"/>
-      <c r="F80" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="32" t="s">
-        <v>209</v>
+      <c r="F80" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="6"/>
@@ -3955,17 +4036,17 @@
       <c r="P80" s="6"/>
       <c r="Q80" s="7"/>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B81" s="38"/>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B81" s="55"/>
       <c r="C81" s="5"/>
       <c r="D81" s="6"/>
       <c r="E81" s="7"/>
-      <c r="F81" s="35" t="s">
-        <v>205</v>
+      <c r="F81" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="6"/>
@@ -3977,17 +4058,17 @@
       <c r="P81" s="6"/>
       <c r="Q81" s="7"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B82" s="38"/>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B82" s="55"/>
       <c r="C82" s="5"/>
       <c r="D82" s="6"/>
       <c r="E82" s="7"/>
-      <c r="F82" s="35" t="s">
-        <v>206</v>
+      <c r="F82" s="34" t="s">
+        <v>198</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="32" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I82" s="5"/>
       <c r="J82" s="6"/>
@@ -3999,15 +4080,17 @@
       <c r="P82" s="6"/>
       <c r="Q82" s="7"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B83" s="38"/>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B83" s="55"/>
       <c r="C83" s="5"/>
       <c r="D83" s="6"/>
       <c r="E83" s="7"/>
-      <c r="F83" s="35"/>
+      <c r="F83" s="34" t="s">
+        <v>204</v>
+      </c>
       <c r="G83" s="3"/>
       <c r="H83" s="32" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="6"/>
@@ -4019,15 +4102,17 @@
       <c r="P83" s="6"/>
       <c r="Q83" s="7"/>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B84" s="38"/>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B84" s="55"/>
       <c r="C84" s="5"/>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
-      <c r="F84" s="35"/>
+      <c r="F84" s="35" t="s">
+        <v>205</v>
+      </c>
       <c r="G84" s="3"/>
       <c r="H84" s="32" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="6"/>
@@ -4039,14 +4124,18 @@
       <c r="P84" s="6"/>
       <c r="Q84" s="7"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B85" s="38"/>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B85" s="55"/>
       <c r="C85" s="5"/>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
-      <c r="F85" s="35"/>
+      <c r="F85" s="35" t="s">
+        <v>206</v>
+      </c>
       <c r="G85" s="3"/>
-      <c r="H85" s="32"/>
+      <c r="H85" s="32" t="s">
+        <v>211</v>
+      </c>
       <c r="I85" s="5"/>
       <c r="J85" s="6"/>
       <c r="K85" s="7"/>
@@ -4057,36 +4146,97 @@
       <c r="P85" s="6"/>
       <c r="Q85" s="7"/>
     </row>
-    <row r="86" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="49"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="8"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="10"/>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B86" s="55"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="I86" s="5"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="7"/>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B87" s="55"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="I87" s="5"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="7"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B88" s="55"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="7"/>
+    </row>
+    <row r="89" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="56"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="B50:B86"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="B21:B49"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
@@ -4097,19 +4247,16 @@
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="I21:K21"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="B50:B89"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PMP各过程输入输出.xlsx
+++ b/PMP各过程输入输出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理过程组" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="240">
   <si>
     <t>启动过程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -969,6 +969,10 @@
   </si>
   <si>
     <t>8.会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进度网络分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1574,7 +1578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1636,6 +1640,48 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1648,45 +1694,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1696,7 +1703,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2005,91 +2012,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
-    <col min="14" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.25" customWidth="1"/>
+    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="13" max="13" width="15.625" customWidth="1"/>
+    <col min="14" max="15" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" customWidth="1"/>
+    <col min="17" max="17" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="50" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="47" t="s">
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
-    </row>
-    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="P2" s="41"/>
+      <c r="Q2" s="42"/>
+    </row>
+    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="38" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
       <c r="O3" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="44"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B4" s="39"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
@@ -2136,8 +2143,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="44"/>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B5" s="39"/>
       <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
@@ -2184,8 +2191,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="44"/>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B6" s="39"/>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2230,8 +2237,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B7" s="39"/>
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2274,8 +2281,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="44"/>
+    <row r="8" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="39"/>
       <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
@@ -2314,8 +2321,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B9" s="39"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
@@ -2340,8 +2347,8 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B10" s="39"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
@@ -2364,8 +2371,8 @@
       <c r="P10" s="17"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="44"/>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B11" s="39"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
@@ -2386,8 +2393,8 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="44"/>
+    <row r="12" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="39"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
@@ -2406,30 +2413,30 @@
       <c r="P12" s="28"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
+    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="39"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="51" t="s">
+      <c r="I13" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="51" t="s">
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="52"/>
-      <c r="N13" s="53"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="45"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B14" s="39"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
@@ -2458,8 +2465,8 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="44"/>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B15" s="39"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
@@ -2488,8 +2495,8 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="44"/>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B16" s="39"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -2518,8 +2525,8 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="44"/>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B17" s="39"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
@@ -2548,8 +2555,8 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="44"/>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B18" s="39"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
@@ -2574,8 +2581,8 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="44"/>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B19" s="39"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
@@ -2598,8 +2605,8 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="44"/>
+    <row r="20" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="39"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
@@ -2618,32 +2625,32 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="43" t="s">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B21" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40" t="s">
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="39"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
       <c r="L21" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="39"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="44"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="53"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B22" s="39"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -2672,8 +2679,8 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="44"/>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B23" s="39"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
@@ -2702,8 +2709,8 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="44"/>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B24" s="39"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
@@ -2732,8 +2739,8 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="44"/>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B25" s="39"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
@@ -2758,8 +2765,8 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="44"/>
+    <row r="26" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="39"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
@@ -2782,30 +2789,30 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="44"/>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B27" s="39"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
       <c r="L27" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="M27" s="41"/>
-      <c r="N27" s="42"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="48"/>
       <c r="O27" s="5"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="44"/>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B28" s="39"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
@@ -2834,8 +2841,8 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="7"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="44"/>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B29" s="39"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
@@ -2864,8 +2871,8 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="7"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="44"/>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B30" s="39"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
@@ -2892,8 +2899,8 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="44"/>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B31" s="39"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
@@ -2918,8 +2925,8 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="7"/>
     </row>
-    <row r="32" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="44"/>
+    <row r="32" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="39"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
@@ -2944,8 +2951,8 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="7"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="44"/>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B33" s="39"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
@@ -2966,8 +2973,8 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="7"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="44"/>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B34" s="39"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
@@ -2988,8 +2995,8 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="7"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="44"/>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B35" s="39"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
@@ -3010,8 +3017,8 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="7"/>
     </row>
-    <row r="36" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="44"/>
+    <row r="36" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="39"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
@@ -3030,16 +3037,16 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="7"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="44"/>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B37" s="39"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="40" t="s">
+      <c r="F37" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="42"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="48"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
       <c r="K37" s="7"/>
@@ -3050,8 +3057,8 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="7"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="44"/>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B38" s="39"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
@@ -3074,8 +3081,8 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="7"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="44"/>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B39" s="39"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
@@ -3098,8 +3105,8 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="7"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40" s="44"/>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B40" s="39"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
@@ -3122,8 +3129,8 @@
       <c r="P40" s="6"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41" s="44"/>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B41" s="39"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
@@ -3144,8 +3151,8 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B42" s="44"/>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B42" s="39"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
@@ -3166,8 +3173,8 @@
       <c r="P42" s="6"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="44"/>
+    <row r="43" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="39"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
@@ -3188,16 +3195,16 @@
       <c r="P43" s="6"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="44"/>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B44" s="39"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="40" t="s">
+      <c r="F44" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="41"/>
-      <c r="H44" s="42"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="48"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
       <c r="K44" s="7"/>
@@ -3208,8 +3215,8 @@
       <c r="P44" s="6"/>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B45" s="44"/>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B45" s="39"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
@@ -3232,8 +3239,8 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B46" s="44"/>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B46" s="39"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
@@ -3256,8 +3263,8 @@
       <c r="P46" s="6"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B47" s="44"/>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B47" s="39"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
@@ -3280,8 +3287,8 @@
       <c r="P47" s="6"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="44"/>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B48" s="39"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
@@ -3300,8 +3307,8 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="45"/>
+    <row r="49" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="50"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="10"/>
@@ -3320,32 +3327,32 @@
       <c r="P49" s="9"/>
       <c r="Q49" s="10"/>
     </row>
-    <row r="50" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="54" t="s">
+    <row r="50" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="40" t="s">
+      <c r="C50" s="51"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="G50" s="41"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="39"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="53"/>
       <c r="L50" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="M50" s="41"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="39"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B51" s="55"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="53"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B51" s="56"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
@@ -3374,8 +3381,8 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="4"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B52" s="55"/>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B52" s="56"/>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
@@ -3402,8 +3409,8 @@
       <c r="P52" s="6"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B53" s="55"/>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B53" s="56"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
@@ -3428,8 +3435,8 @@
       <c r="P53" s="6"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B54" s="55"/>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B54" s="56"/>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
@@ -3454,8 +3461,8 @@
       <c r="P54" s="6"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="55"/>
+    <row r="55" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="56"/>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
       <c r="E55" s="7"/>
@@ -3478,16 +3485,16 @@
       <c r="P55" s="6"/>
       <c r="Q55" s="7"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B56" s="55"/>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B56" s="56"/>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="40" t="s">
+      <c r="F56" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="G56" s="41"/>
-      <c r="H56" s="42"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="48"/>
       <c r="I56" s="5"/>
       <c r="J56" s="6"/>
       <c r="K56" s="7"/>
@@ -3500,8 +3507,8 @@
       <c r="P56" s="6"/>
       <c r="Q56" s="7"/>
     </row>
-    <row r="57" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="55"/>
+    <row r="57" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="56"/>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
@@ -3524,8 +3531,8 @@
       <c r="P57" s="6"/>
       <c r="Q57" s="7"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B58" s="55"/>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B58" s="56"/>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
@@ -3548,8 +3555,8 @@
       <c r="P58" s="6"/>
       <c r="Q58" s="7"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B59" s="55"/>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B59" s="56"/>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
@@ -3572,8 +3579,8 @@
       <c r="P59" s="6"/>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B60" s="55"/>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B60" s="56"/>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
@@ -3596,8 +3603,8 @@
       <c r="P60" s="6"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B61" s="55"/>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B61" s="56"/>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
       <c r="E61" s="7"/>
@@ -3618,8 +3625,8 @@
       <c r="P61" s="6"/>
       <c r="Q61" s="7"/>
     </row>
-    <row r="62" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="55"/>
+    <row r="62" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="56"/>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
@@ -3638,16 +3645,16 @@
       <c r="P62" s="6"/>
       <c r="Q62" s="7"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B63" s="55"/>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B63" s="56"/>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="40" t="s">
+      <c r="F63" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="G63" s="41"/>
-      <c r="H63" s="42"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="48"/>
       <c r="I63" s="5"/>
       <c r="J63" s="6"/>
       <c r="K63" s="7"/>
@@ -3658,8 +3665,8 @@
       <c r="P63" s="6"/>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="55"/>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B64" s="56"/>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
       <c r="E64" s="7"/>
@@ -3682,8 +3689,8 @@
       <c r="P64" s="6"/>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B65" s="55"/>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B65" s="56"/>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
@@ -3706,8 +3713,8 @@
       <c r="P65" s="6"/>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B66" s="55"/>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B66" s="56"/>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
@@ -3730,8 +3737,8 @@
       <c r="P66" s="6"/>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B67" s="55"/>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B67" s="56"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
       <c r="E67" s="7"/>
@@ -3752,8 +3759,8 @@
       <c r="P67" s="6"/>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="55"/>
+    <row r="68" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="56"/>
       <c r="C68" s="5"/>
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
@@ -3774,16 +3781,16 @@
       <c r="P68" s="6"/>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B69" s="55"/>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B69" s="56"/>
       <c r="C69" s="5"/>
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="40" t="s">
+      <c r="F69" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="G69" s="41"/>
-      <c r="H69" s="42"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="48"/>
       <c r="I69" s="5"/>
       <c r="J69" s="6"/>
       <c r="K69" s="7"/>
@@ -3794,8 +3801,8 @@
       <c r="P69" s="6"/>
       <c r="Q69" s="7"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B70" s="55"/>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B70" s="56"/>
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
@@ -3818,15 +3825,15 @@
       <c r="P70" s="6"/>
       <c r="Q70" s="7"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B71" s="55"/>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B71" s="56"/>
       <c r="C71" s="5"/>
       <c r="D71" s="6"/>
       <c r="E71" s="7"/>
       <c r="F71" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="G71" s="57" t="s">
+      <c r="G71" s="37" t="s">
         <v>77</v>
       </c>
       <c r="H71" s="32" t="s">
@@ -3842,15 +3849,15 @@
       <c r="P71" s="6"/>
       <c r="Q71" s="7"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B72" s="55"/>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B72" s="56"/>
       <c r="C72" s="5"/>
       <c r="D72" s="6"/>
       <c r="E72" s="7"/>
       <c r="F72" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="G72" s="57" t="s">
+      <c r="G72" s="37" t="s">
         <v>232</v>
       </c>
       <c r="H72" s="32" t="s">
@@ -3866,15 +3873,15 @@
       <c r="P72" s="6"/>
       <c r="Q72" s="7"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B73" s="55"/>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B73" s="56"/>
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
       <c r="F73" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="G73" s="57" t="s">
+      <c r="G73" s="37" t="s">
         <v>233</v>
       </c>
       <c r="H73" s="32" t="s">
@@ -3890,15 +3897,15 @@
       <c r="P73" s="6"/>
       <c r="Q73" s="7"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B74" s="55"/>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B74" s="56"/>
       <c r="C74" s="5"/>
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
       <c r="F74" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="G74" s="57" t="s">
+      <c r="G74" s="37" t="s">
         <v>234</v>
       </c>
       <c r="H74" s="32"/>
@@ -3912,13 +3919,13 @@
       <c r="P74" s="6"/>
       <c r="Q74" s="7"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B75" s="55"/>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B75" s="56"/>
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
       <c r="F75" s="35"/>
-      <c r="G75" s="57" t="s">
+      <c r="G75" s="37" t="s">
         <v>235</v>
       </c>
       <c r="H75" s="32"/>
@@ -3932,13 +3939,13 @@
       <c r="P75" s="6"/>
       <c r="Q75" s="7"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B76" s="55"/>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B76" s="56"/>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
       <c r="F76" s="35"/>
-      <c r="G76" s="57" t="s">
+      <c r="G76" s="37" t="s">
         <v>236</v>
       </c>
       <c r="H76" s="32"/>
@@ -3952,13 +3959,13 @@
       <c r="P76" s="6"/>
       <c r="Q76" s="7"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B77" s="55"/>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B77" s="56"/>
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
       <c r="F77" s="35"/>
-      <c r="G77" s="57" t="s">
+      <c r="G77" s="37" t="s">
         <v>237</v>
       </c>
       <c r="H77" s="32"/>
@@ -3972,13 +3979,13 @@
       <c r="P77" s="6"/>
       <c r="Q77" s="7"/>
     </row>
-    <row r="78" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="55"/>
+    <row r="78" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="56"/>
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
       <c r="F78" s="31"/>
-      <c r="G78" s="57" t="s">
+      <c r="G78" s="37" t="s">
         <v>238</v>
       </c>
       <c r="H78" s="33"/>
@@ -3992,16 +3999,16 @@
       <c r="P78" s="6"/>
       <c r="Q78" s="7"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B79" s="55"/>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B79" s="56"/>
       <c r="C79" s="5"/>
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="40" t="s">
+      <c r="F79" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="G79" s="41"/>
-      <c r="H79" s="42"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="48"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6"/>
       <c r="K79" s="7"/>
@@ -4012,8 +4019,8 @@
       <c r="P79" s="6"/>
       <c r="Q79" s="7"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B80" s="55"/>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B80" s="56"/>
       <c r="C80" s="5"/>
       <c r="D80" s="6"/>
       <c r="E80" s="7"/>
@@ -4036,15 +4043,17 @@
       <c r="P80" s="6"/>
       <c r="Q80" s="7"/>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B81" s="55"/>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B81" s="56"/>
       <c r="C81" s="5"/>
       <c r="D81" s="6"/>
       <c r="E81" s="7"/>
       <c r="F81" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="G81" s="3"/>
+      <c r="G81" s="37" t="s">
+        <v>239</v>
+      </c>
       <c r="H81" s="32" t="s">
         <v>207</v>
       </c>
@@ -4058,15 +4067,17 @@
       <c r="P81" s="6"/>
       <c r="Q81" s="7"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B82" s="55"/>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B82" s="56"/>
       <c r="C82" s="5"/>
       <c r="D82" s="6"/>
       <c r="E82" s="7"/>
       <c r="F82" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="G82" s="3"/>
+      <c r="G82" s="37">
+        <v>2</v>
+      </c>
       <c r="H82" s="32" t="s">
         <v>208</v>
       </c>
@@ -4080,15 +4091,15 @@
       <c r="P82" s="6"/>
       <c r="Q82" s="7"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B83" s="55"/>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B83" s="56"/>
       <c r="C83" s="5"/>
       <c r="D83" s="6"/>
       <c r="E83" s="7"/>
       <c r="F83" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="G83" s="3"/>
+      <c r="G83" s="37"/>
       <c r="H83" s="32" t="s">
         <v>209</v>
       </c>
@@ -4102,15 +4113,15 @@
       <c r="P83" s="6"/>
       <c r="Q83" s="7"/>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B84" s="55"/>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B84" s="56"/>
       <c r="C84" s="5"/>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
       <c r="F84" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="G84" s="3"/>
+      <c r="G84" s="37"/>
       <c r="H84" s="32" t="s">
         <v>210</v>
       </c>
@@ -4124,15 +4135,15 @@
       <c r="P84" s="6"/>
       <c r="Q84" s="7"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B85" s="55"/>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B85" s="56"/>
       <c r="C85" s="5"/>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
       <c r="F85" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="G85" s="3"/>
+      <c r="G85" s="37"/>
       <c r="H85" s="32" t="s">
         <v>211</v>
       </c>
@@ -4146,13 +4157,13 @@
       <c r="P85" s="6"/>
       <c r="Q85" s="7"/>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B86" s="55"/>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B86" s="56"/>
       <c r="C86" s="5"/>
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
       <c r="F86" s="35"/>
-      <c r="G86" s="3"/>
+      <c r="G86" s="37"/>
       <c r="H86" s="32" t="s">
         <v>212</v>
       </c>
@@ -4166,13 +4177,13 @@
       <c r="P86" s="6"/>
       <c r="Q86" s="7"/>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="55"/>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B87" s="56"/>
       <c r="C87" s="5"/>
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
       <c r="F87" s="35"/>
-      <c r="G87" s="3"/>
+      <c r="G87" s="37"/>
       <c r="H87" s="32" t="s">
         <v>213</v>
       </c>
@@ -4186,13 +4197,13 @@
       <c r="P87" s="6"/>
       <c r="Q87" s="7"/>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B88" s="55"/>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B88" s="56"/>
       <c r="C88" s="5"/>
       <c r="D88" s="6"/>
       <c r="E88" s="7"/>
       <c r="F88" s="35"/>
-      <c r="G88" s="3"/>
+      <c r="G88" s="37"/>
       <c r="H88" s="32"/>
       <c r="I88" s="5"/>
       <c r="J88" s="6"/>
@@ -4204,13 +4215,13 @@
       <c r="P88" s="6"/>
       <c r="Q88" s="7"/>
     </row>
-    <row r="89" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="56"/>
+    <row r="89" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="57"/>
       <c r="C89" s="8"/>
       <c r="D89" s="9"/>
       <c r="E89" s="10"/>
       <c r="F89" s="36"/>
-      <c r="G89" s="9"/>
+      <c r="G89" s="58"/>
       <c r="H89" s="33"/>
       <c r="I89" s="8"/>
       <c r="J89" s="9"/>
@@ -4224,19 +4235,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="B50:B89"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:N50"/>
     <mergeCell ref="B21:B49"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
@@ -4247,16 +4255,19 @@
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="I21:K21"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="B50:B89"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PMP各过程输入输出.xlsx
+++ b/PMP各过程输入输出.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理过程组" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="247">
   <si>
     <t>启动过程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -973,6 +974,34 @@
   </si>
   <si>
     <t>1.进度网络分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.关键路径法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.资源优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.提前量和滞后量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.进度压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.项目管理信息系统（PMIS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.敏捷发布规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1643,6 +1672,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1702,9 +1734,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2010,93 +2039,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q89"/>
+  <dimension ref="B1:Q88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.25" customWidth="1"/>
-    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.625" customWidth="1"/>
-    <col min="13" max="13" width="15.625" customWidth="1"/>
-    <col min="14" max="15" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.625" customWidth="1"/>
-    <col min="17" max="17" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="40" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="40" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="40" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="49" t="s">
+      <c r="M2" s="42"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="42"/>
-    </row>
-    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="38" t="s">
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
+    </row>
+    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="46" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="46" t="s">
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46" t="s">
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="46" t="s">
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B4" s="39"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="40"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
@@ -2143,8 +2172,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="39"/>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="40"/>
       <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
@@ -2191,8 +2220,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B6" s="39"/>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="40"/>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2237,8 +2266,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B7" s="39"/>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="40"/>
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2281,8 +2310,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="39"/>
+    <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="40"/>
       <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
@@ -2321,8 +2350,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B9" s="39"/>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="40"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
@@ -2347,8 +2376,8 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B10" s="39"/>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="40"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
@@ -2371,8 +2400,8 @@
       <c r="P10" s="17"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B11" s="39"/>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="40"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
@@ -2393,8 +2422,8 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="39"/>
+    <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="40"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
@@ -2413,30 +2442,30 @@
       <c r="P12" s="28"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="39"/>
+    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="40"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="43" t="s">
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="46"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B14" s="39"/>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="40"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
@@ -2465,8 +2494,8 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="39"/>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="40"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
@@ -2495,8 +2524,8 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B16" s="39"/>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="40"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -2525,8 +2554,8 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B17" s="39"/>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="40"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
@@ -2555,8 +2584,8 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B18" s="39"/>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="40"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
@@ -2581,8 +2610,8 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B19" s="39"/>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="40"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
@@ -2605,8 +2634,8 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="39"/>
+    <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="40"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
@@ -2625,32 +2654,32 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B21" s="38" t="s">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="46" t="s">
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="47"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="53"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="39"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="54"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="40"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -2679,8 +2708,8 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B23" s="39"/>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="40"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
@@ -2709,8 +2738,8 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B24" s="39"/>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="40"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
@@ -2739,8 +2768,8 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B25" s="39"/>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="40"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
@@ -2765,8 +2794,8 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="39"/>
+    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="40"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
@@ -2789,30 +2818,30 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B27" s="39"/>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="40"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="54" t="s">
+      <c r="F27" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="49"/>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="46" t="s">
+      <c r="L27" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="M27" s="47"/>
-      <c r="N27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="49"/>
       <c r="O27" s="5"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B28" s="39"/>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="40"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
@@ -2841,8 +2870,8 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="7"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B29" s="39"/>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="40"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
@@ -2871,8 +2900,8 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="7"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B30" s="39"/>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="40"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
@@ -2899,8 +2928,8 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B31" s="39"/>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="40"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
@@ -2925,8 +2954,8 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="7"/>
     </row>
-    <row r="32" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="39"/>
+    <row r="32" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="40"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
@@ -2951,8 +2980,8 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="7"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B33" s="39"/>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="40"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
@@ -2973,8 +3002,8 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="7"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B34" s="39"/>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="40"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
@@ -2995,8 +3024,8 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="7"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B35" s="39"/>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="40"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
@@ -3017,8 +3046,8 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="7"/>
     </row>
-    <row r="36" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="39"/>
+    <row r="36" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="40"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
@@ -3037,16 +3066,16 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="7"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B37" s="39"/>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="40"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="54" t="s">
+      <c r="F37" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="47"/>
-      <c r="H37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="49"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
       <c r="K37" s="7"/>
@@ -3057,8 +3086,8 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="7"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B38" s="39"/>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="40"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
@@ -3081,8 +3110,8 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="7"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B39" s="39"/>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="40"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
@@ -3105,8 +3134,8 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="7"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B40" s="39"/>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="40"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
@@ -3129,8 +3158,8 @@
       <c r="P40" s="6"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B41" s="39"/>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="40"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
@@ -3151,8 +3180,8 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B42" s="39"/>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="40"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
@@ -3173,8 +3202,8 @@
       <c r="P42" s="6"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="39"/>
+    <row r="43" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="40"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
@@ -3195,16 +3224,16 @@
       <c r="P43" s="6"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B44" s="39"/>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="40"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="54" t="s">
+      <c r="F44" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="47"/>
-      <c r="H44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="49"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
       <c r="K44" s="7"/>
@@ -3215,8 +3244,8 @@
       <c r="P44" s="6"/>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B45" s="39"/>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="40"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
@@ -3239,8 +3268,8 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B46" s="39"/>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="40"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
@@ -3263,8 +3292,8 @@
       <c r="P46" s="6"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B47" s="39"/>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="40"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
@@ -3287,8 +3316,8 @@
       <c r="P47" s="6"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B48" s="39"/>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="40"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
@@ -3307,8 +3336,8 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="50"/>
+    <row r="49" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="51"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="10"/>
@@ -3327,32 +3356,32 @@
       <c r="P49" s="9"/>
       <c r="Q49" s="10"/>
     </row>
-    <row r="50" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="55" t="s">
+    <row r="50" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="54" t="s">
+      <c r="C50" s="52"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="G50" s="47"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="46" t="s">
+      <c r="G50" s="48"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="M50" s="47"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="51"/>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="53"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B51" s="56"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="54"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B51" s="57"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
@@ -3381,8 +3410,8 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="4"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B52" s="56"/>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="57"/>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
@@ -3409,8 +3438,8 @@
       <c r="P52" s="6"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B53" s="56"/>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="57"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
@@ -3435,8 +3464,8 @@
       <c r="P53" s="6"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B54" s="56"/>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="57"/>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
@@ -3461,8 +3490,8 @@
       <c r="P54" s="6"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="56"/>
+    <row r="55" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="57"/>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
       <c r="E55" s="7"/>
@@ -3485,16 +3514,16 @@
       <c r="P55" s="6"/>
       <c r="Q55" s="7"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B56" s="56"/>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" s="57"/>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="54" t="s">
+      <c r="F56" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="G56" s="47"/>
-      <c r="H56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="49"/>
       <c r="I56" s="5"/>
       <c r="J56" s="6"/>
       <c r="K56" s="7"/>
@@ -3507,8 +3536,8 @@
       <c r="P56" s="6"/>
       <c r="Q56" s="7"/>
     </row>
-    <row r="57" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="56"/>
+    <row r="57" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="57"/>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
@@ -3531,8 +3560,8 @@
       <c r="P57" s="6"/>
       <c r="Q57" s="7"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B58" s="56"/>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B58" s="57"/>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
@@ -3555,8 +3584,8 @@
       <c r="P58" s="6"/>
       <c r="Q58" s="7"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B59" s="56"/>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" s="57"/>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
@@ -3579,8 +3608,8 @@
       <c r="P59" s="6"/>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B60" s="56"/>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B60" s="57"/>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
@@ -3603,8 +3632,8 @@
       <c r="P60" s="6"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B61" s="56"/>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B61" s="57"/>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
       <c r="E61" s="7"/>
@@ -3625,8 +3654,8 @@
       <c r="P61" s="6"/>
       <c r="Q61" s="7"/>
     </row>
-    <row r="62" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="56"/>
+    <row r="62" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="57"/>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
@@ -3645,16 +3674,16 @@
       <c r="P62" s="6"/>
       <c r="Q62" s="7"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B63" s="56"/>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="57"/>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="54" t="s">
+      <c r="F63" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="G63" s="47"/>
-      <c r="H63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="49"/>
       <c r="I63" s="5"/>
       <c r="J63" s="6"/>
       <c r="K63" s="7"/>
@@ -3665,8 +3694,8 @@
       <c r="P63" s="6"/>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B64" s="56"/>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="57"/>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
       <c r="E64" s="7"/>
@@ -3689,8 +3718,8 @@
       <c r="P64" s="6"/>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B65" s="56"/>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B65" s="57"/>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
@@ -3713,8 +3742,8 @@
       <c r="P65" s="6"/>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B66" s="56"/>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B66" s="57"/>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
@@ -3737,8 +3766,8 @@
       <c r="P66" s="6"/>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B67" s="56"/>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B67" s="57"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
       <c r="E67" s="7"/>
@@ -3759,8 +3788,8 @@
       <c r="P67" s="6"/>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="56"/>
+    <row r="68" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="57"/>
       <c r="C68" s="5"/>
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
@@ -3781,16 +3810,16 @@
       <c r="P68" s="6"/>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B69" s="56"/>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B69" s="57"/>
       <c r="C69" s="5"/>
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="54" t="s">
+      <c r="F69" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="G69" s="47"/>
-      <c r="H69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="49"/>
       <c r="I69" s="5"/>
       <c r="J69" s="6"/>
       <c r="K69" s="7"/>
@@ -3801,8 +3830,8 @@
       <c r="P69" s="6"/>
       <c r="Q69" s="7"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B70" s="56"/>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B70" s="57"/>
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
@@ -3825,8 +3854,8 @@
       <c r="P70" s="6"/>
       <c r="Q70" s="7"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B71" s="56"/>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B71" s="57"/>
       <c r="C71" s="5"/>
       <c r="D71" s="6"/>
       <c r="E71" s="7"/>
@@ -3849,8 +3878,8 @@
       <c r="P71" s="6"/>
       <c r="Q71" s="7"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B72" s="56"/>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B72" s="57"/>
       <c r="C72" s="5"/>
       <c r="D72" s="6"/>
       <c r="E72" s="7"/>
@@ -3873,8 +3902,8 @@
       <c r="P72" s="6"/>
       <c r="Q72" s="7"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B73" s="56"/>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B73" s="57"/>
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
@@ -3897,8 +3926,8 @@
       <c r="P73" s="6"/>
       <c r="Q73" s="7"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B74" s="56"/>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B74" s="57"/>
       <c r="C74" s="5"/>
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
@@ -3919,8 +3948,8 @@
       <c r="P74" s="6"/>
       <c r="Q74" s="7"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B75" s="56"/>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B75" s="57"/>
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
@@ -3939,8 +3968,8 @@
       <c r="P75" s="6"/>
       <c r="Q75" s="7"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B76" s="56"/>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B76" s="57"/>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
@@ -3959,8 +3988,8 @@
       <c r="P76" s="6"/>
       <c r="Q76" s="7"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B77" s="56"/>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B77" s="57"/>
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
@@ -3979,8 +4008,8 @@
       <c r="P77" s="6"/>
       <c r="Q77" s="7"/>
     </row>
-    <row r="78" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="56"/>
+    <row r="78" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="57"/>
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
@@ -3999,16 +4028,16 @@
       <c r="P78" s="6"/>
       <c r="Q78" s="7"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B79" s="56"/>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B79" s="57"/>
       <c r="C79" s="5"/>
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="54" t="s">
+      <c r="F79" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="G79" s="47"/>
-      <c r="H79" s="48"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="49"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6"/>
       <c r="K79" s="7"/>
@@ -4019,8 +4048,8 @@
       <c r="P79" s="6"/>
       <c r="Q79" s="7"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B80" s="56"/>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B80" s="57"/>
       <c r="C80" s="5"/>
       <c r="D80" s="6"/>
       <c r="E80" s="7"/>
@@ -4043,8 +4072,8 @@
       <c r="P80" s="6"/>
       <c r="Q80" s="7"/>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B81" s="56"/>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B81" s="57"/>
       <c r="C81" s="5"/>
       <c r="D81" s="6"/>
       <c r="E81" s="7"/>
@@ -4067,16 +4096,16 @@
       <c r="P81" s="6"/>
       <c r="Q81" s="7"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B82" s="56"/>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B82" s="57"/>
       <c r="C82" s="5"/>
       <c r="D82" s="6"/>
       <c r="E82" s="7"/>
       <c r="F82" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="G82" s="37">
-        <v>2</v>
+      <c r="G82" s="37" t="s">
+        <v>240</v>
       </c>
       <c r="H82" s="32" t="s">
         <v>208</v>
@@ -4091,15 +4120,17 @@
       <c r="P82" s="6"/>
       <c r="Q82" s="7"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B83" s="56"/>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B83" s="57"/>
       <c r="C83" s="5"/>
       <c r="D83" s="6"/>
       <c r="E83" s="7"/>
       <c r="F83" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="G83" s="37"/>
+      <c r="G83" s="37" t="s">
+        <v>241</v>
+      </c>
       <c r="H83" s="32" t="s">
         <v>209</v>
       </c>
@@ -4113,15 +4144,17 @@
       <c r="P83" s="6"/>
       <c r="Q83" s="7"/>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B84" s="56"/>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B84" s="57"/>
       <c r="C84" s="5"/>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
       <c r="F84" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="G84" s="37"/>
+      <c r="G84" s="37" t="s">
+        <v>242</v>
+      </c>
       <c r="H84" s="32" t="s">
         <v>210</v>
       </c>
@@ -4135,15 +4168,17 @@
       <c r="P84" s="6"/>
       <c r="Q84" s="7"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B85" s="56"/>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B85" s="57"/>
       <c r="C85" s="5"/>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
       <c r="F85" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="G85" s="37"/>
+      <c r="G85" s="37" t="s">
+        <v>243</v>
+      </c>
       <c r="H85" s="32" t="s">
         <v>211</v>
       </c>
@@ -4157,13 +4192,15 @@
       <c r="P85" s="6"/>
       <c r="Q85" s="7"/>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B86" s="56"/>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B86" s="57"/>
       <c r="C86" s="5"/>
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
       <c r="F86" s="35"/>
-      <c r="G86" s="37"/>
+      <c r="G86" s="37" t="s">
+        <v>244</v>
+      </c>
       <c r="H86" s="32" t="s">
         <v>212</v>
       </c>
@@ -4177,13 +4214,15 @@
       <c r="P86" s="6"/>
       <c r="Q86" s="7"/>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B87" s="56"/>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B87" s="57"/>
       <c r="C87" s="5"/>
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
       <c r="F87" s="35"/>
-      <c r="G87" s="37"/>
+      <c r="G87" s="37" t="s">
+        <v>245</v>
+      </c>
       <c r="H87" s="32" t="s">
         <v>213</v>
       </c>
@@ -4197,46 +4236,30 @@
       <c r="P87" s="6"/>
       <c r="Q87" s="7"/>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B88" s="56"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="7"/>
-    </row>
-    <row r="89" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="57"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="10"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="10"/>
+    <row r="88" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="58"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="H88" s="33"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="33">
     <mergeCell ref="F79:H79"/>
-    <mergeCell ref="B50:B89"/>
+    <mergeCell ref="B50:B88"/>
     <mergeCell ref="O50:Q50"/>
     <mergeCell ref="F56:H56"/>
     <mergeCell ref="F63:H63"/>

--- a/PMP各过程输入输出.xlsx
+++ b/PMP各过程输入输出.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理过程组" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="253">
   <si>
     <t>启动过程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1002,6 +1001,30 @@
   </si>
   <si>
     <t>8.敏捷发布规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.关键路径法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.资源优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.提前量和滞后量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.进度压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.项目管理信息系统（PMIS)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1675,31 +1698,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1708,10 +1707,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1723,17 +1725,38 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2041,91 +2064,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
-    <col min="14" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.25" customWidth="1"/>
+    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="13" max="13" width="24.625" customWidth="1"/>
+    <col min="14" max="15" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" customWidth="1"/>
+    <col min="17" max="17" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="41" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="41" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="41" t="s">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="50" t="s">
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43"/>
-    </row>
-    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="54"/>
+    </row>
+    <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="47" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="47" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="47" t="s">
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="47" t="s">
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="49"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B4" s="50"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
@@ -2172,8 +2193,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="40"/>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B5" s="50"/>
       <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
@@ -2220,8 +2241,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B6" s="50"/>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2266,8 +2287,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B7" s="50"/>
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2310,8 +2331,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
+    <row r="8" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="50"/>
       <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
@@ -2350,8 +2371,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B9" s="50"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
@@ -2376,8 +2397,8 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B10" s="50"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
@@ -2400,8 +2421,8 @@
       <c r="P10" s="17"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B11" s="50"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
@@ -2422,8 +2443,8 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="40"/>
+    <row r="12" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="50"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
@@ -2442,30 +2463,30 @@
       <c r="P12" s="28"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
+    <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="50"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="44" t="s">
+      <c r="J13" s="57"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="45"/>
-      <c r="N13" s="46"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="58"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B14" s="50"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
@@ -2494,8 +2515,8 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B15" s="50"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
@@ -2524,8 +2545,8 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="40"/>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B16" s="50"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -2554,8 +2575,8 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="40"/>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B17" s="50"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
@@ -2584,8 +2605,8 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="40"/>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B18" s="50"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
@@ -2610,8 +2631,8 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="40"/>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B19" s="50"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
@@ -2634,8 +2655,8 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="40"/>
+    <row r="20" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="50"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
@@ -2654,32 +2675,32 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="39" t="s">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B21" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55" t="s">
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="47" t="s">
+      <c r="G21" s="40"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="48"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="54"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="47"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B22" s="50"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -2708,8 +2729,8 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="40"/>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B23" s="50"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
@@ -2738,8 +2759,8 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="40"/>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B24" s="50"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
@@ -2768,8 +2789,8 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="40"/>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B25" s="50"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
@@ -2794,8 +2815,8 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="40"/>
+    <row r="26" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="50"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
@@ -2818,30 +2839,30 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="40"/>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B27" s="50"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="48"/>
-      <c r="H27" s="49"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="47" t="s">
+      <c r="L27" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="M27" s="48"/>
-      <c r="N27" s="49"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="41"/>
       <c r="O27" s="5"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="40"/>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B28" s="50"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
@@ -2870,8 +2891,8 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="7"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="40"/>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B29" s="50"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
@@ -2900,8 +2921,8 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="7"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="40"/>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B30" s="50"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
@@ -2928,8 +2949,8 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="40"/>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B31" s="50"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
@@ -2954,8 +2975,8 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="7"/>
     </row>
-    <row r="32" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="40"/>
+    <row r="32" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="50"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
@@ -2980,8 +3001,8 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="7"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="40"/>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B33" s="50"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
@@ -3002,8 +3023,8 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="7"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="40"/>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B34" s="50"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
@@ -3024,8 +3045,8 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="7"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="40"/>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B35" s="50"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
@@ -3046,8 +3067,8 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="7"/>
     </row>
-    <row r="36" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="40"/>
+    <row r="36" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="50"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
@@ -3066,16 +3087,16 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="7"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="40"/>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B37" s="50"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="55" t="s">
+      <c r="F37" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="48"/>
-      <c r="H37" s="49"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="41"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
       <c r="K37" s="7"/>
@@ -3086,8 +3107,8 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="7"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="40"/>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B38" s="50"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
@@ -3110,8 +3131,8 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="7"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="40"/>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B39" s="50"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
@@ -3134,8 +3155,8 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="7"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40" s="40"/>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B40" s="50"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
@@ -3158,8 +3179,8 @@
       <c r="P40" s="6"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41" s="40"/>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B41" s="50"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
@@ -3180,8 +3201,8 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B42" s="40"/>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B42" s="50"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
@@ -3202,8 +3223,8 @@
       <c r="P42" s="6"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="40"/>
+    <row r="43" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="50"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
@@ -3224,16 +3245,16 @@
       <c r="P43" s="6"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="40"/>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B44" s="50"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="55" t="s">
+      <c r="F44" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="48"/>
-      <c r="H44" s="49"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="41"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
       <c r="K44" s="7"/>
@@ -3244,8 +3265,8 @@
       <c r="P44" s="6"/>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B45" s="40"/>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B45" s="50"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
@@ -3268,8 +3289,8 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B46" s="40"/>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B46" s="50"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
@@ -3292,8 +3313,8 @@
       <c r="P46" s="6"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B47" s="40"/>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B47" s="50"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
@@ -3316,8 +3337,8 @@
       <c r="P47" s="6"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="40"/>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B48" s="50"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
@@ -3336,7 +3357,7 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B49" s="51"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
@@ -3356,32 +3377,32 @@
       <c r="P49" s="9"/>
       <c r="Q49" s="10"/>
     </row>
-    <row r="50" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="56" t="s">
+    <row r="50" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="55" t="s">
+      <c r="C50" s="45"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="G50" s="48"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="47" t="s">
+      <c r="G50" s="40"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="M50" s="48"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="54"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B51" s="57"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="47"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B51" s="43"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
@@ -3410,8 +3431,8 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="4"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B52" s="57"/>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B52" s="43"/>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
@@ -3430,7 +3451,9 @@
       <c r="L52" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="M52" s="6"/>
+      <c r="M52" s="37" t="s">
+        <v>247</v>
+      </c>
       <c r="N52" s="20" t="s">
         <v>217</v>
       </c>
@@ -3438,8 +3461,8 @@
       <c r="P52" s="6"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B53" s="57"/>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B53" s="43"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
@@ -3456,7 +3479,9 @@
       <c r="L53" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="M53" s="6"/>
+      <c r="M53" s="37" t="s">
+        <v>248</v>
+      </c>
       <c r="N53" s="22" t="s">
         <v>218</v>
       </c>
@@ -3464,8 +3489,8 @@
       <c r="P53" s="6"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B54" s="57"/>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B54" s="43"/>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
@@ -3482,7 +3507,9 @@
       <c r="L54" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="M54" s="6"/>
+      <c r="M54" s="37" t="s">
+        <v>249</v>
+      </c>
       <c r="N54" s="22" t="s">
         <v>219</v>
       </c>
@@ -3490,8 +3517,8 @@
       <c r="P54" s="6"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="57"/>
+    <row r="55" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="43"/>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
       <c r="E55" s="7"/>
@@ -3506,7 +3533,9 @@
       <c r="L55" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="M55" s="6"/>
+      <c r="M55" s="37" t="s">
+        <v>250</v>
+      </c>
       <c r="N55" s="22" t="s">
         <v>221</v>
       </c>
@@ -3514,21 +3543,23 @@
       <c r="P55" s="6"/>
       <c r="Q55" s="7"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B56" s="57"/>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B56" s="43"/>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="55" t="s">
+      <c r="F56" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="G56" s="48"/>
-      <c r="H56" s="49"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="41"/>
       <c r="I56" s="5"/>
       <c r="J56" s="6"/>
       <c r="K56" s="7"/>
       <c r="L56" s="26"/>
-      <c r="M56" s="6"/>
+      <c r="M56" s="37" t="s">
+        <v>251</v>
+      </c>
       <c r="N56" s="22" t="s">
         <v>220</v>
       </c>
@@ -3536,8 +3567,8 @@
       <c r="P56" s="6"/>
       <c r="Q56" s="7"/>
     </row>
-    <row r="57" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="57"/>
+    <row r="57" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="43"/>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
@@ -3554,14 +3585,16 @@
       <c r="J57" s="6"/>
       <c r="K57" s="7"/>
       <c r="L57" s="27"/>
-      <c r="M57" s="9"/>
+      <c r="M57" s="38" t="s">
+        <v>252</v>
+      </c>
       <c r="N57" s="24"/>
       <c r="O57" s="5"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="7"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B58" s="57"/>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B58" s="43"/>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
@@ -3584,8 +3617,8 @@
       <c r="P58" s="6"/>
       <c r="Q58" s="7"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B59" s="57"/>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B59" s="43"/>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
@@ -3608,8 +3641,8 @@
       <c r="P59" s="6"/>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B60" s="57"/>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B60" s="43"/>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
@@ -3632,8 +3665,8 @@
       <c r="P60" s="6"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B61" s="57"/>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B61" s="43"/>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
       <c r="E61" s="7"/>
@@ -3654,8 +3687,8 @@
       <c r="P61" s="6"/>
       <c r="Q61" s="7"/>
     </row>
-    <row r="62" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="57"/>
+    <row r="62" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="43"/>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
@@ -3674,16 +3707,16 @@
       <c r="P62" s="6"/>
       <c r="Q62" s="7"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B63" s="57"/>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B63" s="43"/>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="55" t="s">
+      <c r="F63" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="G63" s="48"/>
-      <c r="H63" s="49"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="41"/>
       <c r="I63" s="5"/>
       <c r="J63" s="6"/>
       <c r="K63" s="7"/>
@@ -3694,8 +3727,8 @@
       <c r="P63" s="6"/>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="57"/>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B64" s="43"/>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
       <c r="E64" s="7"/>
@@ -3718,8 +3751,8 @@
       <c r="P64" s="6"/>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B65" s="57"/>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B65" s="43"/>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
@@ -3742,8 +3775,8 @@
       <c r="P65" s="6"/>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B66" s="57"/>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B66" s="43"/>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
@@ -3766,8 +3799,8 @@
       <c r="P66" s="6"/>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B67" s="57"/>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B67" s="43"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
       <c r="E67" s="7"/>
@@ -3788,8 +3821,8 @@
       <c r="P67" s="6"/>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="57"/>
+    <row r="68" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="43"/>
       <c r="C68" s="5"/>
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
@@ -3810,16 +3843,16 @@
       <c r="P68" s="6"/>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B69" s="57"/>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B69" s="43"/>
       <c r="C69" s="5"/>
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="55" t="s">
+      <c r="F69" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="G69" s="48"/>
-      <c r="H69" s="49"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="41"/>
       <c r="I69" s="5"/>
       <c r="J69" s="6"/>
       <c r="K69" s="7"/>
@@ -3830,8 +3863,8 @@
       <c r="P69" s="6"/>
       <c r="Q69" s="7"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B70" s="57"/>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B70" s="43"/>
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
@@ -3854,8 +3887,8 @@
       <c r="P70" s="6"/>
       <c r="Q70" s="7"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B71" s="57"/>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B71" s="43"/>
       <c r="C71" s="5"/>
       <c r="D71" s="6"/>
       <c r="E71" s="7"/>
@@ -3878,8 +3911,8 @@
       <c r="P71" s="6"/>
       <c r="Q71" s="7"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B72" s="57"/>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B72" s="43"/>
       <c r="C72" s="5"/>
       <c r="D72" s="6"/>
       <c r="E72" s="7"/>
@@ -3902,8 +3935,8 @@
       <c r="P72" s="6"/>
       <c r="Q72" s="7"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B73" s="57"/>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B73" s="43"/>
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
@@ -3926,8 +3959,8 @@
       <c r="P73" s="6"/>
       <c r="Q73" s="7"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B74" s="57"/>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B74" s="43"/>
       <c r="C74" s="5"/>
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
@@ -3948,8 +3981,8 @@
       <c r="P74" s="6"/>
       <c r="Q74" s="7"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B75" s="57"/>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B75" s="43"/>
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
@@ -3968,8 +4001,8 @@
       <c r="P75" s="6"/>
       <c r="Q75" s="7"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B76" s="57"/>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B76" s="43"/>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
@@ -3988,8 +4021,8 @@
       <c r="P76" s="6"/>
       <c r="Q76" s="7"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B77" s="57"/>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B77" s="43"/>
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
@@ -4008,8 +4041,8 @@
       <c r="P77" s="6"/>
       <c r="Q77" s="7"/>
     </row>
-    <row r="78" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="57"/>
+    <row r="78" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="43"/>
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
@@ -4028,16 +4061,16 @@
       <c r="P78" s="6"/>
       <c r="Q78" s="7"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B79" s="57"/>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B79" s="43"/>
       <c r="C79" s="5"/>
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="55" t="s">
+      <c r="F79" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="G79" s="48"/>
-      <c r="H79" s="49"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="41"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6"/>
       <c r="K79" s="7"/>
@@ -4048,8 +4081,8 @@
       <c r="P79" s="6"/>
       <c r="Q79" s="7"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B80" s="57"/>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B80" s="43"/>
       <c r="C80" s="5"/>
       <c r="D80" s="6"/>
       <c r="E80" s="7"/>
@@ -4072,8 +4105,8 @@
       <c r="P80" s="6"/>
       <c r="Q80" s="7"/>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B81" s="57"/>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B81" s="43"/>
       <c r="C81" s="5"/>
       <c r="D81" s="6"/>
       <c r="E81" s="7"/>
@@ -4096,8 +4129,8 @@
       <c r="P81" s="6"/>
       <c r="Q81" s="7"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B82" s="57"/>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B82" s="43"/>
       <c r="C82" s="5"/>
       <c r="D82" s="6"/>
       <c r="E82" s="7"/>
@@ -4120,8 +4153,8 @@
       <c r="P82" s="6"/>
       <c r="Q82" s="7"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B83" s="57"/>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B83" s="43"/>
       <c r="C83" s="5"/>
       <c r="D83" s="6"/>
       <c r="E83" s="7"/>
@@ -4144,8 +4177,8 @@
       <c r="P83" s="6"/>
       <c r="Q83" s="7"/>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B84" s="57"/>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B84" s="43"/>
       <c r="C84" s="5"/>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
@@ -4168,8 +4201,8 @@
       <c r="P84" s="6"/>
       <c r="Q84" s="7"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B85" s="57"/>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B85" s="43"/>
       <c r="C85" s="5"/>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
@@ -4192,8 +4225,8 @@
       <c r="P85" s="6"/>
       <c r="Q85" s="7"/>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B86" s="57"/>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B86" s="43"/>
       <c r="C86" s="5"/>
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
@@ -4214,8 +4247,8 @@
       <c r="P86" s="6"/>
       <c r="Q86" s="7"/>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="57"/>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B87" s="43"/>
       <c r="C87" s="5"/>
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
@@ -4236,8 +4269,8 @@
       <c r="P87" s="6"/>
       <c r="Q87" s="7"/>
     </row>
-    <row r="88" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="58"/>
+    <row r="88" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="44"/>
       <c r="C88" s="8"/>
       <c r="D88" s="9"/>
       <c r="E88" s="10"/>
@@ -4258,6 +4291,29 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B21:B49"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="F79:H79"/>
     <mergeCell ref="B50:B88"/>
     <mergeCell ref="O50:Q50"/>
@@ -4268,29 +4324,6 @@
     <mergeCell ref="F50:H50"/>
     <mergeCell ref="I50:K50"/>
     <mergeCell ref="L50:N50"/>
-    <mergeCell ref="B21:B49"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PMP各过程输入输出.xlsx
+++ b/PMP各过程输入输出.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="258">
   <si>
     <t>启动过程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1025,6 +1025,26 @@
   </si>
   <si>
     <t>6.项目管理信息系统（PMIS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目成本管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划成本管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>估算成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制成本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1698,7 +1718,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1707,13 +1751,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1725,38 +1766,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2062,9 +2082,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q88"/>
+  <dimension ref="B1:Q127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E86" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2089,64 +2111,64 @@
     <row r="1" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="52" t="s">
+      <c r="M2" s="42"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="54"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
     </row>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="48" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="48" t="s">
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="48" t="s">
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="48" t="s">
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="41"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
@@ -2194,7 +2216,7 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="50"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
@@ -2242,7 +2264,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B6" s="50"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2288,7 +2310,7 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B7" s="50"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2332,7 +2354,7 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="50"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
@@ -2372,7 +2394,7 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B9" s="50"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
@@ -2398,7 +2420,7 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B10" s="50"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
@@ -2422,7 +2444,7 @@
       <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B11" s="50"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
@@ -2444,7 +2466,7 @@
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
@@ -2464,29 +2486,29 @@
       <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="50"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="57"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="56" t="s">
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="57"/>
-      <c r="N13" s="58"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="46"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B14" s="50"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
@@ -2516,7 +2538,7 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="50"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
@@ -2546,7 +2568,7 @@
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B16" s="50"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -2576,7 +2598,7 @@
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B17" s="50"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
@@ -2606,7 +2628,7 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B18" s="50"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
@@ -2632,7 +2654,7 @@
       <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B19" s="50"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
@@ -2656,7 +2678,7 @@
       <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="50"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
@@ -2676,31 +2698,31 @@
       <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="39" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="48" t="s">
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="40"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="47"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="54"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="50"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -2730,7 +2752,7 @@
       <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B23" s="50"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
@@ -2760,7 +2782,7 @@
       <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B24" s="50"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
@@ -2790,7 +2812,7 @@
       <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B25" s="50"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
@@ -2816,7 +2838,7 @@
       <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="50"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
@@ -2840,29 +2862,29 @@
       <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B27" s="50"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="41"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="49"/>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="48" t="s">
+      <c r="L27" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="M27" s="40"/>
-      <c r="N27" s="41"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="49"/>
       <c r="O27" s="5"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B28" s="50"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
@@ -2892,7 +2914,7 @@
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B29" s="50"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
@@ -2922,7 +2944,7 @@
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B30" s="50"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
@@ -2950,7 +2972,7 @@
       <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B31" s="50"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
@@ -2976,7 +2998,7 @@
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="50"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
@@ -3002,7 +3024,7 @@
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B33" s="50"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
@@ -3024,7 +3046,7 @@
       <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B34" s="50"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
@@ -3046,7 +3068,7 @@
       <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B35" s="50"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
@@ -3068,7 +3090,7 @@
       <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="50"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
@@ -3088,15 +3110,15 @@
       <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B37" s="50"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="39" t="s">
+      <c r="F37" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="40"/>
-      <c r="H37" s="41"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="49"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
       <c r="K37" s="7"/>
@@ -3108,7 +3130,7 @@
       <c r="Q37" s="7"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B38" s="50"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
@@ -3132,7 +3154,7 @@
       <c r="Q38" s="7"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B39" s="50"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
@@ -3156,7 +3178,7 @@
       <c r="Q39" s="7"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B40" s="50"/>
+      <c r="B40" s="40"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
@@ -3180,7 +3202,7 @@
       <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B41" s="50"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
@@ -3202,7 +3224,7 @@
       <c r="Q41" s="7"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B42" s="50"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
@@ -3224,7 +3246,7 @@
       <c r="Q42" s="7"/>
     </row>
     <row r="43" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="50"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
@@ -3246,15 +3268,15 @@
       <c r="Q43" s="7"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B44" s="50"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="39" t="s">
+      <c r="F44" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="40"/>
-      <c r="H44" s="41"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="49"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
       <c r="K44" s="7"/>
@@ -3266,7 +3288,7 @@
       <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B45" s="50"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
@@ -3290,7 +3312,7 @@
       <c r="Q45" s="7"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B46" s="50"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
@@ -3314,7 +3336,7 @@
       <c r="Q46" s="7"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B47" s="50"/>
+      <c r="B47" s="40"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
@@ -3338,7 +3360,7 @@
       <c r="Q47" s="7"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B48" s="50"/>
+      <c r="B48" s="40"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
@@ -3378,31 +3400,31 @@
       <c r="Q49" s="10"/>
     </row>
     <row r="50" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="39" t="s">
+      <c r="C50" s="52"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="G50" s="40"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="48" t="s">
+      <c r="G50" s="48"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="M50" s="40"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="47"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="54"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B51" s="43"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
@@ -3432,7 +3454,7 @@
       <c r="Q51" s="4"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B52" s="43"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
@@ -3462,7 +3484,7 @@
       <c r="Q52" s="7"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B53" s="43"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
@@ -3490,7 +3512,7 @@
       <c r="Q53" s="7"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B54" s="43"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
@@ -3518,7 +3540,7 @@
       <c r="Q54" s="7"/>
     </row>
     <row r="55" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="43"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
       <c r="E55" s="7"/>
@@ -3544,15 +3566,15 @@
       <c r="Q55" s="7"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B56" s="43"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="39" t="s">
+      <c r="F56" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="G56" s="40"/>
-      <c r="H56" s="41"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="49"/>
       <c r="I56" s="5"/>
       <c r="J56" s="6"/>
       <c r="K56" s="7"/>
@@ -3568,7 +3590,7 @@
       <c r="Q56" s="7"/>
     </row>
     <row r="57" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="43"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
@@ -3594,7 +3616,7 @@
       <c r="Q57" s="7"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B58" s="43"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
@@ -3618,7 +3640,7 @@
       <c r="Q58" s="7"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B59" s="43"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
@@ -3642,7 +3664,7 @@
       <c r="Q59" s="7"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B60" s="43"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
@@ -3666,7 +3688,7 @@
       <c r="Q60" s="7"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B61" s="43"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
       <c r="E61" s="7"/>
@@ -3688,7 +3710,7 @@
       <c r="Q61" s="7"/>
     </row>
     <row r="62" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="43"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
@@ -3708,15 +3730,15 @@
       <c r="Q62" s="7"/>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B63" s="43"/>
+      <c r="B63" s="57"/>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="39" t="s">
+      <c r="F63" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="G63" s="40"/>
-      <c r="H63" s="41"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="49"/>
       <c r="I63" s="5"/>
       <c r="J63" s="6"/>
       <c r="K63" s="7"/>
@@ -3728,7 +3750,7 @@
       <c r="Q63" s="7"/>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B64" s="43"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
       <c r="E64" s="7"/>
@@ -3752,7 +3774,7 @@
       <c r="Q64" s="7"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B65" s="43"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
@@ -3776,7 +3798,7 @@
       <c r="Q65" s="7"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B66" s="43"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
@@ -3800,7 +3822,7 @@
       <c r="Q66" s="7"/>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B67" s="43"/>
+      <c r="B67" s="57"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
       <c r="E67" s="7"/>
@@ -3822,7 +3844,7 @@
       <c r="Q67" s="7"/>
     </row>
     <row r="68" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="43"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="5"/>
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
@@ -3844,15 +3866,15 @@
       <c r="Q68" s="7"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B69" s="43"/>
+      <c r="B69" s="57"/>
       <c r="C69" s="5"/>
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="39" t="s">
+      <c r="F69" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="G69" s="40"/>
-      <c r="H69" s="41"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="49"/>
       <c r="I69" s="5"/>
       <c r="J69" s="6"/>
       <c r="K69" s="7"/>
@@ -3864,7 +3886,7 @@
       <c r="Q69" s="7"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B70" s="43"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
@@ -3888,7 +3910,7 @@
       <c r="Q70" s="7"/>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B71" s="43"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="5"/>
       <c r="D71" s="6"/>
       <c r="E71" s="7"/>
@@ -3912,7 +3934,7 @@
       <c r="Q71" s="7"/>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B72" s="43"/>
+      <c r="B72" s="57"/>
       <c r="C72" s="5"/>
       <c r="D72" s="6"/>
       <c r="E72" s="7"/>
@@ -3936,7 +3958,7 @@
       <c r="Q72" s="7"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B73" s="43"/>
+      <c r="B73" s="57"/>
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
@@ -3960,7 +3982,7 @@
       <c r="Q73" s="7"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B74" s="43"/>
+      <c r="B74" s="57"/>
       <c r="C74" s="5"/>
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
@@ -3982,7 +4004,7 @@
       <c r="Q74" s="7"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B75" s="43"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
@@ -4002,7 +4024,7 @@
       <c r="Q75" s="7"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B76" s="43"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
@@ -4022,7 +4044,7 @@
       <c r="Q76" s="7"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B77" s="43"/>
+      <c r="B77" s="57"/>
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
@@ -4042,7 +4064,7 @@
       <c r="Q77" s="7"/>
     </row>
     <row r="78" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="43"/>
+      <c r="B78" s="57"/>
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
@@ -4062,15 +4084,15 @@
       <c r="Q78" s="7"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B79" s="43"/>
+      <c r="B79" s="57"/>
       <c r="C79" s="5"/>
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="39" t="s">
+      <c r="F79" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="G79" s="40"/>
-      <c r="H79" s="41"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="49"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6"/>
       <c r="K79" s="7"/>
@@ -4082,7 +4104,7 @@
       <c r="Q79" s="7"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B80" s="43"/>
+      <c r="B80" s="57"/>
       <c r="C80" s="5"/>
       <c r="D80" s="6"/>
       <c r="E80" s="7"/>
@@ -4106,7 +4128,7 @@
       <c r="Q80" s="7"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B81" s="43"/>
+      <c r="B81" s="57"/>
       <c r="C81" s="5"/>
       <c r="D81" s="6"/>
       <c r="E81" s="7"/>
@@ -4130,7 +4152,7 @@
       <c r="Q81" s="7"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B82" s="43"/>
+      <c r="B82" s="57"/>
       <c r="C82" s="5"/>
       <c r="D82" s="6"/>
       <c r="E82" s="7"/>
@@ -4154,7 +4176,7 @@
       <c r="Q82" s="7"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B83" s="43"/>
+      <c r="B83" s="57"/>
       <c r="C83" s="5"/>
       <c r="D83" s="6"/>
       <c r="E83" s="7"/>
@@ -4178,7 +4200,7 @@
       <c r="Q83" s="7"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B84" s="43"/>
+      <c r="B84" s="57"/>
       <c r="C84" s="5"/>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
@@ -4202,7 +4224,7 @@
       <c r="Q84" s="7"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B85" s="43"/>
+      <c r="B85" s="57"/>
       <c r="C85" s="5"/>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
@@ -4226,7 +4248,7 @@
       <c r="Q85" s="7"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B86" s="43"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="5"/>
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
@@ -4248,7 +4270,7 @@
       <c r="Q86" s="7"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B87" s="43"/>
+      <c r="B87" s="57"/>
       <c r="C87" s="5"/>
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
@@ -4270,7 +4292,7 @@
       <c r="Q87" s="7"/>
     </row>
     <row r="88" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="44"/>
+      <c r="B88" s="58"/>
       <c r="C88" s="8"/>
       <c r="D88" s="9"/>
       <c r="E88" s="10"/>
@@ -4289,21 +4311,764 @@
       <c r="P88" s="9"/>
       <c r="Q88" s="10"/>
     </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B89" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="C89" s="52"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="G89" s="48"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="52"/>
+      <c r="J89" s="53"/>
+      <c r="K89" s="54"/>
+      <c r="L89" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="M89" s="48"/>
+      <c r="N89" s="49"/>
+      <c r="O89" s="52"/>
+      <c r="P89" s="53"/>
+      <c r="Q89" s="54"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B90" s="57"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I90" s="2"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M90" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N90" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="4"/>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B91" s="57"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="20"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="7"/>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B92" s="57"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="22"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="7"/>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B93" s="57"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="22"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="7"/>
+    </row>
+    <row r="94" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="57"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="22"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="7"/>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B95" s="57"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="G95" s="48"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="22"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="7"/>
+    </row>
+    <row r="96" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="57"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I96" s="5"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="27"/>
+      <c r="M96" s="38"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="7"/>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B97" s="57"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="7"/>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B98" s="57"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="7"/>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B99" s="57"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="7"/>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B100" s="57"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="7"/>
+    </row>
+    <row r="101" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="57"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="7"/>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B102" s="57"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="G102" s="48"/>
+      <c r="H102" s="49"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="7"/>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B103" s="57"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I103" s="5"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="7"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B104" s="57"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="7"/>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B105" s="57"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="7"/>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B106" s="57"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="7"/>
+    </row>
+    <row r="107" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="57"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="7"/>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B108" s="57"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="55"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="49"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="7"/>
+    </row>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B109" s="57"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="7"/>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B110" s="57"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="7"/>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B111" s="57"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="7"/>
+    </row>
+    <row r="112" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B112" s="57"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="7"/>
+    </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B113" s="57"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="7"/>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B114" s="57"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="35"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="32"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="7"/>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B115" s="57"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="35"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="7"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="7"/>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B116" s="57"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="7"/>
+    </row>
+    <row r="117" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="57"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="7"/>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B118" s="57"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="49"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="7"/>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B119" s="57"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="5"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="7"/>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B120" s="57"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="32"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="7"/>
+      <c r="O120" s="5"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="7"/>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B121" s="57"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="34"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="7"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="7"/>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B122" s="57"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="37"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="7"/>
+    </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B123" s="57"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="35"/>
+      <c r="G123" s="37"/>
+      <c r="H123" s="32"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="6"/>
+      <c r="N123" s="7"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="6"/>
+      <c r="Q123" s="7"/>
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B124" s="57"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="35"/>
+      <c r="G124" s="37"/>
+      <c r="H124" s="32"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="7"/>
+      <c r="O124" s="5"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="7"/>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B125" s="57"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="35"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="32"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="7"/>
+      <c r="O125" s="5"/>
+      <c r="P125" s="6"/>
+      <c r="Q125" s="7"/>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B126" s="57"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="32"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="6"/>
+      <c r="N126" s="7"/>
+      <c r="O126" s="5"/>
+      <c r="P126" s="6"/>
+      <c r="Q126" s="7"/>
+    </row>
+    <row r="127" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="58"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="36"/>
+      <c r="G127" s="38"/>
+      <c r="H127" s="33"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="10"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="9"/>
+      <c r="Q127" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="O3:Q3"/>
+  <mergeCells count="43">
+    <mergeCell ref="O89:Q89"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="B89:B127"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="I89:K89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="B50:B88"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:N50"/>
     <mergeCell ref="B21:B49"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
@@ -4314,16 +5079,19 @@
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="B50:B88"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PMP各过程输入输出.xlsx
+++ b/PMP各过程输入输出.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="299">
   <si>
     <t>启动过程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1045,6 +1045,170 @@
   </si>
   <si>
     <t>控制成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目章程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.成本管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.成本估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.参数估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.三点估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.项目管理信息系统（PMIS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.商业文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.成本基准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目资金需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.专家判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.成本汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.历史信息审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.资金限制平衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.融资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.项目资金需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.工作绩效数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.成本预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.项目管理计划更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.完工尚需绩效指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.项目管理信息系统（PMIS)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1718,45 +1882,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1769,6 +1894,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1777,6 +1908,39 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2082,11 +2246,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q127"/>
+  <dimension ref="B1:Q112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E86" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2111,64 +2273,64 @@
     <row r="1" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="41" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="41" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="41" t="s">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="50" t="s">
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="54"/>
     </row>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="47" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="47" t="s">
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="47" t="s">
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="47" t="s">
+      <c r="M3" s="43"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="49"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B4" s="40"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
@@ -2216,7 +2378,7 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="40"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
@@ -2264,7 +2426,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B6" s="40"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2310,7 +2472,7 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B7" s="40"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2354,7 +2516,7 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="40"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
@@ -2394,7 +2556,7 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
@@ -2420,7 +2582,7 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
@@ -2444,7 +2606,7 @@
       <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
@@ -2466,7 +2628,7 @@
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="40"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
@@ -2486,29 +2648,29 @@
       <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="44" t="s">
+      <c r="J13" s="57"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="45"/>
-      <c r="N13" s="46"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="58"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
@@ -2538,7 +2700,7 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
@@ -2568,7 +2730,7 @@
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B16" s="40"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -2598,7 +2760,7 @@
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B17" s="40"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
@@ -2628,7 +2790,7 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B18" s="40"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
@@ -2654,7 +2816,7 @@
       <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B19" s="40"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
@@ -2678,7 +2840,7 @@
       <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="40"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
@@ -2698,31 +2860,31 @@
       <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55" t="s">
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="47" t="s">
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="48"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="54"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="41"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="40"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -2752,7 +2914,7 @@
       <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B23" s="40"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
@@ -2782,7 +2944,7 @@
       <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B24" s="40"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
@@ -2812,7 +2974,7 @@
       <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B25" s="40"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
@@ -2838,7 +3000,7 @@
       <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="40"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
@@ -2862,29 +3024,29 @@
       <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B27" s="40"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="48"/>
-      <c r="H27" s="49"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="47" t="s">
+      <c r="L27" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="M27" s="48"/>
-      <c r="N27" s="49"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="44"/>
       <c r="O27" s="5"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B28" s="40"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
@@ -2914,7 +3076,7 @@
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B29" s="40"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
@@ -2944,7 +3106,7 @@
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B30" s="40"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
@@ -2972,7 +3134,7 @@
       <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B31" s="40"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
@@ -2998,7 +3160,7 @@
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="40"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
@@ -3024,7 +3186,7 @@
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B33" s="40"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
@@ -3046,7 +3208,7 @@
       <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B34" s="40"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
@@ -3068,7 +3230,7 @@
       <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B35" s="40"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
@@ -3090,7 +3252,7 @@
       <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="40"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
@@ -3110,15 +3272,15 @@
       <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B37" s="40"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="55" t="s">
+      <c r="F37" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="48"/>
-      <c r="H37" s="49"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="44"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
       <c r="K37" s="7"/>
@@ -3130,7 +3292,7 @@
       <c r="Q37" s="7"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B38" s="40"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
@@ -3154,7 +3316,7 @@
       <c r="Q38" s="7"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B39" s="40"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
@@ -3178,7 +3340,7 @@
       <c r="Q39" s="7"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B40" s="40"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
@@ -3202,7 +3364,7 @@
       <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B41" s="40"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
@@ -3224,7 +3386,7 @@
       <c r="Q41" s="7"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B42" s="40"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
@@ -3246,7 +3408,7 @@
       <c r="Q42" s="7"/>
     </row>
     <row r="43" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="40"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
@@ -3268,15 +3430,15 @@
       <c r="Q43" s="7"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B44" s="40"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="55" t="s">
+      <c r="F44" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="48"/>
-      <c r="H44" s="49"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="44"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
       <c r="K44" s="7"/>
@@ -3288,7 +3450,7 @@
       <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B45" s="40"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
@@ -3312,7 +3474,7 @@
       <c r="Q45" s="7"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B46" s="40"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
@@ -3336,7 +3498,7 @@
       <c r="Q46" s="7"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B47" s="40"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
@@ -3360,7 +3522,7 @@
       <c r="Q47" s="7"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B48" s="40"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
@@ -3400,31 +3562,31 @@
       <c r="Q49" s="10"/>
     </row>
     <row r="50" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="55" t="s">
+      <c r="C50" s="39"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="G50" s="48"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="47" t="s">
+      <c r="G50" s="43"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="M50" s="48"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="54"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="41"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B51" s="57"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
@@ -3454,7 +3616,7 @@
       <c r="Q51" s="4"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B52" s="57"/>
+      <c r="B52" s="46"/>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
@@ -3484,7 +3646,7 @@
       <c r="Q52" s="7"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B53" s="57"/>
+      <c r="B53" s="46"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
@@ -3512,7 +3674,7 @@
       <c r="Q53" s="7"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B54" s="57"/>
+      <c r="B54" s="46"/>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
@@ -3540,7 +3702,7 @@
       <c r="Q54" s="7"/>
     </row>
     <row r="55" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="57"/>
+      <c r="B55" s="46"/>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
       <c r="E55" s="7"/>
@@ -3566,15 +3728,15 @@
       <c r="Q55" s="7"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B56" s="57"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="55" t="s">
+      <c r="F56" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="G56" s="48"/>
-      <c r="H56" s="49"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="44"/>
       <c r="I56" s="5"/>
       <c r="J56" s="6"/>
       <c r="K56" s="7"/>
@@ -3590,7 +3752,7 @@
       <c r="Q56" s="7"/>
     </row>
     <row r="57" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="57"/>
+      <c r="B57" s="46"/>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
@@ -3616,7 +3778,7 @@
       <c r="Q57" s="7"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B58" s="57"/>
+      <c r="B58" s="46"/>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
@@ -3640,7 +3802,7 @@
       <c r="Q58" s="7"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B59" s="57"/>
+      <c r="B59" s="46"/>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
@@ -3664,7 +3826,7 @@
       <c r="Q59" s="7"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B60" s="57"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
@@ -3688,7 +3850,7 @@
       <c r="Q60" s="7"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B61" s="57"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
       <c r="E61" s="7"/>
@@ -3710,7 +3872,7 @@
       <c r="Q61" s="7"/>
     </row>
     <row r="62" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="57"/>
+      <c r="B62" s="46"/>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
@@ -3730,15 +3892,15 @@
       <c r="Q62" s="7"/>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B63" s="57"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="55" t="s">
+      <c r="F63" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="G63" s="48"/>
-      <c r="H63" s="49"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="44"/>
       <c r="I63" s="5"/>
       <c r="J63" s="6"/>
       <c r="K63" s="7"/>
@@ -3750,7 +3912,7 @@
       <c r="Q63" s="7"/>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B64" s="57"/>
+      <c r="B64" s="46"/>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
       <c r="E64" s="7"/>
@@ -3774,7 +3936,7 @@
       <c r="Q64" s="7"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B65" s="57"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
@@ -3798,7 +3960,7 @@
       <c r="Q65" s="7"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B66" s="57"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
@@ -3822,7 +3984,7 @@
       <c r="Q66" s="7"/>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B67" s="57"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
       <c r="E67" s="7"/>
@@ -3844,7 +4006,7 @@
       <c r="Q67" s="7"/>
     </row>
     <row r="68" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="57"/>
+      <c r="B68" s="46"/>
       <c r="C68" s="5"/>
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
@@ -3866,15 +4028,15 @@
       <c r="Q68" s="7"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B69" s="57"/>
+      <c r="B69" s="46"/>
       <c r="C69" s="5"/>
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="55" t="s">
+      <c r="F69" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="G69" s="48"/>
-      <c r="H69" s="49"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="44"/>
       <c r="I69" s="5"/>
       <c r="J69" s="6"/>
       <c r="K69" s="7"/>
@@ -3886,7 +4048,7 @@
       <c r="Q69" s="7"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B70" s="57"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
@@ -3910,7 +4072,7 @@
       <c r="Q70" s="7"/>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B71" s="57"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="5"/>
       <c r="D71" s="6"/>
       <c r="E71" s="7"/>
@@ -3934,7 +4096,7 @@
       <c r="Q71" s="7"/>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B72" s="57"/>
+      <c r="B72" s="46"/>
       <c r="C72" s="5"/>
       <c r="D72" s="6"/>
       <c r="E72" s="7"/>
@@ -3958,7 +4120,7 @@
       <c r="Q72" s="7"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B73" s="57"/>
+      <c r="B73" s="46"/>
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
@@ -3982,7 +4144,7 @@
       <c r="Q73" s="7"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B74" s="57"/>
+      <c r="B74" s="46"/>
       <c r="C74" s="5"/>
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
@@ -4004,7 +4166,7 @@
       <c r="Q74" s="7"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B75" s="57"/>
+      <c r="B75" s="46"/>
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
@@ -4024,7 +4186,7 @@
       <c r="Q75" s="7"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B76" s="57"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
@@ -4044,7 +4206,7 @@
       <c r="Q76" s="7"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B77" s="57"/>
+      <c r="B77" s="46"/>
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
@@ -4064,7 +4226,7 @@
       <c r="Q77" s="7"/>
     </row>
     <row r="78" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="57"/>
+      <c r="B78" s="46"/>
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
@@ -4084,15 +4246,15 @@
       <c r="Q78" s="7"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B79" s="57"/>
+      <c r="B79" s="46"/>
       <c r="C79" s="5"/>
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="55" t="s">
+      <c r="F79" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="G79" s="48"/>
-      <c r="H79" s="49"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="44"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6"/>
       <c r="K79" s="7"/>
@@ -4104,7 +4266,7 @@
       <c r="Q79" s="7"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B80" s="57"/>
+      <c r="B80" s="46"/>
       <c r="C80" s="5"/>
       <c r="D80" s="6"/>
       <c r="E80" s="7"/>
@@ -4128,7 +4290,7 @@
       <c r="Q80" s="7"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B81" s="57"/>
+      <c r="B81" s="46"/>
       <c r="C81" s="5"/>
       <c r="D81" s="6"/>
       <c r="E81" s="7"/>
@@ -4152,7 +4314,7 @@
       <c r="Q81" s="7"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B82" s="57"/>
+      <c r="B82" s="46"/>
       <c r="C82" s="5"/>
       <c r="D82" s="6"/>
       <c r="E82" s="7"/>
@@ -4176,7 +4338,7 @@
       <c r="Q82" s="7"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B83" s="57"/>
+      <c r="B83" s="46"/>
       <c r="C83" s="5"/>
       <c r="D83" s="6"/>
       <c r="E83" s="7"/>
@@ -4200,7 +4362,7 @@
       <c r="Q83" s="7"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B84" s="57"/>
+      <c r="B84" s="46"/>
       <c r="C84" s="5"/>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
@@ -4224,7 +4386,7 @@
       <c r="Q84" s="7"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B85" s="57"/>
+      <c r="B85" s="46"/>
       <c r="C85" s="5"/>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
@@ -4248,7 +4410,7 @@
       <c r="Q85" s="7"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B86" s="57"/>
+      <c r="B86" s="46"/>
       <c r="C86" s="5"/>
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
@@ -4270,7 +4432,7 @@
       <c r="Q86" s="7"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B87" s="57"/>
+      <c r="B87" s="46"/>
       <c r="C87" s="5"/>
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
@@ -4292,7 +4454,7 @@
       <c r="Q87" s="7"/>
     </row>
     <row r="88" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="58"/>
+      <c r="B88" s="47"/>
       <c r="C88" s="8"/>
       <c r="D88" s="9"/>
       <c r="E88" s="10"/>
@@ -4312,31 +4474,31 @@
       <c r="Q88" s="10"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B89" s="56" t="s">
+      <c r="B89" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="C89" s="52"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="55" t="s">
+      <c r="C89" s="39"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="G89" s="48"/>
-      <c r="H89" s="49"/>
-      <c r="I89" s="52"/>
-      <c r="J89" s="53"/>
-      <c r="K89" s="54"/>
-      <c r="L89" s="47" t="s">
+      <c r="G89" s="43"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="41"/>
+      <c r="L89" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="M89" s="48"/>
-      <c r="N89" s="49"/>
-      <c r="O89" s="52"/>
-      <c r="P89" s="53"/>
-      <c r="Q89" s="54"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="44"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="40"/>
+      <c r="Q89" s="41"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B90" s="57"/>
+      <c r="B90" s="46"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
       <c r="E90" s="4"/>
@@ -4352,7 +4514,7 @@
       <c r="I90" s="2"/>
       <c r="J90" s="3"/>
       <c r="K90" s="4"/>
-      <c r="L90" s="18" t="s">
+      <c r="L90" s="11" t="s">
         <v>7</v>
       </c>
       <c r="M90" s="12" t="s">
@@ -4366,99 +4528,143 @@
       <c r="Q90" s="4"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B91" s="57"/>
+      <c r="B91" s="46"/>
       <c r="C91" s="5"/>
       <c r="D91" s="6"/>
       <c r="E91" s="7"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="20"/>
+      <c r="F91" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H91" s="20" t="s">
+        <v>262</v>
+      </c>
       <c r="I91" s="5"/>
       <c r="J91" s="6"/>
       <c r="K91" s="7"/>
-      <c r="L91" s="25"/>
-      <c r="M91" s="37"/>
-      <c r="N91" s="20"/>
+      <c r="L91" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M91" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="N91" s="20" t="s">
+        <v>291</v>
+      </c>
       <c r="O91" s="5"/>
       <c r="P91" s="6"/>
       <c r="Q91" s="7"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B92" s="57"/>
+      <c r="B92" s="46"/>
       <c r="C92" s="5"/>
       <c r="D92" s="6"/>
       <c r="E92" s="7"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="6"/>
+      <c r="F92" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>263</v>
+      </c>
       <c r="H92" s="22"/>
       <c r="I92" s="5"/>
       <c r="J92" s="6"/>
       <c r="K92" s="7"/>
-      <c r="L92" s="26"/>
-      <c r="M92" s="37"/>
-      <c r="N92" s="22"/>
+      <c r="L92" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="M92" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="N92" s="22" t="s">
+        <v>292</v>
+      </c>
       <c r="O92" s="5"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="7"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B93" s="57"/>
+      <c r="B93" s="46"/>
       <c r="C93" s="5"/>
       <c r="D93" s="6"/>
       <c r="E93" s="7"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="6"/>
+      <c r="F93" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>264</v>
+      </c>
       <c r="H93" s="22"/>
       <c r="I93" s="5"/>
       <c r="J93" s="6"/>
       <c r="K93" s="7"/>
-      <c r="L93" s="26"/>
-      <c r="M93" s="37"/>
-      <c r="N93" s="22"/>
+      <c r="L93" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="M93" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="N93" s="22" t="s">
+        <v>293</v>
+      </c>
       <c r="O93" s="5"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="7"/>
     </row>
     <row r="94" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="57"/>
+      <c r="B94" s="46"/>
       <c r="C94" s="5"/>
       <c r="D94" s="6"/>
       <c r="E94" s="7"/>
-      <c r="F94" s="23"/>
+      <c r="F94" s="23" t="s">
+        <v>261</v>
+      </c>
       <c r="G94" s="6"/>
       <c r="H94" s="24"/>
       <c r="I94" s="5"/>
       <c r="J94" s="6"/>
       <c r="K94" s="7"/>
-      <c r="L94" s="26"/>
-      <c r="M94" s="37"/>
-      <c r="N94" s="22"/>
+      <c r="L94" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="M94" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="N94" s="22" t="s">
+        <v>294</v>
+      </c>
       <c r="O94" s="5"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="7"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B95" s="57"/>
+    <row r="95" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="46"/>
       <c r="C95" s="5"/>
       <c r="D95" s="6"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="55" t="s">
+      <c r="F95" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="G95" s="48"/>
-      <c r="H95" s="49"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="44"/>
       <c r="I95" s="5"/>
       <c r="J95" s="6"/>
       <c r="K95" s="7"/>
-      <c r="L95" s="26"/>
-      <c r="M95" s="37"/>
-      <c r="N95" s="22"/>
+      <c r="L95" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="M95" s="38"/>
+      <c r="N95" s="24" t="s">
+        <v>295</v>
+      </c>
       <c r="O95" s="5"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="7"/>
     </row>
-    <row r="96" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="57"/>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B96" s="46"/>
       <c r="C96" s="5"/>
       <c r="D96" s="6"/>
       <c r="E96" s="7"/>
@@ -4474,21 +4680,27 @@
       <c r="I96" s="5"/>
       <c r="J96" s="6"/>
       <c r="K96" s="7"/>
-      <c r="L96" s="27"/>
-      <c r="M96" s="38"/>
-      <c r="N96" s="24"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="7"/>
       <c r="O96" s="5"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="7"/>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B97" s="57"/>
+      <c r="B97" s="46"/>
       <c r="C97" s="5"/>
       <c r="D97" s="6"/>
       <c r="E97" s="7"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="20"/>
+      <c r="F97" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H97" s="20" t="s">
+        <v>269</v>
+      </c>
       <c r="I97" s="5"/>
       <c r="J97" s="6"/>
       <c r="K97" s="7"/>
@@ -4500,13 +4712,19 @@
       <c r="Q97" s="7"/>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B98" s="57"/>
+      <c r="B98" s="46"/>
       <c r="C98" s="5"/>
       <c r="D98" s="6"/>
       <c r="E98" s="7"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="22"/>
+      <c r="F98" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H98" s="22" t="s">
+        <v>201</v>
+      </c>
       <c r="I98" s="5"/>
       <c r="J98" s="6"/>
       <c r="K98" s="7"/>
@@ -4518,13 +4736,19 @@
       <c r="Q98" s="7"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B99" s="57"/>
+      <c r="B99" s="46"/>
       <c r="C99" s="5"/>
       <c r="D99" s="6"/>
       <c r="E99" s="7"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="22"/>
+      <c r="F99" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H99" s="22" t="s">
+        <v>270</v>
+      </c>
       <c r="I99" s="5"/>
       <c r="J99" s="6"/>
       <c r="K99" s="7"/>
@@ -4536,12 +4760,16 @@
       <c r="Q99" s="7"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B100" s="57"/>
+      <c r="B100" s="46"/>
       <c r="C100" s="5"/>
       <c r="D100" s="6"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="6"/>
+      <c r="F100" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>272</v>
+      </c>
       <c r="H100" s="22"/>
       <c r="I100" s="5"/>
       <c r="J100" s="6"/>
@@ -4553,14 +4781,16 @@
       <c r="P100" s="6"/>
       <c r="Q100" s="7"/>
     </row>
-    <row r="101" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="57"/>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B101" s="46"/>
       <c r="C101" s="5"/>
       <c r="D101" s="6"/>
       <c r="E101" s="7"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="22"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="H101" s="32"/>
       <c r="I101" s="5"/>
       <c r="J101" s="6"/>
       <c r="K101" s="7"/>
@@ -4572,15 +4802,15 @@
       <c r="Q101" s="7"/>
     </row>
     <row r="102" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B102" s="57"/>
+      <c r="B102" s="46"/>
       <c r="C102" s="5"/>
       <c r="D102" s="6"/>
       <c r="E102" s="7"/>
-      <c r="F102" s="55" t="s">
-        <v>256</v>
-      </c>
-      <c r="G102" s="48"/>
-      <c r="H102" s="49"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="H102" s="32"/>
       <c r="I102" s="5"/>
       <c r="J102" s="6"/>
       <c r="K102" s="7"/>
@@ -4592,19 +4822,15 @@
       <c r="Q102" s="7"/>
     </row>
     <row r="103" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B103" s="57"/>
+      <c r="B103" s="46"/>
       <c r="C103" s="5"/>
       <c r="D103" s="6"/>
       <c r="E103" s="7"/>
-      <c r="F103" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G103" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>9</v>
-      </c>
+      <c r="F103" s="35"/>
+      <c r="G103" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="H103" s="32"/>
       <c r="I103" s="5"/>
       <c r="J103" s="6"/>
       <c r="K103" s="7"/>
@@ -4615,14 +4841,16 @@
       <c r="P103" s="6"/>
       <c r="Q103" s="7"/>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B104" s="57"/>
+    <row r="104" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="46"/>
       <c r="C104" s="5"/>
       <c r="D104" s="6"/>
       <c r="E104" s="7"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="20"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H104" s="22"/>
       <c r="I104" s="5"/>
       <c r="J104" s="6"/>
       <c r="K104" s="7"/>
@@ -4634,13 +4862,15 @@
       <c r="Q104" s="7"/>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B105" s="57"/>
+      <c r="B105" s="46"/>
       <c r="C105" s="5"/>
       <c r="D105" s="6"/>
       <c r="E105" s="7"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="22"/>
+      <c r="F105" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="G105" s="43"/>
+      <c r="H105" s="44"/>
       <c r="I105" s="5"/>
       <c r="J105" s="6"/>
       <c r="K105" s="7"/>
@@ -4652,13 +4882,19 @@
       <c r="Q105" s="7"/>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B106" s="57"/>
+      <c r="B106" s="46"/>
       <c r="C106" s="5"/>
       <c r="D106" s="6"/>
       <c r="E106" s="7"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="22"/>
+      <c r="F106" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="I106" s="5"/>
       <c r="J106" s="6"/>
       <c r="K106" s="7"/>
@@ -4669,14 +4905,20 @@
       <c r="P106" s="6"/>
       <c r="Q106" s="7"/>
     </row>
-    <row r="107" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="57"/>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B107" s="46"/>
       <c r="C107" s="5"/>
       <c r="D107" s="6"/>
       <c r="E107" s="7"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="22"/>
+      <c r="F107" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H107" s="20" t="s">
+        <v>280</v>
+      </c>
       <c r="I107" s="5"/>
       <c r="J107" s="6"/>
       <c r="K107" s="7"/>
@@ -4688,13 +4930,19 @@
       <c r="Q107" s="7"/>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B108" s="57"/>
+      <c r="B108" s="46"/>
       <c r="C108" s="5"/>
       <c r="D108" s="6"/>
       <c r="E108" s="7"/>
-      <c r="F108" s="55"/>
-      <c r="G108" s="48"/>
-      <c r="H108" s="49"/>
+      <c r="F108" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H108" s="22" t="s">
+        <v>281</v>
+      </c>
       <c r="I108" s="5"/>
       <c r="J108" s="6"/>
       <c r="K108" s="7"/>
@@ -4706,13 +4954,19 @@
       <c r="Q108" s="7"/>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B109" s="57"/>
+      <c r="B109" s="46"/>
       <c r="C109" s="5"/>
       <c r="D109" s="6"/>
       <c r="E109" s="7"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="13"/>
+      <c r="F109" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H109" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="I109" s="5"/>
       <c r="J109" s="6"/>
       <c r="K109" s="7"/>
@@ -4724,12 +4978,16 @@
       <c r="Q109" s="7"/>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B110" s="57"/>
+      <c r="B110" s="46"/>
       <c r="C110" s="5"/>
       <c r="D110" s="6"/>
       <c r="E110" s="7"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="37"/>
+      <c r="F110" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="G110" s="37" t="s">
+        <v>284</v>
+      </c>
       <c r="H110" s="32"/>
       <c r="I110" s="5"/>
       <c r="J110" s="6"/>
@@ -4742,12 +5000,16 @@
       <c r="Q110" s="7"/>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B111" s="57"/>
+      <c r="B111" s="46"/>
       <c r="C111" s="5"/>
       <c r="D111" s="6"/>
       <c r="E111" s="7"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="37"/>
+      <c r="F111" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G111" s="37" t="s">
+        <v>285</v>
+      </c>
       <c r="H111" s="32"/>
       <c r="I111" s="5"/>
       <c r="J111" s="6"/>
@@ -4759,306 +5021,53 @@
       <c r="P111" s="6"/>
       <c r="Q111" s="7"/>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B112" s="57"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="32"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="7"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="7"/>
-      <c r="O112" s="5"/>
-      <c r="P112" s="6"/>
-      <c r="Q112" s="7"/>
-    </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B113" s="57"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="37"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="7"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="6"/>
-      <c r="N113" s="7"/>
-      <c r="O113" s="5"/>
-      <c r="P113" s="6"/>
-      <c r="Q113" s="7"/>
-    </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B114" s="57"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="35"/>
-      <c r="G114" s="37"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="6"/>
-      <c r="K114" s="7"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="6"/>
-      <c r="N114" s="7"/>
-      <c r="O114" s="5"/>
-      <c r="P114" s="6"/>
-      <c r="Q114" s="7"/>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B115" s="57"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="35"/>
-      <c r="G115" s="37"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="6"/>
-      <c r="K115" s="7"/>
-      <c r="L115" s="5"/>
-      <c r="M115" s="6"/>
-      <c r="N115" s="7"/>
-      <c r="O115" s="5"/>
-      <c r="P115" s="6"/>
-      <c r="Q115" s="7"/>
-    </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B116" s="57"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="35"/>
-      <c r="G116" s="37"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="6"/>
-      <c r="K116" s="7"/>
-      <c r="L116" s="5"/>
-      <c r="M116" s="6"/>
-      <c r="N116" s="7"/>
-      <c r="O116" s="5"/>
-      <c r="P116" s="6"/>
-      <c r="Q116" s="7"/>
-    </row>
-    <row r="117" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="57"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="37"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="6"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="5"/>
-      <c r="M117" s="6"/>
-      <c r="N117" s="7"/>
-      <c r="O117" s="5"/>
-      <c r="P117" s="6"/>
-      <c r="Q117" s="7"/>
-    </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B118" s="57"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="55"/>
-      <c r="G118" s="48"/>
-      <c r="H118" s="49"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="6"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="5"/>
-      <c r="M118" s="6"/>
-      <c r="N118" s="7"/>
-      <c r="O118" s="5"/>
-      <c r="P118" s="6"/>
-      <c r="Q118" s="7"/>
-    </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B119" s="57"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="12"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="6"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="5"/>
-      <c r="M119" s="6"/>
-      <c r="N119" s="7"/>
-      <c r="O119" s="5"/>
-      <c r="P119" s="6"/>
-      <c r="Q119" s="7"/>
-    </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B120" s="57"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="37"/>
-      <c r="H120" s="32"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="6"/>
-      <c r="K120" s="7"/>
-      <c r="L120" s="5"/>
-      <c r="M120" s="6"/>
-      <c r="N120" s="7"/>
-      <c r="O120" s="5"/>
-      <c r="P120" s="6"/>
-      <c r="Q120" s="7"/>
-    </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B121" s="57"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="34"/>
-      <c r="G121" s="37"/>
-      <c r="H121" s="32"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="6"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="5"/>
-      <c r="M121" s="6"/>
-      <c r="N121" s="7"/>
-      <c r="O121" s="5"/>
-      <c r="P121" s="6"/>
-      <c r="Q121" s="7"/>
-    </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B122" s="57"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="34"/>
-      <c r="G122" s="37"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="6"/>
-      <c r="K122" s="7"/>
-      <c r="L122" s="5"/>
-      <c r="M122" s="6"/>
-      <c r="N122" s="7"/>
-      <c r="O122" s="5"/>
-      <c r="P122" s="6"/>
-      <c r="Q122" s="7"/>
-    </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B123" s="57"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="35"/>
-      <c r="G123" s="37"/>
-      <c r="H123" s="32"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="6"/>
-      <c r="K123" s="7"/>
-      <c r="L123" s="5"/>
-      <c r="M123" s="6"/>
-      <c r="N123" s="7"/>
-      <c r="O123" s="5"/>
-      <c r="P123" s="6"/>
-      <c r="Q123" s="7"/>
-    </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B124" s="57"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="35"/>
-      <c r="G124" s="37"/>
-      <c r="H124" s="32"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="6"/>
-      <c r="K124" s="7"/>
-      <c r="L124" s="5"/>
-      <c r="M124" s="6"/>
-      <c r="N124" s="7"/>
-      <c r="O124" s="5"/>
-      <c r="P124" s="6"/>
-      <c r="Q124" s="7"/>
-    </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B125" s="57"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="35"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="32"/>
-      <c r="I125" s="5"/>
-      <c r="J125" s="6"/>
-      <c r="K125" s="7"/>
-      <c r="L125" s="5"/>
-      <c r="M125" s="6"/>
-      <c r="N125" s="7"/>
-      <c r="O125" s="5"/>
-      <c r="P125" s="6"/>
-      <c r="Q125" s="7"/>
-    </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B126" s="57"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="35"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="32"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="6"/>
-      <c r="K126" s="7"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="6"/>
-      <c r="N126" s="7"/>
-      <c r="O126" s="5"/>
-      <c r="P126" s="6"/>
-      <c r="Q126" s="7"/>
-    </row>
-    <row r="127" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="58"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="36"/>
-      <c r="G127" s="38"/>
-      <c r="H127" s="33"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="9"/>
-      <c r="K127" s="10"/>
-      <c r="L127" s="8"/>
-      <c r="M127" s="9"/>
-      <c r="N127" s="10"/>
-      <c r="O127" s="8"/>
-      <c r="P127" s="9"/>
-      <c r="Q127" s="10"/>
+    <row r="112" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="47"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="G112" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="H112" s="33"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="10"/>
+      <c r="O112" s="8"/>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="O89:Q89"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="B89:B127"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="I89:K89"/>
-    <mergeCell ref="L89:N89"/>
+  <mergeCells count="41">
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B21:B49"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="F79:H79"/>
     <mergeCell ref="B50:B88"/>
     <mergeCell ref="O50:Q50"/>
@@ -5069,29 +5078,14 @@
     <mergeCell ref="F50:H50"/>
     <mergeCell ref="I50:K50"/>
     <mergeCell ref="L50:N50"/>
-    <mergeCell ref="B21:B49"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="B89:B112"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="I89:K89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="O89:Q89"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F105:H105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PMP各过程输入输出.xlsx
+++ b/PMP各过程输入输出.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="351">
   <si>
     <t>启动过程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1209,6 +1209,214 @@
   </si>
   <si>
     <t>4.项目管理信息系统（PMIS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目质量管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划质量管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理质量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制质量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目章程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.质量管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.质量测量指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.项目管理计划更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.专家判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.数据收集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.数据表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.测试与检查规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.质量报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.测试与评估文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.项目管理计划更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数据收集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.审计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.面向X的设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.问题解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.质量改进方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.批准的变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.可交付成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.工作绩效数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.质量控制测量结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.核实的可交付成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.工作绩效信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.项目管理计划更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.测试/产品评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.数据表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.会议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1282,7 +1490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1810,11 +2018,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1882,6 +2125,45 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1894,12 +2176,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1909,38 +2185,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2246,7 +2495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q112"/>
+  <dimension ref="B1:Q122"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2273,64 +2522,64 @@
     <row r="1" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="52" t="s">
+      <c r="M2" s="42"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="54"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
     </row>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="48" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="48" t="s">
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="48" t="s">
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="43"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="48" t="s">
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
@@ -2378,7 +2627,7 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="50"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
@@ -2426,7 +2675,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B6" s="50"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2472,7 +2721,7 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B7" s="50"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2516,7 +2765,7 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="50"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
@@ -2556,7 +2805,7 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B9" s="50"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
@@ -2582,7 +2831,7 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B10" s="50"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
@@ -2606,7 +2855,7 @@
       <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B11" s="50"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
@@ -2628,7 +2877,7 @@
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
@@ -2648,29 +2897,29 @@
       <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="50"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="57"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="56" t="s">
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="57"/>
-      <c r="N13" s="58"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="46"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B14" s="50"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
@@ -2700,7 +2949,7 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="50"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
@@ -2730,7 +2979,7 @@
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B16" s="50"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -2760,7 +3009,7 @@
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B17" s="50"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
@@ -2790,7 +3039,7 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B18" s="50"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
@@ -2816,7 +3065,7 @@
       <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B19" s="50"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
@@ -2840,7 +3089,7 @@
       <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="50"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
@@ -2860,31 +3109,31 @@
       <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="48" t="s">
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="43"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="41"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="54"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="50"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -2914,7 +3163,7 @@
       <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B23" s="50"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
@@ -2944,7 +3193,7 @@
       <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B24" s="50"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
@@ -2974,7 +3223,7 @@
       <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B25" s="50"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
@@ -3000,7 +3249,7 @@
       <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="50"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
@@ -3024,29 +3273,29 @@
       <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B27" s="50"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="49"/>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="48" t="s">
+      <c r="L27" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="M27" s="43"/>
-      <c r="N27" s="44"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="49"/>
       <c r="O27" s="5"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B28" s="50"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
@@ -3076,7 +3325,7 @@
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B29" s="50"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
@@ -3106,7 +3355,7 @@
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B30" s="50"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
@@ -3134,7 +3383,7 @@
       <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B31" s="50"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
@@ -3160,7 +3409,7 @@
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="50"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
@@ -3186,7 +3435,7 @@
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B33" s="50"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
@@ -3208,7 +3457,7 @@
       <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B34" s="50"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
@@ -3230,7 +3479,7 @@
       <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B35" s="50"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
@@ -3252,7 +3501,7 @@
       <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="50"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
@@ -3272,15 +3521,15 @@
       <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B37" s="50"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="42" t="s">
+      <c r="F37" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="44"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="49"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
       <c r="K37" s="7"/>
@@ -3292,7 +3541,7 @@
       <c r="Q37" s="7"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B38" s="50"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
@@ -3316,7 +3565,7 @@
       <c r="Q38" s="7"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B39" s="50"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
@@ -3340,7 +3589,7 @@
       <c r="Q39" s="7"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B40" s="50"/>
+      <c r="B40" s="40"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
@@ -3364,7 +3613,7 @@
       <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B41" s="50"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
@@ -3386,7 +3635,7 @@
       <c r="Q41" s="7"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B42" s="50"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
@@ -3408,7 +3657,7 @@
       <c r="Q42" s="7"/>
     </row>
     <row r="43" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="50"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
@@ -3430,15 +3679,15 @@
       <c r="Q43" s="7"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B44" s="50"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="42" t="s">
+      <c r="F44" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="43"/>
-      <c r="H44" s="44"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="49"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
       <c r="K44" s="7"/>
@@ -3450,7 +3699,7 @@
       <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B45" s="50"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
@@ -3474,7 +3723,7 @@
       <c r="Q45" s="7"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B46" s="50"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
@@ -3498,7 +3747,7 @@
       <c r="Q46" s="7"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B47" s="50"/>
+      <c r="B47" s="40"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
@@ -3522,7 +3771,7 @@
       <c r="Q47" s="7"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B48" s="50"/>
+      <c r="B48" s="40"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
@@ -3562,31 +3811,31 @@
       <c r="Q49" s="10"/>
     </row>
     <row r="50" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="42" t="s">
+      <c r="C50" s="52"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="G50" s="43"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="48" t="s">
+      <c r="G50" s="48"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="M50" s="43"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="41"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="54"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B51" s="46"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
@@ -3616,7 +3865,7 @@
       <c r="Q51" s="4"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B52" s="46"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
@@ -3646,7 +3895,7 @@
       <c r="Q52" s="7"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B53" s="46"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
@@ -3674,7 +3923,7 @@
       <c r="Q53" s="7"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B54" s="46"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
@@ -3702,7 +3951,7 @@
       <c r="Q54" s="7"/>
     </row>
     <row r="55" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="46"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
       <c r="E55" s="7"/>
@@ -3728,15 +3977,15 @@
       <c r="Q55" s="7"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B56" s="46"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="42" t="s">
+      <c r="F56" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="G56" s="43"/>
-      <c r="H56" s="44"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="49"/>
       <c r="I56" s="5"/>
       <c r="J56" s="6"/>
       <c r="K56" s="7"/>
@@ -3752,7 +4001,7 @@
       <c r="Q56" s="7"/>
     </row>
     <row r="57" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="46"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
@@ -3778,7 +4027,7 @@
       <c r="Q57" s="7"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B58" s="46"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
@@ -3802,7 +4051,7 @@
       <c r="Q58" s="7"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B59" s="46"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
@@ -3826,7 +4075,7 @@
       <c r="Q59" s="7"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B60" s="46"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
@@ -3850,7 +4099,7 @@
       <c r="Q60" s="7"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B61" s="46"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
       <c r="E61" s="7"/>
@@ -3872,7 +4121,7 @@
       <c r="Q61" s="7"/>
     </row>
     <row r="62" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="46"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
@@ -3892,15 +4141,15 @@
       <c r="Q62" s="7"/>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B63" s="46"/>
+      <c r="B63" s="57"/>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="42" t="s">
+      <c r="F63" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="G63" s="43"/>
-      <c r="H63" s="44"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="49"/>
       <c r="I63" s="5"/>
       <c r="J63" s="6"/>
       <c r="K63" s="7"/>
@@ -3912,7 +4161,7 @@
       <c r="Q63" s="7"/>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B64" s="46"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
       <c r="E64" s="7"/>
@@ -3936,7 +4185,7 @@
       <c r="Q64" s="7"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B65" s="46"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
@@ -3960,7 +4209,7 @@
       <c r="Q65" s="7"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B66" s="46"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
@@ -3984,7 +4233,7 @@
       <c r="Q66" s="7"/>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B67" s="46"/>
+      <c r="B67" s="57"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
       <c r="E67" s="7"/>
@@ -4006,7 +4255,7 @@
       <c r="Q67" s="7"/>
     </row>
     <row r="68" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="46"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="5"/>
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
@@ -4028,15 +4277,15 @@
       <c r="Q68" s="7"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B69" s="46"/>
+      <c r="B69" s="57"/>
       <c r="C69" s="5"/>
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="42" t="s">
+      <c r="F69" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="G69" s="43"/>
-      <c r="H69" s="44"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="49"/>
       <c r="I69" s="5"/>
       <c r="J69" s="6"/>
       <c r="K69" s="7"/>
@@ -4048,7 +4297,7 @@
       <c r="Q69" s="7"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B70" s="46"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
@@ -4072,7 +4321,7 @@
       <c r="Q70" s="7"/>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B71" s="46"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="5"/>
       <c r="D71" s="6"/>
       <c r="E71" s="7"/>
@@ -4096,7 +4345,7 @@
       <c r="Q71" s="7"/>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B72" s="46"/>
+      <c r="B72" s="57"/>
       <c r="C72" s="5"/>
       <c r="D72" s="6"/>
       <c r="E72" s="7"/>
@@ -4120,7 +4369,7 @@
       <c r="Q72" s="7"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B73" s="46"/>
+      <c r="B73" s="57"/>
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
@@ -4144,7 +4393,7 @@
       <c r="Q73" s="7"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B74" s="46"/>
+      <c r="B74" s="57"/>
       <c r="C74" s="5"/>
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
@@ -4166,7 +4415,7 @@
       <c r="Q74" s="7"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B75" s="46"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
@@ -4186,7 +4435,7 @@
       <c r="Q75" s="7"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B76" s="46"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
@@ -4206,7 +4455,7 @@
       <c r="Q76" s="7"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B77" s="46"/>
+      <c r="B77" s="57"/>
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
@@ -4226,7 +4475,7 @@
       <c r="Q77" s="7"/>
     </row>
     <row r="78" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="46"/>
+      <c r="B78" s="57"/>
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
@@ -4246,15 +4495,15 @@
       <c r="Q78" s="7"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B79" s="46"/>
+      <c r="B79" s="57"/>
       <c r="C79" s="5"/>
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="42" t="s">
+      <c r="F79" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="G79" s="43"/>
-      <c r="H79" s="44"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="49"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6"/>
       <c r="K79" s="7"/>
@@ -4266,7 +4515,7 @@
       <c r="Q79" s="7"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B80" s="46"/>
+      <c r="B80" s="57"/>
       <c r="C80" s="5"/>
       <c r="D80" s="6"/>
       <c r="E80" s="7"/>
@@ -4290,7 +4539,7 @@
       <c r="Q80" s="7"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B81" s="46"/>
+      <c r="B81" s="57"/>
       <c r="C81" s="5"/>
       <c r="D81" s="6"/>
       <c r="E81" s="7"/>
@@ -4314,7 +4563,7 @@
       <c r="Q81" s="7"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B82" s="46"/>
+      <c r="B82" s="57"/>
       <c r="C82" s="5"/>
       <c r="D82" s="6"/>
       <c r="E82" s="7"/>
@@ -4338,7 +4587,7 @@
       <c r="Q82" s="7"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B83" s="46"/>
+      <c r="B83" s="57"/>
       <c r="C83" s="5"/>
       <c r="D83" s="6"/>
       <c r="E83" s="7"/>
@@ -4362,7 +4611,7 @@
       <c r="Q83" s="7"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B84" s="46"/>
+      <c r="B84" s="57"/>
       <c r="C84" s="5"/>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
@@ -4386,7 +4635,7 @@
       <c r="Q84" s="7"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B85" s="46"/>
+      <c r="B85" s="57"/>
       <c r="C85" s="5"/>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
@@ -4410,7 +4659,7 @@
       <c r="Q85" s="7"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B86" s="46"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="5"/>
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
@@ -4432,7 +4681,7 @@
       <c r="Q86" s="7"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B87" s="46"/>
+      <c r="B87" s="57"/>
       <c r="C87" s="5"/>
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
@@ -4454,7 +4703,7 @@
       <c r="Q87" s="7"/>
     </row>
     <row r="88" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="47"/>
+      <c r="B88" s="58"/>
       <c r="C88" s="8"/>
       <c r="D88" s="9"/>
       <c r="E88" s="10"/>
@@ -4474,31 +4723,31 @@
       <c r="Q88" s="10"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B89" s="45" t="s">
+      <c r="B89" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="C89" s="39"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="41"/>
-      <c r="F89" s="42" t="s">
+      <c r="C89" s="52"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="G89" s="43"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="40"/>
-      <c r="K89" s="41"/>
-      <c r="L89" s="48" t="s">
+      <c r="G89" s="48"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="52"/>
+      <c r="J89" s="53"/>
+      <c r="K89" s="54"/>
+      <c r="L89" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="M89" s="43"/>
-      <c r="N89" s="44"/>
-      <c r="O89" s="39"/>
-      <c r="P89" s="40"/>
-      <c r="Q89" s="41"/>
+      <c r="M89" s="48"/>
+      <c r="N89" s="49"/>
+      <c r="O89" s="52"/>
+      <c r="P89" s="53"/>
+      <c r="Q89" s="54"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B90" s="46"/>
+      <c r="B90" s="57"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
       <c r="E90" s="4"/>
@@ -4528,7 +4777,7 @@
       <c r="Q90" s="4"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B91" s="46"/>
+      <c r="B91" s="57"/>
       <c r="C91" s="5"/>
       <c r="D91" s="6"/>
       <c r="E91" s="7"/>
@@ -4558,7 +4807,7 @@
       <c r="Q91" s="7"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B92" s="46"/>
+      <c r="B92" s="57"/>
       <c r="C92" s="5"/>
       <c r="D92" s="6"/>
       <c r="E92" s="7"/>
@@ -4586,7 +4835,7 @@
       <c r="Q92" s="7"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B93" s="46"/>
+      <c r="B93" s="57"/>
       <c r="C93" s="5"/>
       <c r="D93" s="6"/>
       <c r="E93" s="7"/>
@@ -4614,7 +4863,7 @@
       <c r="Q93" s="7"/>
     </row>
     <row r="94" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="46"/>
+      <c r="B94" s="57"/>
       <c r="C94" s="5"/>
       <c r="D94" s="6"/>
       <c r="E94" s="7"/>
@@ -4640,15 +4889,15 @@
       <c r="Q94" s="7"/>
     </row>
     <row r="95" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="46"/>
+      <c r="B95" s="57"/>
       <c r="C95" s="5"/>
       <c r="D95" s="6"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="42" t="s">
+      <c r="F95" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G95" s="43"/>
-      <c r="H95" s="44"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="49"/>
       <c r="I95" s="5"/>
       <c r="J95" s="6"/>
       <c r="K95" s="7"/>
@@ -4664,7 +4913,7 @@
       <c r="Q95" s="7"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B96" s="46"/>
+      <c r="B96" s="57"/>
       <c r="C96" s="5"/>
       <c r="D96" s="6"/>
       <c r="E96" s="7"/>
@@ -4688,7 +4937,7 @@
       <c r="Q96" s="7"/>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B97" s="46"/>
+      <c r="B97" s="57"/>
       <c r="C97" s="5"/>
       <c r="D97" s="6"/>
       <c r="E97" s="7"/>
@@ -4712,7 +4961,7 @@
       <c r="Q97" s="7"/>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B98" s="46"/>
+      <c r="B98" s="57"/>
       <c r="C98" s="5"/>
       <c r="D98" s="6"/>
       <c r="E98" s="7"/>
@@ -4736,7 +4985,7 @@
       <c r="Q98" s="7"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B99" s="46"/>
+      <c r="B99" s="57"/>
       <c r="C99" s="5"/>
       <c r="D99" s="6"/>
       <c r="E99" s="7"/>
@@ -4760,7 +5009,7 @@
       <c r="Q99" s="7"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B100" s="46"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="5"/>
       <c r="D100" s="6"/>
       <c r="E100" s="7"/>
@@ -4782,7 +5031,7 @@
       <c r="Q100" s="7"/>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B101" s="46"/>
+      <c r="B101" s="57"/>
       <c r="C101" s="5"/>
       <c r="D101" s="6"/>
       <c r="E101" s="7"/>
@@ -4802,7 +5051,7 @@
       <c r="Q101" s="7"/>
     </row>
     <row r="102" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B102" s="46"/>
+      <c r="B102" s="57"/>
       <c r="C102" s="5"/>
       <c r="D102" s="6"/>
       <c r="E102" s="7"/>
@@ -4822,7 +5071,7 @@
       <c r="Q102" s="7"/>
     </row>
     <row r="103" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B103" s="46"/>
+      <c r="B103" s="57"/>
       <c r="C103" s="5"/>
       <c r="D103" s="6"/>
       <c r="E103" s="7"/>
@@ -4842,7 +5091,7 @@
       <c r="Q103" s="7"/>
     </row>
     <row r="104" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="46"/>
+      <c r="B104" s="57"/>
       <c r="C104" s="5"/>
       <c r="D104" s="6"/>
       <c r="E104" s="7"/>
@@ -4862,15 +5111,15 @@
       <c r="Q104" s="7"/>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B105" s="46"/>
+      <c r="B105" s="57"/>
       <c r="C105" s="5"/>
       <c r="D105" s="6"/>
       <c r="E105" s="7"/>
-      <c r="F105" s="42" t="s">
+      <c r="F105" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="G105" s="43"/>
-      <c r="H105" s="44"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="49"/>
       <c r="I105" s="5"/>
       <c r="J105" s="6"/>
       <c r="K105" s="7"/>
@@ -4882,7 +5131,7 @@
       <c r="Q105" s="7"/>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B106" s="46"/>
+      <c r="B106" s="57"/>
       <c r="C106" s="5"/>
       <c r="D106" s="6"/>
       <c r="E106" s="7"/>
@@ -4906,7 +5155,7 @@
       <c r="Q106" s="7"/>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B107" s="46"/>
+      <c r="B107" s="57"/>
       <c r="C107" s="5"/>
       <c r="D107" s="6"/>
       <c r="E107" s="7"/>
@@ -4930,7 +5179,7 @@
       <c r="Q107" s="7"/>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B108" s="46"/>
+      <c r="B108" s="57"/>
       <c r="C108" s="5"/>
       <c r="D108" s="6"/>
       <c r="E108" s="7"/>
@@ -4954,7 +5203,7 @@
       <c r="Q108" s="7"/>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B109" s="46"/>
+      <c r="B109" s="57"/>
       <c r="C109" s="5"/>
       <c r="D109" s="6"/>
       <c r="E109" s="7"/>
@@ -4978,7 +5227,7 @@
       <c r="Q109" s="7"/>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B110" s="46"/>
+      <c r="B110" s="57"/>
       <c r="C110" s="5"/>
       <c r="D110" s="6"/>
       <c r="E110" s="7"/>
@@ -5000,7 +5249,7 @@
       <c r="Q110" s="7"/>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B111" s="46"/>
+      <c r="B111" s="57"/>
       <c r="C111" s="5"/>
       <c r="D111" s="6"/>
       <c r="E111" s="7"/>
@@ -5022,7 +5271,7 @@
       <c r="Q111" s="7"/>
     </row>
     <row r="112" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="47"/>
+      <c r="B112" s="58"/>
       <c r="C112" s="8"/>
       <c r="D112" s="9"/>
       <c r="E112" s="10"/>
@@ -5043,21 +5292,340 @@
       <c r="P112" s="9"/>
       <c r="Q112" s="10"/>
     </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B113" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="C113" s="52"/>
+      <c r="D113" s="53"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G113" s="48"/>
+      <c r="H113" s="49"/>
+      <c r="I113" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="J113" s="48"/>
+      <c r="K113" s="49"/>
+      <c r="L113" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="M113" s="48"/>
+      <c r="N113" s="49"/>
+      <c r="O113" s="52"/>
+      <c r="P113" s="53"/>
+      <c r="Q113" s="54"/>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B114" s="57"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J114" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K114" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L114" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M114" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N114" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O114" s="2"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="4"/>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B115" s="57"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="H115" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="I115" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="K115" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="L115" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="M115" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="N115" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="O115" s="5"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="7"/>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B116" s="57"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="H116" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="I116" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="K116" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="L116" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="M116" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="N116" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="O116" s="5"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="7"/>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B117" s="57"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="H117" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="I117" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="K117" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="L117" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="M117" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="N117" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="O117" s="5"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="7"/>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B118" s="57"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="H118" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="I118" s="26"/>
+      <c r="J118" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="K118" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="L118" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="M118" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="N118" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="O118" s="5"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="7"/>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B119" s="57"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="H119" s="22"/>
+      <c r="I119" s="26"/>
+      <c r="J119" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="K119" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="L119" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="M119" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="N119" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="O119" s="5"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="7"/>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B120" s="57"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="26"/>
+      <c r="G120" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="H120" s="22"/>
+      <c r="I120" s="26"/>
+      <c r="J120" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="K120" s="22"/>
+      <c r="L120" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="M120" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="N120" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="O120" s="5"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="7"/>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B121" s="57"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="59"/>
+      <c r="G121" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="H121" s="61"/>
+      <c r="I121" s="26"/>
+      <c r="J121" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="K121" s="22"/>
+      <c r="L121" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="M121" s="62"/>
+      <c r="N121" s="61"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="7"/>
+    </row>
+    <row r="122" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="58"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="27"/>
+      <c r="J122" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="K122" s="24"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="10"/>
+      <c r="O122" s="8"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="O3:Q3"/>
+  <mergeCells count="47">
+    <mergeCell ref="O89:Q89"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="B113:B122"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="I113:K113"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="O113:Q113"/>
+    <mergeCell ref="B89:B112"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="I89:K89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="B50:B88"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:N50"/>
     <mergeCell ref="B21:B49"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
@@ -5068,24 +5636,19 @@
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="B50:B88"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="B89:B112"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="I89:K89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="O89:Q89"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PMP各过程输入输出.xlsx
+++ b/PMP各过程输入输出.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="411">
   <si>
     <t>启动过程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1417,6 +1417,246 @@
   </si>
   <si>
     <t>6.会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目采购管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划采购管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目章程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.商业文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.采购管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.采购策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.招标文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.采购工作说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.供方选择标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.自制或外购决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.独立成本估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.组织过程资产更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.专家判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.数据收集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.供方选择分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.采购文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.卖方建议书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.投标人会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.项目管理计划更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.组织过程资产更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.专家判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.投标人会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.人际关系与团队技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.采购文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.批准的变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.工作绩效数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.结束的采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.工作绩效信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.采购文档更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.项目管理计划更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.组织过程资产更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.专家判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.索赔管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.审计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2125,44 +2365,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2176,6 +2383,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2185,11 +2398,38 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2495,9 +2735,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q122"/>
+  <dimension ref="B1:Q134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2507,7 +2749,7 @@
     <col min="4" max="4" width="19.625" customWidth="1"/>
     <col min="5" max="6" width="15.625" customWidth="1"/>
     <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.25" customWidth="1"/>
     <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
@@ -2522,64 +2764,64 @@
     <row r="1" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="41" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="41" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="41" t="s">
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="50" t="s">
+      <c r="M2" s="57"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="58"/>
     </row>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="47" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="47" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="47" t="s">
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="47" t="s">
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="49"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B4" s="40"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
@@ -2627,7 +2869,7 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="40"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
@@ -2675,7 +2917,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B6" s="40"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2721,7 +2963,7 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B7" s="40"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2765,7 +3007,7 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="40"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
@@ -2805,7 +3047,7 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
@@ -2831,7 +3073,7 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B10" s="40"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
@@ -2855,7 +3097,7 @@
       <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
@@ -2877,7 +3119,7 @@
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="40"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
@@ -2897,29 +3139,29 @@
       <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="40"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="44" t="s">
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="45"/>
-      <c r="N13" s="46"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="62"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
@@ -2949,7 +3191,7 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
@@ -2979,7 +3221,7 @@
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B16" s="40"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -3009,7 +3251,7 @@
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B17" s="40"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
@@ -3039,7 +3281,7 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B18" s="40"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
@@ -3065,7 +3307,7 @@
       <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B19" s="40"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
@@ -3089,7 +3331,7 @@
       <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="40"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
@@ -3109,31 +3351,31 @@
       <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55" t="s">
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="47" t="s">
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="48"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="54"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="45"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="40"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -3163,7 +3405,7 @@
       <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B23" s="40"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
@@ -3193,7 +3435,7 @@
       <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B24" s="40"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
@@ -3223,7 +3465,7 @@
       <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B25" s="40"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
@@ -3249,7 +3491,7 @@
       <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="40"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
@@ -3273,29 +3515,29 @@
       <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B27" s="40"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="48"/>
-      <c r="H27" s="49"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="47" t="s">
+      <c r="L27" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="M27" s="48"/>
-      <c r="N27" s="49"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="48"/>
       <c r="O27" s="5"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B28" s="40"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
@@ -3325,7 +3567,7 @@
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B29" s="40"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
@@ -3355,7 +3597,7 @@
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B30" s="40"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
@@ -3383,7 +3625,7 @@
       <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B31" s="40"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
@@ -3409,7 +3651,7 @@
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="40"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
@@ -3435,7 +3677,7 @@
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B33" s="40"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
@@ -3457,7 +3699,7 @@
       <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B34" s="40"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
@@ -3479,7 +3721,7 @@
       <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B35" s="40"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
@@ -3501,7 +3743,7 @@
       <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="40"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
@@ -3521,15 +3763,15 @@
       <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B37" s="40"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="55" t="s">
+      <c r="F37" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="48"/>
-      <c r="H37" s="49"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="48"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
       <c r="K37" s="7"/>
@@ -3541,7 +3783,7 @@
       <c r="Q37" s="7"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B38" s="40"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
@@ -3565,7 +3807,7 @@
       <c r="Q38" s="7"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B39" s="40"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
@@ -3589,7 +3831,7 @@
       <c r="Q39" s="7"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B40" s="40"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
@@ -3613,7 +3855,7 @@
       <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B41" s="40"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
@@ -3635,7 +3877,7 @@
       <c r="Q41" s="7"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B42" s="40"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
@@ -3657,7 +3899,7 @@
       <c r="Q42" s="7"/>
     </row>
     <row r="43" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="40"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
@@ -3679,15 +3921,15 @@
       <c r="Q43" s="7"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B44" s="40"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="55" t="s">
+      <c r="F44" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="48"/>
-      <c r="H44" s="49"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="48"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
       <c r="K44" s="7"/>
@@ -3699,7 +3941,7 @@
       <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B45" s="40"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
@@ -3723,7 +3965,7 @@
       <c r="Q45" s="7"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B46" s="40"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
@@ -3747,7 +3989,7 @@
       <c r="Q46" s="7"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B47" s="40"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
@@ -3771,7 +4013,7 @@
       <c r="Q47" s="7"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B48" s="40"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
@@ -3791,7 +4033,7 @@
       <c r="Q48" s="7"/>
     </row>
     <row r="49" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="51"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="10"/>
@@ -3811,31 +4053,31 @@
       <c r="Q49" s="10"/>
     </row>
     <row r="50" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="55" t="s">
+      <c r="C50" s="43"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="G50" s="48"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="47" t="s">
+      <c r="G50" s="47"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="M50" s="48"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="54"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="45"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B51" s="57"/>
+      <c r="B51" s="50"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
@@ -3865,7 +4107,7 @@
       <c r="Q51" s="4"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B52" s="57"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
@@ -3895,7 +4137,7 @@
       <c r="Q52" s="7"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B53" s="57"/>
+      <c r="B53" s="50"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
@@ -3923,7 +4165,7 @@
       <c r="Q53" s="7"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B54" s="57"/>
+      <c r="B54" s="50"/>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
@@ -3951,7 +4193,7 @@
       <c r="Q54" s="7"/>
     </row>
     <row r="55" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="57"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
       <c r="E55" s="7"/>
@@ -3977,15 +4219,15 @@
       <c r="Q55" s="7"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B56" s="57"/>
+      <c r="B56" s="50"/>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="55" t="s">
+      <c r="F56" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="G56" s="48"/>
-      <c r="H56" s="49"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="48"/>
       <c r="I56" s="5"/>
       <c r="J56" s="6"/>
       <c r="K56" s="7"/>
@@ -4001,7 +4243,7 @@
       <c r="Q56" s="7"/>
     </row>
     <row r="57" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="57"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
@@ -4027,7 +4269,7 @@
       <c r="Q57" s="7"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B58" s="57"/>
+      <c r="B58" s="50"/>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
@@ -4051,7 +4293,7 @@
       <c r="Q58" s="7"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B59" s="57"/>
+      <c r="B59" s="50"/>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
@@ -4075,7 +4317,7 @@
       <c r="Q59" s="7"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B60" s="57"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
@@ -4099,7 +4341,7 @@
       <c r="Q60" s="7"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B61" s="57"/>
+      <c r="B61" s="50"/>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
       <c r="E61" s="7"/>
@@ -4121,7 +4363,7 @@
       <c r="Q61" s="7"/>
     </row>
     <row r="62" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="57"/>
+      <c r="B62" s="50"/>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
@@ -4141,15 +4383,15 @@
       <c r="Q62" s="7"/>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B63" s="57"/>
+      <c r="B63" s="50"/>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="55" t="s">
+      <c r="F63" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="G63" s="48"/>
-      <c r="H63" s="49"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="48"/>
       <c r="I63" s="5"/>
       <c r="J63" s="6"/>
       <c r="K63" s="7"/>
@@ -4161,7 +4403,7 @@
       <c r="Q63" s="7"/>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B64" s="57"/>
+      <c r="B64" s="50"/>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
       <c r="E64" s="7"/>
@@ -4185,7 +4427,7 @@
       <c r="Q64" s="7"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B65" s="57"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
@@ -4209,7 +4451,7 @@
       <c r="Q65" s="7"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B66" s="57"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
@@ -4233,7 +4475,7 @@
       <c r="Q66" s="7"/>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B67" s="57"/>
+      <c r="B67" s="50"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
       <c r="E67" s="7"/>
@@ -4255,7 +4497,7 @@
       <c r="Q67" s="7"/>
     </row>
     <row r="68" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="57"/>
+      <c r="B68" s="50"/>
       <c r="C68" s="5"/>
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
@@ -4277,15 +4519,15 @@
       <c r="Q68" s="7"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B69" s="57"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="5"/>
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="55" t="s">
+      <c r="F69" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="G69" s="48"/>
-      <c r="H69" s="49"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="48"/>
       <c r="I69" s="5"/>
       <c r="J69" s="6"/>
       <c r="K69" s="7"/>
@@ -4297,7 +4539,7 @@
       <c r="Q69" s="7"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B70" s="57"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
@@ -4321,7 +4563,7 @@
       <c r="Q70" s="7"/>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B71" s="57"/>
+      <c r="B71" s="50"/>
       <c r="C71" s="5"/>
       <c r="D71" s="6"/>
       <c r="E71" s="7"/>
@@ -4345,7 +4587,7 @@
       <c r="Q71" s="7"/>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B72" s="57"/>
+      <c r="B72" s="50"/>
       <c r="C72" s="5"/>
       <c r="D72" s="6"/>
       <c r="E72" s="7"/>
@@ -4369,7 +4611,7 @@
       <c r="Q72" s="7"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B73" s="57"/>
+      <c r="B73" s="50"/>
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
@@ -4393,7 +4635,7 @@
       <c r="Q73" s="7"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B74" s="57"/>
+      <c r="B74" s="50"/>
       <c r="C74" s="5"/>
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
@@ -4415,7 +4657,7 @@
       <c r="Q74" s="7"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B75" s="57"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
@@ -4435,7 +4677,7 @@
       <c r="Q75" s="7"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B76" s="57"/>
+      <c r="B76" s="50"/>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
@@ -4455,7 +4697,7 @@
       <c r="Q76" s="7"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B77" s="57"/>
+      <c r="B77" s="50"/>
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
@@ -4475,7 +4717,7 @@
       <c r="Q77" s="7"/>
     </row>
     <row r="78" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="57"/>
+      <c r="B78" s="50"/>
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
@@ -4495,15 +4737,15 @@
       <c r="Q78" s="7"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B79" s="57"/>
+      <c r="B79" s="50"/>
       <c r="C79" s="5"/>
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="55" t="s">
+      <c r="F79" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="G79" s="48"/>
-      <c r="H79" s="49"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="48"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6"/>
       <c r="K79" s="7"/>
@@ -4515,7 +4757,7 @@
       <c r="Q79" s="7"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B80" s="57"/>
+      <c r="B80" s="50"/>
       <c r="C80" s="5"/>
       <c r="D80" s="6"/>
       <c r="E80" s="7"/>
@@ -4539,7 +4781,7 @@
       <c r="Q80" s="7"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B81" s="57"/>
+      <c r="B81" s="50"/>
       <c r="C81" s="5"/>
       <c r="D81" s="6"/>
       <c r="E81" s="7"/>
@@ -4563,7 +4805,7 @@
       <c r="Q81" s="7"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B82" s="57"/>
+      <c r="B82" s="50"/>
       <c r="C82" s="5"/>
       <c r="D82" s="6"/>
       <c r="E82" s="7"/>
@@ -4587,7 +4829,7 @@
       <c r="Q82" s="7"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B83" s="57"/>
+      <c r="B83" s="50"/>
       <c r="C83" s="5"/>
       <c r="D83" s="6"/>
       <c r="E83" s="7"/>
@@ -4611,7 +4853,7 @@
       <c r="Q83" s="7"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B84" s="57"/>
+      <c r="B84" s="50"/>
       <c r="C84" s="5"/>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
@@ -4635,7 +4877,7 @@
       <c r="Q84" s="7"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B85" s="57"/>
+      <c r="B85" s="50"/>
       <c r="C85" s="5"/>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
@@ -4659,7 +4901,7 @@
       <c r="Q85" s="7"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B86" s="57"/>
+      <c r="B86" s="50"/>
       <c r="C86" s="5"/>
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
@@ -4681,7 +4923,7 @@
       <c r="Q86" s="7"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B87" s="57"/>
+      <c r="B87" s="50"/>
       <c r="C87" s="5"/>
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
@@ -4703,7 +4945,7 @@
       <c r="Q87" s="7"/>
     </row>
     <row r="88" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="58"/>
+      <c r="B88" s="51"/>
       <c r="C88" s="8"/>
       <c r="D88" s="9"/>
       <c r="E88" s="10"/>
@@ -4723,31 +4965,31 @@
       <c r="Q88" s="10"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B89" s="56" t="s">
+      <c r="B89" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="C89" s="52"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="55" t="s">
+      <c r="C89" s="43"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="G89" s="48"/>
-      <c r="H89" s="49"/>
-      <c r="I89" s="52"/>
-      <c r="J89" s="53"/>
-      <c r="K89" s="54"/>
-      <c r="L89" s="47" t="s">
+      <c r="G89" s="47"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="45"/>
+      <c r="L89" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="M89" s="48"/>
-      <c r="N89" s="49"/>
-      <c r="O89" s="52"/>
-      <c r="P89" s="53"/>
-      <c r="Q89" s="54"/>
+      <c r="M89" s="47"/>
+      <c r="N89" s="48"/>
+      <c r="O89" s="43"/>
+      <c r="P89" s="44"/>
+      <c r="Q89" s="45"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B90" s="57"/>
+      <c r="B90" s="50"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
       <c r="E90" s="4"/>
@@ -4777,7 +5019,7 @@
       <c r="Q90" s="4"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B91" s="57"/>
+      <c r="B91" s="50"/>
       <c r="C91" s="5"/>
       <c r="D91" s="6"/>
       <c r="E91" s="7"/>
@@ -4807,7 +5049,7 @@
       <c r="Q91" s="7"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B92" s="57"/>
+      <c r="B92" s="50"/>
       <c r="C92" s="5"/>
       <c r="D92" s="6"/>
       <c r="E92" s="7"/>
@@ -4835,7 +5077,7 @@
       <c r="Q92" s="7"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B93" s="57"/>
+      <c r="B93" s="50"/>
       <c r="C93" s="5"/>
       <c r="D93" s="6"/>
       <c r="E93" s="7"/>
@@ -4863,7 +5105,7 @@
       <c r="Q93" s="7"/>
     </row>
     <row r="94" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="57"/>
+      <c r="B94" s="50"/>
       <c r="C94" s="5"/>
       <c r="D94" s="6"/>
       <c r="E94" s="7"/>
@@ -4889,15 +5131,15 @@
       <c r="Q94" s="7"/>
     </row>
     <row r="95" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="57"/>
+      <c r="B95" s="50"/>
       <c r="C95" s="5"/>
       <c r="D95" s="6"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="55" t="s">
+      <c r="F95" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="G95" s="48"/>
-      <c r="H95" s="49"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="48"/>
       <c r="I95" s="5"/>
       <c r="J95" s="6"/>
       <c r="K95" s="7"/>
@@ -4913,7 +5155,7 @@
       <c r="Q95" s="7"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B96" s="57"/>
+      <c r="B96" s="50"/>
       <c r="C96" s="5"/>
       <c r="D96" s="6"/>
       <c r="E96" s="7"/>
@@ -4937,7 +5179,7 @@
       <c r="Q96" s="7"/>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B97" s="57"/>
+      <c r="B97" s="50"/>
       <c r="C97" s="5"/>
       <c r="D97" s="6"/>
       <c r="E97" s="7"/>
@@ -4961,7 +5203,7 @@
       <c r="Q97" s="7"/>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B98" s="57"/>
+      <c r="B98" s="50"/>
       <c r="C98" s="5"/>
       <c r="D98" s="6"/>
       <c r="E98" s="7"/>
@@ -4985,7 +5227,7 @@
       <c r="Q98" s="7"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B99" s="57"/>
+      <c r="B99" s="50"/>
       <c r="C99" s="5"/>
       <c r="D99" s="6"/>
       <c r="E99" s="7"/>
@@ -5009,7 +5251,7 @@
       <c r="Q99" s="7"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B100" s="57"/>
+      <c r="B100" s="50"/>
       <c r="C100" s="5"/>
       <c r="D100" s="6"/>
       <c r="E100" s="7"/>
@@ -5031,7 +5273,7 @@
       <c r="Q100" s="7"/>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B101" s="57"/>
+      <c r="B101" s="50"/>
       <c r="C101" s="5"/>
       <c r="D101" s="6"/>
       <c r="E101" s="7"/>
@@ -5051,7 +5293,7 @@
       <c r="Q101" s="7"/>
     </row>
     <row r="102" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B102" s="57"/>
+      <c r="B102" s="50"/>
       <c r="C102" s="5"/>
       <c r="D102" s="6"/>
       <c r="E102" s="7"/>
@@ -5071,7 +5313,7 @@
       <c r="Q102" s="7"/>
     </row>
     <row r="103" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B103" s="57"/>
+      <c r="B103" s="50"/>
       <c r="C103" s="5"/>
       <c r="D103" s="6"/>
       <c r="E103" s="7"/>
@@ -5091,7 +5333,7 @@
       <c r="Q103" s="7"/>
     </row>
     <row r="104" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="57"/>
+      <c r="B104" s="50"/>
       <c r="C104" s="5"/>
       <c r="D104" s="6"/>
       <c r="E104" s="7"/>
@@ -5111,15 +5353,15 @@
       <c r="Q104" s="7"/>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B105" s="57"/>
+      <c r="B105" s="50"/>
       <c r="C105" s="5"/>
       <c r="D105" s="6"/>
       <c r="E105" s="7"/>
-      <c r="F105" s="55" t="s">
+      <c r="F105" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="G105" s="48"/>
-      <c r="H105" s="49"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="48"/>
       <c r="I105" s="5"/>
       <c r="J105" s="6"/>
       <c r="K105" s="7"/>
@@ -5131,7 +5373,7 @@
       <c r="Q105" s="7"/>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B106" s="57"/>
+      <c r="B106" s="50"/>
       <c r="C106" s="5"/>
       <c r="D106" s="6"/>
       <c r="E106" s="7"/>
@@ -5155,7 +5397,7 @@
       <c r="Q106" s="7"/>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B107" s="57"/>
+      <c r="B107" s="50"/>
       <c r="C107" s="5"/>
       <c r="D107" s="6"/>
       <c r="E107" s="7"/>
@@ -5179,7 +5421,7 @@
       <c r="Q107" s="7"/>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B108" s="57"/>
+      <c r="B108" s="50"/>
       <c r="C108" s="5"/>
       <c r="D108" s="6"/>
       <c r="E108" s="7"/>
@@ -5203,7 +5445,7 @@
       <c r="Q108" s="7"/>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B109" s="57"/>
+      <c r="B109" s="50"/>
       <c r="C109" s="5"/>
       <c r="D109" s="6"/>
       <c r="E109" s="7"/>
@@ -5227,7 +5469,7 @@
       <c r="Q109" s="7"/>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B110" s="57"/>
+      <c r="B110" s="50"/>
       <c r="C110" s="5"/>
       <c r="D110" s="6"/>
       <c r="E110" s="7"/>
@@ -5249,7 +5491,7 @@
       <c r="Q110" s="7"/>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B111" s="57"/>
+      <c r="B111" s="50"/>
       <c r="C111" s="5"/>
       <c r="D111" s="6"/>
       <c r="E111" s="7"/>
@@ -5271,7 +5513,7 @@
       <c r="Q111" s="7"/>
     </row>
     <row r="112" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="58"/>
+      <c r="B112" s="51"/>
       <c r="C112" s="8"/>
       <c r="D112" s="9"/>
       <c r="E112" s="10"/>
@@ -5293,33 +5535,33 @@
       <c r="Q112" s="10"/>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B113" s="56" t="s">
+      <c r="B113" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="C113" s="52"/>
-      <c r="D113" s="53"/>
-      <c r="E113" s="54"/>
-      <c r="F113" s="47" t="s">
+      <c r="C113" s="43"/>
+      <c r="D113" s="44"/>
+      <c r="E113" s="45"/>
+      <c r="F113" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="G113" s="48"/>
-      <c r="H113" s="49"/>
-      <c r="I113" s="47" t="s">
+      <c r="G113" s="47"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="52" t="s">
         <v>301</v>
       </c>
-      <c r="J113" s="48"/>
-      <c r="K113" s="49"/>
-      <c r="L113" s="47" t="s">
+      <c r="J113" s="47"/>
+      <c r="K113" s="48"/>
+      <c r="L113" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="M113" s="48"/>
-      <c r="N113" s="49"/>
-      <c r="O113" s="52"/>
-      <c r="P113" s="53"/>
-      <c r="Q113" s="54"/>
+      <c r="M113" s="47"/>
+      <c r="N113" s="48"/>
+      <c r="O113" s="43"/>
+      <c r="P113" s="44"/>
+      <c r="Q113" s="45"/>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B114" s="57"/>
+      <c r="B114" s="50"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="4"/>
@@ -5355,7 +5597,7 @@
       <c r="Q114" s="4"/>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B115" s="57"/>
+      <c r="B115" s="50"/>
       <c r="C115" s="5"/>
       <c r="D115" s="6"/>
       <c r="E115" s="7"/>
@@ -5391,7 +5633,7 @@
       <c r="Q115" s="7"/>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B116" s="57"/>
+      <c r="B116" s="50"/>
       <c r="C116" s="5"/>
       <c r="D116" s="6"/>
       <c r="E116" s="7"/>
@@ -5427,7 +5669,7 @@
       <c r="Q116" s="7"/>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B117" s="57"/>
+      <c r="B117" s="50"/>
       <c r="C117" s="5"/>
       <c r="D117" s="6"/>
       <c r="E117" s="7"/>
@@ -5463,7 +5705,7 @@
       <c r="Q117" s="7"/>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B118" s="57"/>
+      <c r="B118" s="50"/>
       <c r="C118" s="5"/>
       <c r="D118" s="6"/>
       <c r="E118" s="7"/>
@@ -5497,7 +5739,7 @@
       <c r="Q118" s="7"/>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B119" s="57"/>
+      <c r="B119" s="50"/>
       <c r="C119" s="5"/>
       <c r="D119" s="6"/>
       <c r="E119" s="7"/>
@@ -5529,7 +5771,7 @@
       <c r="Q119" s="7"/>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B120" s="57"/>
+      <c r="B120" s="50"/>
       <c r="C120" s="5"/>
       <c r="D120" s="6"/>
       <c r="E120" s="7"/>
@@ -5557,31 +5799,31 @@
       <c r="Q120" s="7"/>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B121" s="57"/>
+      <c r="B121" s="50"/>
       <c r="C121" s="5"/>
       <c r="D121" s="6"/>
       <c r="E121" s="7"/>
-      <c r="F121" s="59"/>
-      <c r="G121" s="60" t="s">
+      <c r="F121" s="39"/>
+      <c r="G121" s="40" t="s">
         <v>318</v>
       </c>
-      <c r="H121" s="61"/>
+      <c r="H121" s="41"/>
       <c r="I121" s="26"/>
       <c r="J121" s="6" t="s">
         <v>333</v>
       </c>
       <c r="K121" s="22"/>
-      <c r="L121" s="59" t="s">
+      <c r="L121" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="M121" s="62"/>
-      <c r="N121" s="61"/>
+      <c r="M121" s="42"/>
+      <c r="N121" s="41"/>
       <c r="O121" s="5"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="7"/>
     </row>
     <row r="122" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="58"/>
+      <c r="B122" s="51"/>
       <c r="C122" s="8"/>
       <c r="D122" s="9"/>
       <c r="E122" s="10"/>
@@ -5600,8 +5842,405 @@
       <c r="P122" s="9"/>
       <c r="Q122" s="10"/>
     </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B123" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="C123" s="43"/>
+      <c r="D123" s="44"/>
+      <c r="E123" s="45"/>
+      <c r="F123" s="52" t="s">
+        <v>352</v>
+      </c>
+      <c r="G123" s="47"/>
+      <c r="H123" s="48"/>
+      <c r="I123" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="J123" s="47"/>
+      <c r="K123" s="48"/>
+      <c r="L123" s="52" t="s">
+        <v>354</v>
+      </c>
+      <c r="M123" s="47"/>
+      <c r="N123" s="48"/>
+      <c r="O123" s="43"/>
+      <c r="P123" s="44"/>
+      <c r="Q123" s="45"/>
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B124" s="50"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I124" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J124" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K124" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L124" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M124" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N124" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O124" s="2"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="4"/>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B125" s="50"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="H125" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="I125" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="K125" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="L125" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="M125" s="37" t="s">
+        <v>406</v>
+      </c>
+      <c r="N125" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="O125" s="5"/>
+      <c r="P125" s="6"/>
+      <c r="Q125" s="7"/>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B126" s="50"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="H126" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="I126" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="J126" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="K126" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="L126" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="M126" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="N126" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="O126" s="5"/>
+      <c r="P126" s="6"/>
+      <c r="Q126" s="7"/>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B127" s="50"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="H127" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="I127" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="K127" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="L127" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="M127" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="N127" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="O127" s="5"/>
+      <c r="P127" s="6"/>
+      <c r="Q127" s="7"/>
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B128" s="50"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="H128" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="I128" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="K128" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="L128" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="M128" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="N128" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="O128" s="5"/>
+      <c r="P128" s="6"/>
+      <c r="Q128" s="7"/>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B129" s="50"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="H129" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="I129" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="K129" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="L129" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="M129" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="N129" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="O129" s="5"/>
+      <c r="P129" s="6"/>
+      <c r="Q129" s="7"/>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B130" s="50"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="G130" s="6"/>
+      <c r="H130" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I130" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="J130" s="6"/>
+      <c r="K130" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="L130" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="M130" s="37"/>
+      <c r="N130" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="O130" s="5"/>
+      <c r="P130" s="6"/>
+      <c r="Q130" s="7"/>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B131" s="50"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="I131" s="26"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="22"/>
+      <c r="L131" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="M131" s="37"/>
+      <c r="N131" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="O131" s="5"/>
+      <c r="P131" s="6"/>
+      <c r="Q131" s="7"/>
+    </row>
+    <row r="132" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B132" s="50"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="26"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="I132" s="26"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="22"/>
+      <c r="L132" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="M132" s="42"/>
+      <c r="N132" s="41"/>
+      <c r="O132" s="5"/>
+      <c r="P132" s="6"/>
+      <c r="Q132" s="7"/>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B133" s="50"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="26"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="I133" s="26"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="22"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="37"/>
+      <c r="N133" s="7"/>
+      <c r="O133" s="5"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="7"/>
+    </row>
+    <row r="134" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="51"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="I134" s="27"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="24"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="10"/>
+      <c r="O134" s="8"/>
+      <c r="P134" s="9"/>
+      <c r="Q134" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="53">
+    <mergeCell ref="O123:Q123"/>
+    <mergeCell ref="B123:B134"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="I123:K123"/>
+    <mergeCell ref="L123:N123"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B21:B49"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="B50:B88"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:N50"/>
     <mergeCell ref="O89:Q89"/>
     <mergeCell ref="F95:H95"/>
     <mergeCell ref="F105:H105"/>
@@ -5616,39 +6255,6 @@
     <mergeCell ref="F89:H89"/>
     <mergeCell ref="I89:K89"/>
     <mergeCell ref="L89:N89"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="B50:B88"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="B21:B49"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PMP各过程输入输出.xlsx
+++ b/PMP各过程输入输出.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理过程组" sheetId="1" r:id="rId1"/>
+    <sheet name="默写" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="508">
   <si>
     <t>启动过程组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1436,19 +1437,367 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2.商业文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.采购管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.采购策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.招标文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.采购工作说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.供方选择标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.自制或外购决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.独立成本估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.组织过程资产更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.供方选择分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.采购文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.卖方建议书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.投标人会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.组织过程资产更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.投标人会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.人际关系与团队技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.采购文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.批准的变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.工作绩效数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.结束的采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.采购文档更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.组织过程资产更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.索赔管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目资源管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划资源管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>估算活动资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.项目章程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.商业文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.项目管理计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.项目文件</t>
+    <t>2.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.资源管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.团队章程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.专家判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.数据表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.组织理论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.资源需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.估算依据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.资源分解结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.自下而上估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.类比估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.参数估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.项目管理信息系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.事业环境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.物质资源分配单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目团队派工单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.资源日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.项目管理计划更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.事业环境因素更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.组织过程资产更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.人际关系与团队技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.预分派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.虚拟团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.团队绩效评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.事业环境因素更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.集中办公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.虚拟团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.沟通技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.人际关系与团队技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.认可与奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.个人和团队评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.工作绩效报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.团队绩效评价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1460,63 +1809,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.采购管理计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.采购策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.招标文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.采购工作说明书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.供方选择标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.自制或外购决策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.独立成本估算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.变更请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.项目文件更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.组织过程资产更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.专家判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.数据收集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.数据分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.供方选择分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.会议</t>
+    <t>1.变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.项目文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.事业环境因素更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.人际关系与团队技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.项目管理信息系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1528,135 +1837,290 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.采购文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.卖方建议书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.投标人会议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.变更请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.项目管理计划更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.项目文件更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.组织过程资产更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.专家判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.广告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.投标人会议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.数据分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.人际关系与团队技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.项目管理计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.项目文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.采购文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.批准的变更请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.工作绩效数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.事业环境因素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.组织过程资产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.结束的采购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.工作绩效信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.采购文档更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.变更请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.项目管理计划更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.项目文件更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.组织过程资产更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.专家判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.索赔管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.数据分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.审计</t>
+    <t>3.工作绩效数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.组织过程资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.工作绩效信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.变更请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.项目管理计划更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.问题解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.人际关系与团队技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.项目管理信息系统（PMIS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收尾阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合过程组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围过程组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度过程组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本过程组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量过程组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源过程组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通过程组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购过程组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关方过程组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险过程组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定项目章程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别相关方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定项目管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划范围管理
+收集需求
+定义范围
+创建WBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划进度管理
+定义活动
+排列活动
+估算活动持续时间
+制定进度计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划质量管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划资源管理
+估算活动资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划沟通管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划采购管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划相关方参与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指导与管理项目工作
+管理项目知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取资源
+建设团队
+管理团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理相关方参与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控项目工作
+实施整体变更控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督相关方参与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束项目或阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制质量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">规划成本管理
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>估算成本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+制定预算</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施风险应对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>确认范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+控制范围</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">规划风险管理
+识别风险
+实施定性风险分析
+实施定量风险分析
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>规划风险应对</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1664,7 +2128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1691,6 +2155,22 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -2297,7 +2777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2380,15 +2860,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2399,6 +2870,15 @@
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2430,6 +2910,40 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2735,10 +3249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q134"/>
+  <dimension ref="B1:Q162"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView showGridLines="0" topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2794,31 +3308,31 @@
       <c r="B3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="52" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52" t="s">
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="52" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="52" t="s">
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="51"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4" s="54"/>
@@ -3357,19 +3871,19 @@
       <c r="C21" s="43"/>
       <c r="D21" s="44"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="43"/>
       <c r="J21" s="44"/>
       <c r="K21" s="45"/>
-      <c r="L21" s="52" t="s">
+      <c r="L21" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="47"/>
-      <c r="N21" s="48"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="51"/>
       <c r="O21" s="43"/>
       <c r="P21" s="44"/>
       <c r="Q21" s="45"/>
@@ -3519,19 +4033,19 @@
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="52" t="s">
+      <c r="L27" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="M27" s="47"/>
-      <c r="N27" s="48"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="51"/>
       <c r="O27" s="5"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="7"/>
@@ -3767,11 +4281,11 @@
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="47"/>
-      <c r="H37" s="48"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
       <c r="K37" s="7"/>
@@ -3925,11 +4439,11 @@
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="47"/>
-      <c r="H44" s="48"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="51"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
       <c r="K44" s="7"/>
@@ -4053,31 +4567,31 @@
       <c r="Q49" s="10"/>
     </row>
     <row r="50" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="46" t="s">
         <v>171</v>
       </c>
       <c r="C50" s="43"/>
       <c r="D50" s="44"/>
       <c r="E50" s="45"/>
-      <c r="F50" s="46" t="s">
+      <c r="F50" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="G50" s="47"/>
-      <c r="H50" s="48"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="51"/>
       <c r="I50" s="43"/>
       <c r="J50" s="44"/>
       <c r="K50" s="45"/>
-      <c r="L50" s="52" t="s">
+      <c r="L50" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="M50" s="47"/>
-      <c r="N50" s="48"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="51"/>
       <c r="O50" s="43"/>
       <c r="P50" s="44"/>
       <c r="Q50" s="45"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B51" s="50"/>
+      <c r="B51" s="47"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
@@ -4107,7 +4621,7 @@
       <c r="Q51" s="4"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B52" s="50"/>
+      <c r="B52" s="47"/>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
@@ -4137,7 +4651,7 @@
       <c r="Q52" s="7"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B53" s="50"/>
+      <c r="B53" s="47"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
@@ -4165,7 +4679,7 @@
       <c r="Q53" s="7"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B54" s="50"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
@@ -4193,7 +4707,7 @@
       <c r="Q54" s="7"/>
     </row>
     <row r="55" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="50"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
       <c r="E55" s="7"/>
@@ -4219,15 +4733,15 @@
       <c r="Q55" s="7"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B56" s="50"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="46" t="s">
+      <c r="F56" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="G56" s="47"/>
-      <c r="H56" s="48"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="51"/>
       <c r="I56" s="5"/>
       <c r="J56" s="6"/>
       <c r="K56" s="7"/>
@@ -4243,7 +4757,7 @@
       <c r="Q56" s="7"/>
     </row>
     <row r="57" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="50"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
@@ -4269,7 +4783,7 @@
       <c r="Q57" s="7"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B58" s="50"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
@@ -4293,7 +4807,7 @@
       <c r="Q58" s="7"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B59" s="50"/>
+      <c r="B59" s="47"/>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
@@ -4317,7 +4831,7 @@
       <c r="Q59" s="7"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B60" s="50"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
@@ -4341,7 +4855,7 @@
       <c r="Q60" s="7"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B61" s="50"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
       <c r="E61" s="7"/>
@@ -4363,7 +4877,7 @@
       <c r="Q61" s="7"/>
     </row>
     <row r="62" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="50"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
@@ -4383,15 +4897,15 @@
       <c r="Q62" s="7"/>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B63" s="50"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="46" t="s">
+      <c r="F63" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="G63" s="47"/>
-      <c r="H63" s="48"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="51"/>
       <c r="I63" s="5"/>
       <c r="J63" s="6"/>
       <c r="K63" s="7"/>
@@ -4403,7 +4917,7 @@
       <c r="Q63" s="7"/>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B64" s="50"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
       <c r="E64" s="7"/>
@@ -4427,7 +4941,7 @@
       <c r="Q64" s="7"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B65" s="50"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
@@ -4451,7 +4965,7 @@
       <c r="Q65" s="7"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B66" s="50"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
@@ -4475,7 +4989,7 @@
       <c r="Q66" s="7"/>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B67" s="50"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
       <c r="E67" s="7"/>
@@ -4497,7 +5011,7 @@
       <c r="Q67" s="7"/>
     </row>
     <row r="68" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="50"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="5"/>
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
@@ -4519,15 +5033,15 @@
       <c r="Q68" s="7"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B69" s="50"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="5"/>
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="46" t="s">
+      <c r="F69" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="G69" s="47"/>
-      <c r="H69" s="48"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="51"/>
       <c r="I69" s="5"/>
       <c r="J69" s="6"/>
       <c r="K69" s="7"/>
@@ -4539,7 +5053,7 @@
       <c r="Q69" s="7"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B70" s="50"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
@@ -4563,7 +5077,7 @@
       <c r="Q70" s="7"/>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B71" s="50"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="5"/>
       <c r="D71" s="6"/>
       <c r="E71" s="7"/>
@@ -4587,7 +5101,7 @@
       <c r="Q71" s="7"/>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B72" s="50"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="5"/>
       <c r="D72" s="6"/>
       <c r="E72" s="7"/>
@@ -4611,7 +5125,7 @@
       <c r="Q72" s="7"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B73" s="50"/>
+      <c r="B73" s="47"/>
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
@@ -4635,7 +5149,7 @@
       <c r="Q73" s="7"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B74" s="50"/>
+      <c r="B74" s="47"/>
       <c r="C74" s="5"/>
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
@@ -4657,7 +5171,7 @@
       <c r="Q74" s="7"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B75" s="50"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
@@ -4677,7 +5191,7 @@
       <c r="Q75" s="7"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B76" s="50"/>
+      <c r="B76" s="47"/>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
@@ -4697,7 +5211,7 @@
       <c r="Q76" s="7"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B77" s="50"/>
+      <c r="B77" s="47"/>
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
@@ -4717,7 +5231,7 @@
       <c r="Q77" s="7"/>
     </row>
     <row r="78" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="50"/>
+      <c r="B78" s="47"/>
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
@@ -4737,15 +5251,15 @@
       <c r="Q78" s="7"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B79" s="50"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="5"/>
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="46" t="s">
+      <c r="F79" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="G79" s="47"/>
-      <c r="H79" s="48"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="51"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6"/>
       <c r="K79" s="7"/>
@@ -4757,7 +5271,7 @@
       <c r="Q79" s="7"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B80" s="50"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="5"/>
       <c r="D80" s="6"/>
       <c r="E80" s="7"/>
@@ -4781,7 +5295,7 @@
       <c r="Q80" s="7"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B81" s="50"/>
+      <c r="B81" s="47"/>
       <c r="C81" s="5"/>
       <c r="D81" s="6"/>
       <c r="E81" s="7"/>
@@ -4805,7 +5319,7 @@
       <c r="Q81" s="7"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B82" s="50"/>
+      <c r="B82" s="47"/>
       <c r="C82" s="5"/>
       <c r="D82" s="6"/>
       <c r="E82" s="7"/>
@@ -4829,7 +5343,7 @@
       <c r="Q82" s="7"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B83" s="50"/>
+      <c r="B83" s="47"/>
       <c r="C83" s="5"/>
       <c r="D83" s="6"/>
       <c r="E83" s="7"/>
@@ -4853,7 +5367,7 @@
       <c r="Q83" s="7"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B84" s="50"/>
+      <c r="B84" s="47"/>
       <c r="C84" s="5"/>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
@@ -4877,7 +5391,7 @@
       <c r="Q84" s="7"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B85" s="50"/>
+      <c r="B85" s="47"/>
       <c r="C85" s="5"/>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
@@ -4901,7 +5415,7 @@
       <c r="Q85" s="7"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B86" s="50"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="5"/>
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
@@ -4923,7 +5437,7 @@
       <c r="Q86" s="7"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B87" s="50"/>
+      <c r="B87" s="47"/>
       <c r="C87" s="5"/>
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
@@ -4945,7 +5459,7 @@
       <c r="Q87" s="7"/>
     </row>
     <row r="88" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="51"/>
+      <c r="B88" s="48"/>
       <c r="C88" s="8"/>
       <c r="D88" s="9"/>
       <c r="E88" s="10"/>
@@ -4965,31 +5479,31 @@
       <c r="Q88" s="10"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B89" s="49" t="s">
+      <c r="B89" s="46" t="s">
         <v>253</v>
       </c>
       <c r="C89" s="43"/>
       <c r="D89" s="44"/>
       <c r="E89" s="45"/>
-      <c r="F89" s="46" t="s">
+      <c r="F89" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="G89" s="47"/>
-      <c r="H89" s="48"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="51"/>
       <c r="I89" s="43"/>
       <c r="J89" s="44"/>
       <c r="K89" s="45"/>
-      <c r="L89" s="52" t="s">
+      <c r="L89" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="M89" s="47"/>
-      <c r="N89" s="48"/>
+      <c r="M89" s="50"/>
+      <c r="N89" s="51"/>
       <c r="O89" s="43"/>
       <c r="P89" s="44"/>
       <c r="Q89" s="45"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B90" s="50"/>
+      <c r="B90" s="47"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
       <c r="E90" s="4"/>
@@ -5019,7 +5533,7 @@
       <c r="Q90" s="4"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B91" s="50"/>
+      <c r="B91" s="47"/>
       <c r="C91" s="5"/>
       <c r="D91" s="6"/>
       <c r="E91" s="7"/>
@@ -5049,7 +5563,7 @@
       <c r="Q91" s="7"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B92" s="50"/>
+      <c r="B92" s="47"/>
       <c r="C92" s="5"/>
       <c r="D92" s="6"/>
       <c r="E92" s="7"/>
@@ -5077,7 +5591,7 @@
       <c r="Q92" s="7"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B93" s="50"/>
+      <c r="B93" s="47"/>
       <c r="C93" s="5"/>
       <c r="D93" s="6"/>
       <c r="E93" s="7"/>
@@ -5105,7 +5619,7 @@
       <c r="Q93" s="7"/>
     </row>
     <row r="94" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="50"/>
+      <c r="B94" s="47"/>
       <c r="C94" s="5"/>
       <c r="D94" s="6"/>
       <c r="E94" s="7"/>
@@ -5131,15 +5645,15 @@
       <c r="Q94" s="7"/>
     </row>
     <row r="95" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="50"/>
+      <c r="B95" s="47"/>
       <c r="C95" s="5"/>
       <c r="D95" s="6"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="46" t="s">
+      <c r="F95" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="G95" s="47"/>
-      <c r="H95" s="48"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="51"/>
       <c r="I95" s="5"/>
       <c r="J95" s="6"/>
       <c r="K95" s="7"/>
@@ -5155,7 +5669,7 @@
       <c r="Q95" s="7"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B96" s="50"/>
+      <c r="B96" s="47"/>
       <c r="C96" s="5"/>
       <c r="D96" s="6"/>
       <c r="E96" s="7"/>
@@ -5179,7 +5693,7 @@
       <c r="Q96" s="7"/>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B97" s="50"/>
+      <c r="B97" s="47"/>
       <c r="C97" s="5"/>
       <c r="D97" s="6"/>
       <c r="E97" s="7"/>
@@ -5203,7 +5717,7 @@
       <c r="Q97" s="7"/>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B98" s="50"/>
+      <c r="B98" s="47"/>
       <c r="C98" s="5"/>
       <c r="D98" s="6"/>
       <c r="E98" s="7"/>
@@ -5227,7 +5741,7 @@
       <c r="Q98" s="7"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B99" s="50"/>
+      <c r="B99" s="47"/>
       <c r="C99" s="5"/>
       <c r="D99" s="6"/>
       <c r="E99" s="7"/>
@@ -5251,7 +5765,7 @@
       <c r="Q99" s="7"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B100" s="50"/>
+      <c r="B100" s="47"/>
       <c r="C100" s="5"/>
       <c r="D100" s="6"/>
       <c r="E100" s="7"/>
@@ -5273,7 +5787,7 @@
       <c r="Q100" s="7"/>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B101" s="50"/>
+      <c r="B101" s="47"/>
       <c r="C101" s="5"/>
       <c r="D101" s="6"/>
       <c r="E101" s="7"/>
@@ -5293,7 +5807,7 @@
       <c r="Q101" s="7"/>
     </row>
     <row r="102" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B102" s="50"/>
+      <c r="B102" s="47"/>
       <c r="C102" s="5"/>
       <c r="D102" s="6"/>
       <c r="E102" s="7"/>
@@ -5313,7 +5827,7 @@
       <c r="Q102" s="7"/>
     </row>
     <row r="103" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B103" s="50"/>
+      <c r="B103" s="47"/>
       <c r="C103" s="5"/>
       <c r="D103" s="6"/>
       <c r="E103" s="7"/>
@@ -5333,7 +5847,7 @@
       <c r="Q103" s="7"/>
     </row>
     <row r="104" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="50"/>
+      <c r="B104" s="47"/>
       <c r="C104" s="5"/>
       <c r="D104" s="6"/>
       <c r="E104" s="7"/>
@@ -5353,15 +5867,15 @@
       <c r="Q104" s="7"/>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B105" s="50"/>
+      <c r="B105" s="47"/>
       <c r="C105" s="5"/>
       <c r="D105" s="6"/>
       <c r="E105" s="7"/>
-      <c r="F105" s="46" t="s">
+      <c r="F105" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="G105" s="47"/>
-      <c r="H105" s="48"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="51"/>
       <c r="I105" s="5"/>
       <c r="J105" s="6"/>
       <c r="K105" s="7"/>
@@ -5373,7 +5887,7 @@
       <c r="Q105" s="7"/>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B106" s="50"/>
+      <c r="B106" s="47"/>
       <c r="C106" s="5"/>
       <c r="D106" s="6"/>
       <c r="E106" s="7"/>
@@ -5397,7 +5911,7 @@
       <c r="Q106" s="7"/>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B107" s="50"/>
+      <c r="B107" s="47"/>
       <c r="C107" s="5"/>
       <c r="D107" s="6"/>
       <c r="E107" s="7"/>
@@ -5421,7 +5935,7 @@
       <c r="Q107" s="7"/>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B108" s="50"/>
+      <c r="B108" s="47"/>
       <c r="C108" s="5"/>
       <c r="D108" s="6"/>
       <c r="E108" s="7"/>
@@ -5445,7 +5959,7 @@
       <c r="Q108" s="7"/>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B109" s="50"/>
+      <c r="B109" s="47"/>
       <c r="C109" s="5"/>
       <c r="D109" s="6"/>
       <c r="E109" s="7"/>
@@ -5469,7 +5983,7 @@
       <c r="Q109" s="7"/>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B110" s="50"/>
+      <c r="B110" s="47"/>
       <c r="C110" s="5"/>
       <c r="D110" s="6"/>
       <c r="E110" s="7"/>
@@ -5491,7 +6005,7 @@
       <c r="Q110" s="7"/>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B111" s="50"/>
+      <c r="B111" s="47"/>
       <c r="C111" s="5"/>
       <c r="D111" s="6"/>
       <c r="E111" s="7"/>
@@ -5513,7 +6027,7 @@
       <c r="Q111" s="7"/>
     </row>
     <row r="112" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="51"/>
+      <c r="B112" s="48"/>
       <c r="C112" s="8"/>
       <c r="D112" s="9"/>
       <c r="E112" s="10"/>
@@ -5535,33 +6049,33 @@
       <c r="Q112" s="10"/>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B113" s="49" t="s">
+      <c r="B113" s="46" t="s">
         <v>299</v>
       </c>
       <c r="C113" s="43"/>
       <c r="D113" s="44"/>
       <c r="E113" s="45"/>
-      <c r="F113" s="52" t="s">
+      <c r="F113" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="G113" s="47"/>
-      <c r="H113" s="48"/>
-      <c r="I113" s="52" t="s">
+      <c r="G113" s="50"/>
+      <c r="H113" s="51"/>
+      <c r="I113" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="J113" s="47"/>
-      <c r="K113" s="48"/>
-      <c r="L113" s="52" t="s">
+      <c r="J113" s="50"/>
+      <c r="K113" s="51"/>
+      <c r="L113" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="M113" s="47"/>
-      <c r="N113" s="48"/>
+      <c r="M113" s="50"/>
+      <c r="N113" s="51"/>
       <c r="O113" s="43"/>
       <c r="P113" s="44"/>
       <c r="Q113" s="45"/>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B114" s="50"/>
+      <c r="B114" s="47"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="4"/>
@@ -5597,7 +6111,7 @@
       <c r="Q114" s="4"/>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B115" s="50"/>
+      <c r="B115" s="47"/>
       <c r="C115" s="5"/>
       <c r="D115" s="6"/>
       <c r="E115" s="7"/>
@@ -5633,7 +6147,7 @@
       <c r="Q115" s="7"/>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B116" s="50"/>
+      <c r="B116" s="47"/>
       <c r="C116" s="5"/>
       <c r="D116" s="6"/>
       <c r="E116" s="7"/>
@@ -5669,7 +6183,7 @@
       <c r="Q116" s="7"/>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B117" s="50"/>
+      <c r="B117" s="47"/>
       <c r="C117" s="5"/>
       <c r="D117" s="6"/>
       <c r="E117" s="7"/>
@@ -5705,7 +6219,7 @@
       <c r="Q117" s="7"/>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B118" s="50"/>
+      <c r="B118" s="47"/>
       <c r="C118" s="5"/>
       <c r="D118" s="6"/>
       <c r="E118" s="7"/>
@@ -5739,7 +6253,7 @@
       <c r="Q118" s="7"/>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B119" s="50"/>
+      <c r="B119" s="47"/>
       <c r="C119" s="5"/>
       <c r="D119" s="6"/>
       <c r="E119" s="7"/>
@@ -5771,7 +6285,7 @@
       <c r="Q119" s="7"/>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B120" s="50"/>
+      <c r="B120" s="47"/>
       <c r="C120" s="5"/>
       <c r="D120" s="6"/>
       <c r="E120" s="7"/>
@@ -5799,7 +6313,7 @@
       <c r="Q120" s="7"/>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B121" s="50"/>
+      <c r="B121" s="47"/>
       <c r="C121" s="5"/>
       <c r="D121" s="6"/>
       <c r="E121" s="7"/>
@@ -5823,7 +6337,7 @@
       <c r="Q121" s="7"/>
     </row>
     <row r="122" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="51"/>
+      <c r="B122" s="48"/>
       <c r="C122" s="8"/>
       <c r="D122" s="9"/>
       <c r="E122" s="10"/>
@@ -5843,33 +6357,33 @@
       <c r="Q122" s="10"/>
     </row>
     <row r="123" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B123" s="49" t="s">
-        <v>351</v>
+      <c r="B123" s="46" t="s">
+        <v>387</v>
       </c>
       <c r="C123" s="43"/>
       <c r="D123" s="44"/>
       <c r="E123" s="45"/>
-      <c r="F123" s="52" t="s">
-        <v>352</v>
-      </c>
-      <c r="G123" s="47"/>
-      <c r="H123" s="48"/>
-      <c r="I123" s="52" t="s">
-        <v>353</v>
-      </c>
-      <c r="J123" s="47"/>
-      <c r="K123" s="48"/>
-      <c r="L123" s="52" t="s">
-        <v>354</v>
-      </c>
-      <c r="M123" s="47"/>
-      <c r="N123" s="48"/>
+      <c r="F123" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="G123" s="50"/>
+      <c r="H123" s="51"/>
+      <c r="I123" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="J123" s="50"/>
+      <c r="K123" s="51"/>
+      <c r="L123" s="49" t="s">
+        <v>390</v>
+      </c>
+      <c r="M123" s="50"/>
+      <c r="N123" s="51"/>
       <c r="O123" s="43"/>
       <c r="P123" s="44"/>
       <c r="Q123" s="45"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B124" s="50"/>
+      <c r="B124" s="47"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
       <c r="E124" s="4"/>
@@ -5905,309 +6419,1038 @@
       <c r="Q124" s="4"/>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B125" s="50"/>
+      <c r="B125" s="47"/>
       <c r="C125" s="5"/>
       <c r="D125" s="6"/>
       <c r="E125" s="7"/>
       <c r="F125" s="25" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="H125" s="20" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="I125" s="25" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="K125" s="20" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="L125" s="25" t="s">
-        <v>391</v>
+        <v>453</v>
       </c>
       <c r="M125" s="37" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="N125" s="20" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="O125" s="5"/>
       <c r="P125" s="6"/>
       <c r="Q125" s="7"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B126" s="50"/>
+      <c r="B126" s="47"/>
       <c r="C126" s="5"/>
       <c r="D126" s="6"/>
       <c r="E126" s="7"/>
       <c r="F126" s="26" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="H126" s="22" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="I126" s="26" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="K126" s="22" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="L126" s="26" t="s">
-        <v>392</v>
+        <v>454</v>
       </c>
       <c r="M126" s="37" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="N126" s="22" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="O126" s="5"/>
       <c r="P126" s="6"/>
       <c r="Q126" s="7"/>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B127" s="50"/>
+      <c r="B127" s="47"/>
       <c r="C127" s="5"/>
       <c r="D127" s="6"/>
       <c r="E127" s="7"/>
       <c r="F127" s="26" t="s">
-        <v>357</v>
+        <v>116</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="H127" s="22" t="s">
-        <v>363</v>
+        <v>202</v>
       </c>
       <c r="I127" s="26" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="K127" s="22" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="L127" s="26" t="s">
-        <v>393</v>
+        <v>455</v>
       </c>
       <c r="M127" s="37" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="N127" s="22" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
       <c r="O127" s="5"/>
       <c r="P127" s="6"/>
       <c r="Q127" s="7"/>
     </row>
     <row r="128" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B128" s="50"/>
+      <c r="B128" s="47"/>
       <c r="C128" s="5"/>
       <c r="D128" s="6"/>
       <c r="E128" s="7"/>
       <c r="F128" s="26" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="H128" s="22" t="s">
-        <v>364</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="H128" s="22"/>
       <c r="I128" s="26" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="K128" s="22" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="L128" s="26" t="s">
-        <v>394</v>
+        <v>456</v>
       </c>
       <c r="M128" s="37" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="N128" s="22" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="O128" s="5"/>
       <c r="P128" s="6"/>
       <c r="Q128" s="7"/>
     </row>
     <row r="129" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B129" s="50"/>
+      <c r="B129" s="47"/>
       <c r="C129" s="5"/>
       <c r="D129" s="6"/>
       <c r="E129" s="7"/>
       <c r="F129" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="H129" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="I129" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="J129" s="6" t="s">
-        <v>390</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="G129" s="6"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="26"/>
+      <c r="J129" s="6"/>
       <c r="K129" s="22" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="L129" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="M129" s="37" t="s">
-        <v>410</v>
-      </c>
-      <c r="N129" s="22" t="s">
-        <v>403</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="M129" s="37"/>
+      <c r="N129" s="22"/>
       <c r="O129" s="5"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="7"/>
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B130" s="50"/>
+      <c r="B130" s="47"/>
       <c r="C130" s="5"/>
       <c r="D130" s="6"/>
       <c r="E130" s="7"/>
-      <c r="F130" s="26" t="s">
-        <v>360</v>
-      </c>
+      <c r="F130" s="26"/>
       <c r="G130" s="6"/>
-      <c r="H130" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="I130" s="26" t="s">
-        <v>360</v>
-      </c>
+      <c r="H130" s="22"/>
+      <c r="I130" s="26"/>
       <c r="J130" s="6"/>
       <c r="K130" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="L130" s="26" t="s">
-        <v>396</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="L130" s="26"/>
       <c r="M130" s="37"/>
-      <c r="N130" s="22" t="s">
-        <v>404</v>
-      </c>
+      <c r="N130" s="22"/>
       <c r="O130" s="5"/>
       <c r="P130" s="6"/>
       <c r="Q130" s="7"/>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B131" s="50"/>
+      <c r="B131" s="47"/>
       <c r="C131" s="5"/>
       <c r="D131" s="6"/>
       <c r="E131" s="7"/>
       <c r="F131" s="26"/>
       <c r="G131" s="6"/>
-      <c r="H131" s="22" t="s">
-        <v>367</v>
-      </c>
+      <c r="H131" s="22"/>
       <c r="I131" s="26"/>
       <c r="J131" s="6"/>
-      <c r="K131" s="22"/>
-      <c r="L131" s="26" t="s">
-        <v>397</v>
-      </c>
+      <c r="K131" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="L131" s="26"/>
       <c r="M131" s="37"/>
-      <c r="N131" s="22" t="s">
-        <v>405</v>
-      </c>
+      <c r="N131" s="22"/>
       <c r="O131" s="5"/>
       <c r="P131" s="6"/>
       <c r="Q131" s="7"/>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B132" s="50"/>
+    <row r="132" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="47"/>
       <c r="C132" s="5"/>
       <c r="D132" s="6"/>
       <c r="E132" s="7"/>
       <c r="F132" s="26"/>
       <c r="G132" s="6"/>
-      <c r="H132" s="22" t="s">
-        <v>368</v>
-      </c>
+      <c r="H132" s="22"/>
       <c r="I132" s="26"/>
       <c r="J132" s="6"/>
-      <c r="K132" s="22"/>
-      <c r="L132" s="39" t="s">
-        <v>398</v>
-      </c>
-      <c r="M132" s="42"/>
-      <c r="N132" s="41"/>
+      <c r="K132" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="L132" s="27"/>
+      <c r="M132" s="38"/>
+      <c r="N132" s="24"/>
       <c r="O132" s="5"/>
       <c r="P132" s="6"/>
       <c r="Q132" s="7"/>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B133" s="50"/>
+      <c r="B133" s="47"/>
       <c r="C133" s="5"/>
       <c r="D133" s="6"/>
       <c r="E133" s="7"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="I133" s="26"/>
-      <c r="J133" s="6"/>
-      <c r="K133" s="22"/>
-      <c r="L133" s="5"/>
+      <c r="F133" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="G133" s="50"/>
+      <c r="H133" s="51"/>
+      <c r="I133" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="J133" s="50"/>
+      <c r="K133" s="51"/>
+      <c r="L133" s="26"/>
       <c r="M133" s="37"/>
-      <c r="N133" s="7"/>
+      <c r="N133" s="22"/>
       <c r="O133" s="5"/>
       <c r="P133" s="6"/>
       <c r="Q133" s="7"/>
     </row>
-    <row r="134" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="51"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="27"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="24" t="s">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B134" s="47"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H134" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J134" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K134" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L134" s="26"/>
+      <c r="M134" s="37"/>
+      <c r="N134" s="22"/>
+      <c r="O134" s="5"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="7"/>
+    </row>
+    <row r="135" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B135" s="47"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H135" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="I135" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="K135" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="L135" s="26"/>
+      <c r="M135" s="37"/>
+      <c r="N135" s="22"/>
+      <c r="O135" s="5"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="7"/>
+    </row>
+    <row r="136" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B136" s="47"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="H136" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="I136" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="K136" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L136" s="26"/>
+      <c r="M136" s="37"/>
+      <c r="N136" s="22"/>
+      <c r="O136" s="5"/>
+      <c r="P136" s="6"/>
+      <c r="Q136" s="7"/>
+    </row>
+    <row r="137" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B137" s="47"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="H137" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="I137" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="K137" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="L137" s="26"/>
+      <c r="M137" s="37"/>
+      <c r="N137" s="22"/>
+      <c r="O137" s="5"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="7"/>
+    </row>
+    <row r="138" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B138" s="47"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="H138" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="I138" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="K138" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="L138" s="26"/>
+      <c r="M138" s="37"/>
+      <c r="N138" s="22"/>
+      <c r="O138" s="5"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="7"/>
+    </row>
+    <row r="139" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B139" s="47"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H139" s="22"/>
+      <c r="I139" s="26"/>
+      <c r="J139" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="K139" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="L139" s="26"/>
+      <c r="M139" s="37"/>
+      <c r="N139" s="22"/>
+      <c r="O139" s="5"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="7"/>
+    </row>
+    <row r="140" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B140" s="47"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="H140" s="22"/>
+      <c r="I140" s="26"/>
+      <c r="J140" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="K140" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="L140" s="26"/>
+      <c r="M140" s="37"/>
+      <c r="N140" s="22"/>
+      <c r="O140" s="5"/>
+      <c r="P140" s="6"/>
+      <c r="Q140" s="7"/>
+    </row>
+    <row r="141" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B141" s="47"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="H141" s="22"/>
+      <c r="I141" s="26"/>
+      <c r="J141" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="K141" s="22"/>
+      <c r="L141" s="26"/>
+      <c r="M141" s="37"/>
+      <c r="N141" s="22"/>
+      <c r="O141" s="5"/>
+      <c r="P141" s="6"/>
+      <c r="Q141" s="7"/>
+    </row>
+    <row r="142" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="47"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="27"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="24"/>
+      <c r="I142" s="26"/>
+      <c r="J142" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="K142" s="22"/>
+      <c r="L142" s="26"/>
+      <c r="M142" s="37"/>
+      <c r="N142" s="22"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="7"/>
+    </row>
+    <row r="143" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B143" s="47"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="26"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="J143" s="50"/>
+      <c r="K143" s="51"/>
+      <c r="L143" s="26"/>
+      <c r="M143" s="37"/>
+      <c r="N143" s="22"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="7"/>
+    </row>
+    <row r="144" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B144" s="47"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J144" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K144" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L144" s="26"/>
+      <c r="M144" s="37"/>
+      <c r="N144" s="22"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="7"/>
+    </row>
+    <row r="145" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B145" s="47"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="22"/>
+      <c r="I145" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="J145" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="K145" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="L145" s="26"/>
+      <c r="M145" s="37"/>
+      <c r="N145" s="22"/>
+      <c r="O145" s="5"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="7"/>
+    </row>
+    <row r="146" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B146" s="47"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="26"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="22"/>
+      <c r="I146" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="J146" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="K146" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L146" s="26"/>
+      <c r="M146" s="37"/>
+      <c r="N146" s="22"/>
+      <c r="O146" s="5"/>
+      <c r="P146" s="6"/>
+      <c r="Q146" s="7"/>
+    </row>
+    <row r="147" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B147" s="47"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="26"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="22"/>
+      <c r="I147" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="J147" s="6"/>
+      <c r="K147" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="L147" s="26"/>
+      <c r="M147" s="37"/>
+      <c r="N147" s="22"/>
+      <c r="O147" s="5"/>
+      <c r="P147" s="6"/>
+      <c r="Q147" s="7"/>
+    </row>
+    <row r="148" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B148" s="47"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="26"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="22"/>
+      <c r="I148" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="J148" s="6"/>
+      <c r="K148" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="L148" s="26"/>
+      <c r="M148" s="37"/>
+      <c r="N148" s="22"/>
+      <c r="O148" s="5"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="7"/>
+    </row>
+    <row r="149" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B149" s="47"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="22"/>
+      <c r="I149" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="J149" s="6"/>
+      <c r="K149" s="22"/>
+      <c r="L149" s="26"/>
+      <c r="M149" s="37"/>
+      <c r="N149" s="22"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="7"/>
+    </row>
+    <row r="150" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="47"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="26"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="22"/>
+      <c r="I150" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="J150" s="6"/>
+      <c r="K150" s="22"/>
+      <c r="L150" s="26"/>
+      <c r="M150" s="37"/>
+      <c r="N150" s="22"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="6"/>
+      <c r="Q150" s="7"/>
+    </row>
+    <row r="151" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B151" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="C151" s="43"/>
+      <c r="D151" s="44"/>
+      <c r="E151" s="45"/>
+      <c r="F151" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="G151" s="50"/>
+      <c r="H151" s="51"/>
+      <c r="I151" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="J151" s="50"/>
+      <c r="K151" s="51"/>
+      <c r="L151" s="49" t="s">
+        <v>354</v>
+      </c>
+      <c r="M151" s="50"/>
+      <c r="N151" s="51"/>
+      <c r="O151" s="43"/>
+      <c r="P151" s="44"/>
+      <c r="Q151" s="45"/>
+    </row>
+    <row r="152" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B152" s="47"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G152" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I152" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J152" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K152" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L152" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M152" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N152" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O152" s="2"/>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="4"/>
+    </row>
+    <row r="153" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B153" s="47"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H153" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="I153" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J153" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K153" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="L153" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M153" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="N153" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="O153" s="5"/>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="7"/>
+    </row>
+    <row r="154" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B154" s="47"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H154" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="I154" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="J154" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="K154" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="L154" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="M154" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="N154" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="O154" s="5"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="7"/>
+    </row>
+    <row r="155" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B155" s="47"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H155" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="I155" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="K155" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="L155" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="M155" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="N155" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="O155" s="5"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="7"/>
+    </row>
+    <row r="156" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B156" s="47"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="G156" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="H156" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="I156" s="26" t="s">
         <v>370</v>
       </c>
-      <c r="I134" s="27"/>
-      <c r="J134" s="9"/>
-      <c r="K134" s="24"/>
-      <c r="L134" s="8"/>
-      <c r="M134" s="9"/>
-      <c r="N134" s="10"/>
-      <c r="O134" s="8"/>
-      <c r="P134" s="9"/>
-      <c r="Q134" s="10"/>
+      <c r="J156" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="K156" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="L156" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="M156" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="N156" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O156" s="5"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="7"/>
+    </row>
+    <row r="157" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B157" s="47"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H157" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="I157" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="J157" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="K157" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="L157" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="M157" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="N157" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O157" s="5"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="7"/>
+    </row>
+    <row r="158" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B158" s="47"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="G158" s="6"/>
+      <c r="H158" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="I158" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="J158" s="6"/>
+      <c r="K158" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="L158" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="M158" s="37"/>
+      <c r="N158" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="O158" s="5"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="7"/>
+    </row>
+    <row r="159" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B159" s="47"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="26"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="I159" s="26"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="22"/>
+      <c r="L159" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="M159" s="37"/>
+      <c r="N159" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="O159" s="5"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="7"/>
+    </row>
+    <row r="160" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B160" s="47"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="26"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="I160" s="26"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="22"/>
+      <c r="L160" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="M160" s="42"/>
+      <c r="N160" s="41"/>
+      <c r="O160" s="5"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="7"/>
+    </row>
+    <row r="161" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B161" s="47"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="26"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I161" s="26"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="22"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="37"/>
+      <c r="N161" s="7"/>
+      <c r="O161" s="5"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="7"/>
+    </row>
+    <row r="162" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B162" s="48"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="I162" s="27"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="24"/>
+      <c r="L162" s="8"/>
+      <c r="M162" s="9"/>
+      <c r="N162" s="10"/>
+      <c r="O162" s="8"/>
+      <c r="P162" s="9"/>
+      <c r="Q162" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="62">
     <mergeCell ref="O123:Q123"/>
-    <mergeCell ref="B123:B134"/>
+    <mergeCell ref="B123:B150"/>
     <mergeCell ref="C123:E123"/>
     <mergeCell ref="F123:H123"/>
     <mergeCell ref="I123:K123"/>
     <mergeCell ref="L123:N123"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="I133:K133"/>
+    <mergeCell ref="I143:K143"/>
     <mergeCell ref="B3:B20"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
@@ -6255,9 +7498,216 @@
     <mergeCell ref="F89:H89"/>
     <mergeCell ref="I89:K89"/>
     <mergeCell ref="L89:N89"/>
+    <mergeCell ref="O151:Q151"/>
+    <mergeCell ref="B151:B162"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:H151"/>
+    <mergeCell ref="I151:K151"/>
+    <mergeCell ref="L151:N151"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="30.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="63"/>
+      <c r="C2" s="64" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>467</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B3" s="66" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>480</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>490</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>494</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="B4" s="66" t="s">
+        <v>471</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="E4" s="67"/>
+      <c r="F4" s="74" t="s">
+        <v>506</v>
+      </c>
+      <c r="G4" s="69"/>
+    </row>
+    <row r="5" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="66" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68" t="s">
+        <v>484</v>
+      </c>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67" t="s">
+        <v>495</v>
+      </c>
+      <c r="G5" s="69"/>
+    </row>
+    <row r="6" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="66" t="s">
+        <v>473</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68" t="s">
+        <v>504</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67" t="s">
+        <v>496</v>
+      </c>
+      <c r="G6" s="69"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="66" t="s">
+        <v>474</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67" t="s">
+        <v>485</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>503</v>
+      </c>
+      <c r="G7" s="69"/>
+    </row>
+    <row r="8" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="66" t="s">
+        <v>475</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68" t="s">
+        <v>486</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>491</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>497</v>
+      </c>
+      <c r="G8" s="69"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="66" t="s">
+        <v>476</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67" t="s">
+        <v>487</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>492</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>498</v>
+      </c>
+      <c r="G9" s="69"/>
+    </row>
+    <row r="10" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="66" t="s">
+        <v>479</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68" t="s">
+        <v>507</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>505</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>499</v>
+      </c>
+      <c r="G10" s="69"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67" t="s">
+        <v>488</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>353</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>500</v>
+      </c>
+      <c r="G11" s="69"/>
+    </row>
+    <row r="12" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="70" t="s">
+        <v>478</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>481</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>489</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>493</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>501</v>
+      </c>
+      <c r="G12" s="72"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>